--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,88 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30487100</v>
+        <v>31515700</v>
       </c>
       <c r="E8" s="3">
-        <v>48265900</v>
+        <v>31176700</v>
       </c>
       <c r="F8" s="3">
-        <v>48511800</v>
+        <v>48805300</v>
       </c>
       <c r="G8" s="3">
-        <v>50860500</v>
+        <v>48936000</v>
       </c>
       <c r="H8" s="3">
-        <v>52889600</v>
+        <v>51305100</v>
       </c>
       <c r="I8" s="3">
-        <v>56455900</v>
+        <v>53352000</v>
       </c>
       <c r="J8" s="3">
+        <v>56949500</v>
+      </c>
+      <c r="K8" s="3">
         <v>65900900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79429400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-572100</v>
+        <v>-872800</v>
       </c>
       <c r="E15" s="3">
-        <v>-571000</v>
+        <v>-803000</v>
       </c>
       <c r="F15" s="3">
-        <v>-588500</v>
+        <v>-767600</v>
       </c>
       <c r="G15" s="3">
-        <v>-675300</v>
+        <v>-593700</v>
       </c>
       <c r="H15" s="3">
-        <v>-632400</v>
+        <v>-681200</v>
       </c>
       <c r="I15" s="3">
-        <v>-665400</v>
+        <v>-638000</v>
       </c>
       <c r="J15" s="3">
+        <v>-671200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-715900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1015300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16967400</v>
+        <v>18294200</v>
       </c>
       <c r="E17" s="3">
-        <v>34939500</v>
+        <v>17538800</v>
       </c>
       <c r="F17" s="3">
-        <v>35042700</v>
+        <v>35362300</v>
       </c>
       <c r="G17" s="3">
-        <v>38547500</v>
+        <v>35349100</v>
       </c>
       <c r="H17" s="3">
-        <v>41130000</v>
+        <v>38884500</v>
       </c>
       <c r="I17" s="3">
-        <v>46096200</v>
+        <v>41489600</v>
       </c>
       <c r="J17" s="3">
+        <v>46499300</v>
+      </c>
+      <c r="K17" s="3">
         <v>55167900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62059300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13519700</v>
+        <v>13221400</v>
       </c>
       <c r="E18" s="3">
-        <v>13326400</v>
+        <v>13637900</v>
       </c>
       <c r="F18" s="3">
-        <v>13469200</v>
+        <v>13442900</v>
       </c>
       <c r="G18" s="3">
-        <v>12313000</v>
+        <v>13586900</v>
       </c>
       <c r="H18" s="3">
-        <v>11759600</v>
+        <v>12420600</v>
       </c>
       <c r="I18" s="3">
-        <v>10359600</v>
+        <v>11862400</v>
       </c>
       <c r="J18" s="3">
+        <v>10450200</v>
+      </c>
+      <c r="K18" s="3">
         <v>10733000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17370000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6011600</v>
+        <v>-5652100</v>
       </c>
       <c r="E20" s="3">
-        <v>-5346200</v>
+        <v>-6064100</v>
       </c>
       <c r="F20" s="3">
-        <v>-6987700</v>
+        <v>-5392900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5536100</v>
+        <v>-7048800</v>
       </c>
       <c r="H20" s="3">
-        <v>-7689300</v>
+        <v>-5584500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3801300</v>
+        <v>-7756500</v>
       </c>
       <c r="J20" s="3">
+        <v>-3834500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7016200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11411800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8080000</v>
+        <v>8437500</v>
       </c>
       <c r="E21" s="3">
-        <v>8552100</v>
+        <v>8145900</v>
       </c>
       <c r="F21" s="3">
-        <v>7070900</v>
+        <v>8622200</v>
       </c>
       <c r="G21" s="3">
-        <v>7474100</v>
+        <v>7127900</v>
       </c>
       <c r="H21" s="3">
-        <v>4831300</v>
+        <v>7533700</v>
       </c>
       <c r="I21" s="3">
-        <v>7399600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>4867300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7457400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7736600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7508100</v>
+        <v>7569300</v>
       </c>
       <c r="E23" s="3">
-        <v>7980300</v>
+        <v>7573800</v>
       </c>
       <c r="F23" s="3">
-        <v>6481500</v>
+        <v>8050000</v>
       </c>
       <c r="G23" s="3">
-        <v>6776900</v>
+        <v>6538200</v>
       </c>
       <c r="H23" s="3">
-        <v>4070300</v>
+        <v>6836100</v>
       </c>
       <c r="I23" s="3">
-        <v>6558400</v>
+        <v>4105900</v>
       </c>
       <c r="J23" s="3">
+        <v>6615700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3716700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5958300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2225600</v>
+        <v>2165400</v>
       </c>
       <c r="E24" s="3">
-        <v>2504500</v>
+        <v>2245100</v>
       </c>
       <c r="F24" s="3">
-        <v>1776600</v>
+        <v>2526400</v>
       </c>
       <c r="G24" s="3">
-        <v>1797400</v>
+        <v>1792100</v>
       </c>
       <c r="H24" s="3">
-        <v>1066200</v>
+        <v>1813100</v>
       </c>
       <c r="I24" s="3">
-        <v>1644800</v>
+        <v>1075500</v>
       </c>
       <c r="J24" s="3">
+        <v>1659200</v>
+      </c>
+      <c r="K24" s="3">
         <v>939900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1232500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5282500</v>
+        <v>5404000</v>
       </c>
       <c r="E26" s="3">
-        <v>5475700</v>
+        <v>5328700</v>
       </c>
       <c r="F26" s="3">
-        <v>4704900</v>
+        <v>5523600</v>
       </c>
       <c r="G26" s="3">
-        <v>4979400</v>
+        <v>4746100</v>
       </c>
       <c r="H26" s="3">
-        <v>3004100</v>
+        <v>5023000</v>
       </c>
       <c r="I26" s="3">
-        <v>4913600</v>
+        <v>3030400</v>
       </c>
       <c r="J26" s="3">
+        <v>4956500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2776800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4725800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5163900</v>
+        <v>5295400</v>
       </c>
       <c r="E27" s="3">
-        <v>5385700</v>
+        <v>5209000</v>
       </c>
       <c r="F27" s="3">
-        <v>4622600</v>
+        <v>5432800</v>
       </c>
       <c r="G27" s="3">
-        <v>4903700</v>
+        <v>4663000</v>
       </c>
       <c r="H27" s="3">
-        <v>2093900</v>
+        <v>4946500</v>
       </c>
       <c r="I27" s="3">
-        <v>4248200</v>
+        <v>2112200</v>
       </c>
       <c r="J27" s="3">
+        <v>4285300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1860000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2750200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,39 +1344,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>484200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-500700</v>
+        <v>488500</v>
       </c>
       <c r="H29" s="3">
-        <v>-1543800</v>
+        <v>-505100</v>
       </c>
       <c r="I29" s="3">
-        <v>543500</v>
+        <v>-1557300</v>
       </c>
       <c r="J29" s="3">
+        <v>548300</v>
+      </c>
+      <c r="K29" s="3">
         <v>1405400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1753700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6011600</v>
+        <v>5652100</v>
       </c>
       <c r="E32" s="3">
-        <v>5346200</v>
+        <v>6064100</v>
       </c>
       <c r="F32" s="3">
-        <v>6987700</v>
+        <v>5392900</v>
       </c>
       <c r="G32" s="3">
-        <v>5536100</v>
+        <v>7048800</v>
       </c>
       <c r="H32" s="3">
-        <v>7689300</v>
+        <v>5584500</v>
       </c>
       <c r="I32" s="3">
-        <v>3801300</v>
+        <v>7756500</v>
       </c>
       <c r="J32" s="3">
+        <v>3834500</v>
+      </c>
+      <c r="K32" s="3">
         <v>7016200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11411800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5163900</v>
+        <v>5295400</v>
       </c>
       <c r="E33" s="3">
-        <v>5385700</v>
+        <v>5209000</v>
       </c>
       <c r="F33" s="3">
-        <v>5106800</v>
+        <v>5432800</v>
       </c>
       <c r="G33" s="3">
-        <v>4403000</v>
+        <v>5151400</v>
       </c>
       <c r="H33" s="3">
-        <v>550100</v>
+        <v>4441500</v>
       </c>
       <c r="I33" s="3">
-        <v>4791700</v>
+        <v>554900</v>
       </c>
       <c r="J33" s="3">
+        <v>4833600</v>
+      </c>
+      <c r="K33" s="3">
         <v>3265500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4503900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5163900</v>
+        <v>5295400</v>
       </c>
       <c r="E35" s="3">
-        <v>5385700</v>
+        <v>5209000</v>
       </c>
       <c r="F35" s="3">
-        <v>5106800</v>
+        <v>5432800</v>
       </c>
       <c r="G35" s="3">
-        <v>4403000</v>
+        <v>5151400</v>
       </c>
       <c r="H35" s="3">
-        <v>550100</v>
+        <v>4441500</v>
       </c>
       <c r="I35" s="3">
-        <v>4791700</v>
+        <v>554900</v>
       </c>
       <c r="J35" s="3">
+        <v>4833600</v>
+      </c>
+      <c r="K35" s="3">
         <v>3265500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4503900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,68 +1646,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>88289100</v>
+        <v>98037500</v>
       </c>
       <c r="E41" s="3">
-        <v>55778400</v>
+        <v>89237900</v>
       </c>
       <c r="F41" s="3">
-        <v>51608200</v>
+        <v>56377800</v>
       </c>
       <c r="G41" s="3">
-        <v>112975000</v>
+        <v>52162800</v>
       </c>
       <c r="H41" s="3">
-        <v>108377000</v>
+        <v>114190000</v>
       </c>
       <c r="I41" s="3">
-        <v>123661000</v>
+        <v>109542000</v>
       </c>
       <c r="J41" s="3">
+        <v>124990000</v>
+      </c>
+      <c r="K41" s="3">
         <v>143923000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126432000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>132294000</v>
+        <v>106748000</v>
       </c>
       <c r="E42" s="3">
-        <v>135297000</v>
+        <v>133715000</v>
       </c>
       <c r="F42" s="3">
-        <v>134058000</v>
+        <v>136751000</v>
       </c>
       <c r="G42" s="3">
-        <v>151577000</v>
+        <v>135499000</v>
       </c>
       <c r="H42" s="3">
-        <v>158221000</v>
+        <v>153206000</v>
       </c>
       <c r="I42" s="3">
-        <v>362718000</v>
+        <v>159921000</v>
       </c>
       <c r="J42" s="3">
+        <v>366616000</v>
+      </c>
+      <c r="K42" s="3">
         <v>256626000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>308386000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,99 +1841,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1320900</v>
+        <v>1986500</v>
       </c>
       <c r="E47" s="3">
-        <v>1194600</v>
+        <v>1335100</v>
       </c>
       <c r="F47" s="3">
-        <v>1252800</v>
+        <v>1207500</v>
       </c>
       <c r="G47" s="3">
-        <v>1056300</v>
+        <v>1266300</v>
       </c>
       <c r="H47" s="3">
-        <v>1046400</v>
+        <v>1067600</v>
       </c>
       <c r="I47" s="3">
-        <v>2220200</v>
+        <v>1057600</v>
       </c>
       <c r="J47" s="3">
+        <v>2244000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7928700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9163900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1880900</v>
+        <v>3571300</v>
       </c>
       <c r="E48" s="3">
-        <v>2048900</v>
+        <v>1901100</v>
       </c>
       <c r="F48" s="3">
-        <v>2198200</v>
+        <v>2070900</v>
       </c>
       <c r="G48" s="3">
-        <v>4535800</v>
+        <v>2221800</v>
       </c>
       <c r="H48" s="3">
-        <v>4699400</v>
+        <v>4584600</v>
       </c>
       <c r="I48" s="3">
-        <v>6519900</v>
+        <v>4749900</v>
       </c>
       <c r="J48" s="3">
+        <v>6590000</v>
+      </c>
+      <c r="K48" s="3">
         <v>11519100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10695800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2019200</v>
+        <v>2126400</v>
       </c>
       <c r="E49" s="3">
-        <v>1613000</v>
+        <v>2040900</v>
       </c>
       <c r="F49" s="3">
-        <v>1629400</v>
+        <v>1630300</v>
       </c>
       <c r="G49" s="3">
-        <v>2818600</v>
+        <v>1646900</v>
       </c>
       <c r="H49" s="3">
-        <v>5368100</v>
+        <v>2848900</v>
       </c>
       <c r="I49" s="3">
-        <v>2220200</v>
+        <v>5425800</v>
       </c>
       <c r="J49" s="3">
+        <v>2244000</v>
+      </c>
+      <c r="K49" s="3">
         <v>8692900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8352800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2887700</v>
+        <v>1597000</v>
       </c>
       <c r="E52" s="3">
-        <v>1493300</v>
+        <v>2918800</v>
       </c>
       <c r="F52" s="3">
-        <v>1013500</v>
+        <v>1509300</v>
       </c>
       <c r="G52" s="3">
-        <v>3963800</v>
+        <v>1024300</v>
       </c>
       <c r="H52" s="3">
-        <v>183658000</v>
+        <v>4006400</v>
       </c>
       <c r="I52" s="3">
-        <v>174879000</v>
+        <v>185632000</v>
       </c>
       <c r="J52" s="3">
+        <v>176758000</v>
+      </c>
+      <c r="K52" s="3">
         <v>84463700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91383500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>973959000</v>
+        <v>989658000</v>
       </c>
       <c r="E54" s="3">
-        <v>929145000</v>
+        <v>984426000</v>
       </c>
       <c r="F54" s="3">
-        <v>927899000</v>
+        <v>939131000</v>
       </c>
       <c r="G54" s="3">
-        <v>1103750000</v>
+        <v>937871000</v>
       </c>
       <c r="H54" s="3">
-        <v>1294170000</v>
+        <v>1115610000</v>
       </c>
       <c r="I54" s="3">
-        <v>1182130000</v>
+        <v>1308070000</v>
       </c>
       <c r="J54" s="3">
+        <v>1194830000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1271540000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1495710000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,98 +2138,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2561600</v>
+        <v>2352800</v>
       </c>
       <c r="E57" s="3">
-        <v>6813100</v>
+        <v>2589200</v>
       </c>
       <c r="F57" s="3">
-        <v>4824600</v>
+        <v>6886300</v>
       </c>
       <c r="G57" s="3">
-        <v>5661300</v>
+        <v>4876500</v>
       </c>
       <c r="H57" s="3">
-        <v>6304700</v>
+        <v>5722100</v>
       </c>
       <c r="I57" s="3">
-        <v>8647800</v>
+        <v>6372500</v>
       </c>
       <c r="J57" s="3">
+        <v>8740800</v>
+      </c>
+      <c r="K57" s="3">
         <v>11604800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13731200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60729300</v>
+        <v>57497600</v>
       </c>
       <c r="E58" s="3">
-        <v>48736900</v>
+        <v>61381900</v>
       </c>
       <c r="F58" s="3">
-        <v>44453600</v>
+        <v>49260700</v>
       </c>
       <c r="G58" s="3">
-        <v>56229700</v>
+        <v>44931400</v>
       </c>
       <c r="H58" s="3">
-        <v>59827800</v>
+        <v>56834000</v>
       </c>
       <c r="I58" s="3">
-        <v>57937100</v>
+        <v>60470800</v>
       </c>
       <c r="J58" s="3">
+        <v>58559700</v>
+      </c>
+      <c r="K58" s="3">
         <v>113681000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1864400</v>
+        <v>1689100</v>
       </c>
       <c r="E59" s="3">
-        <v>1902800</v>
+        <v>1884400</v>
       </c>
       <c r="F59" s="3">
-        <v>1143000</v>
+        <v>1923300</v>
       </c>
       <c r="G59" s="3">
-        <v>1268200</v>
+        <v>1155300</v>
       </c>
       <c r="H59" s="3">
-        <v>1135300</v>
+        <v>1281800</v>
       </c>
       <c r="I59" s="3">
-        <v>1397800</v>
+        <v>1147500</v>
       </c>
       <c r="J59" s="3">
+        <v>1412800</v>
+      </c>
+      <c r="K59" s="3">
         <v>14712100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16799600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,69 +2267,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85826300</v>
+        <v>94126600</v>
       </c>
       <c r="E61" s="3">
-        <v>74298400</v>
+        <v>86748600</v>
       </c>
       <c r="F61" s="3">
-        <v>87808200</v>
+        <v>75096800</v>
       </c>
       <c r="G61" s="3">
-        <v>94964900</v>
+        <v>88751800</v>
       </c>
       <c r="H61" s="3">
-        <v>158672000</v>
+        <v>95985500</v>
       </c>
       <c r="I61" s="3">
-        <v>104921000</v>
+        <v>160377000</v>
       </c>
       <c r="J61" s="3">
+        <v>106048000</v>
+      </c>
+      <c r="K61" s="3">
         <v>185502000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>197673000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2358500</v>
+        <v>2164100</v>
       </c>
       <c r="E62" s="3">
-        <v>3324700</v>
+        <v>2383900</v>
       </c>
       <c r="F62" s="3">
-        <v>3807900</v>
+        <v>3360500</v>
       </c>
       <c r="G62" s="3">
-        <v>2311300</v>
+        <v>3848800</v>
       </c>
       <c r="H62" s="3">
-        <v>3120500</v>
+        <v>2336100</v>
       </c>
       <c r="I62" s="3">
-        <v>573200</v>
+        <v>3154100</v>
       </c>
       <c r="J62" s="3">
+        <v>579300</v>
+      </c>
+      <c r="K62" s="3">
         <v>5090300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7349200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>918036000</v>
+        <v>929985000</v>
       </c>
       <c r="E66" s="3">
-        <v>873799000</v>
+        <v>927902000</v>
       </c>
       <c r="F66" s="3">
-        <v>873226000</v>
+        <v>883190000</v>
       </c>
       <c r="G66" s="3">
-        <v>1051230000</v>
+        <v>882611000</v>
       </c>
       <c r="H66" s="3">
-        <v>1237790000</v>
+        <v>1062520000</v>
       </c>
       <c r="I66" s="3">
-        <v>1134060000</v>
+        <v>1251090000</v>
       </c>
       <c r="J66" s="3">
+        <v>1146250000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1218060000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1441920000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33224400</v>
+        <v>36249400</v>
       </c>
       <c r="E72" s="3">
-        <v>31840900</v>
+        <v>33581400</v>
       </c>
       <c r="F72" s="3">
-        <v>29543900</v>
+        <v>32183100</v>
       </c>
       <c r="G72" s="3">
-        <v>27549900</v>
+        <v>29861400</v>
       </c>
       <c r="H72" s="3">
-        <v>25429700</v>
+        <v>27846000</v>
       </c>
       <c r="I72" s="3">
-        <v>20812600</v>
+        <v>25703000</v>
       </c>
       <c r="J72" s="3">
+        <v>21036300</v>
+      </c>
+      <c r="K72" s="3">
         <v>43774000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46677700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55923300</v>
+        <v>59672800</v>
       </c>
       <c r="E76" s="3">
-        <v>55345800</v>
+        <v>56524300</v>
       </c>
       <c r="F76" s="3">
-        <v>54672700</v>
+        <v>55940600</v>
       </c>
       <c r="G76" s="3">
-        <v>52519500</v>
+        <v>55260300</v>
       </c>
       <c r="H76" s="3">
-        <v>56375700</v>
+        <v>53084000</v>
       </c>
       <c r="I76" s="3">
-        <v>48065000</v>
+        <v>56981600</v>
       </c>
       <c r="J76" s="3">
+        <v>48581500</v>
+      </c>
+      <c r="K76" s="3">
         <v>53480300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53792200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5163900</v>
+        <v>5295400</v>
       </c>
       <c r="E81" s="3">
-        <v>5385700</v>
+        <v>5209000</v>
       </c>
       <c r="F81" s="3">
-        <v>5106800</v>
+        <v>5432800</v>
       </c>
       <c r="G81" s="3">
-        <v>4403000</v>
+        <v>5151400</v>
       </c>
       <c r="H81" s="3">
-        <v>550100</v>
+        <v>4441500</v>
       </c>
       <c r="I81" s="3">
-        <v>4791700</v>
+        <v>554900</v>
       </c>
       <c r="J81" s="3">
+        <v>4833600</v>
+      </c>
+      <c r="K81" s="3">
         <v>3265500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4503900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>571000</v>
+        <v>873900</v>
       </c>
       <c r="E83" s="3">
-        <v>571000</v>
+        <v>576000</v>
       </c>
       <c r="F83" s="3">
-        <v>588500</v>
+        <v>576000</v>
       </c>
       <c r="G83" s="3">
-        <v>696100</v>
+        <v>593700</v>
       </c>
       <c r="H83" s="3">
-        <v>759800</v>
+        <v>702200</v>
       </c>
       <c r="I83" s="3">
-        <v>840000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>766500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>847300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1777100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7592700</v>
+        <v>14459700</v>
       </c>
       <c r="E89" s="3">
-        <v>-5767800</v>
+        <v>7659100</v>
       </c>
       <c r="F89" s="3">
-        <v>9391200</v>
+        <v>-5818200</v>
       </c>
       <c r="G89" s="3">
-        <v>11613500</v>
+        <v>9473300</v>
       </c>
       <c r="H89" s="3">
-        <v>13196900</v>
+        <v>11715100</v>
       </c>
       <c r="I89" s="3">
-        <v>-9243000</v>
+        <v>13312200</v>
       </c>
       <c r="J89" s="3">
+        <v>-9323800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10167500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16596500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-314000</v>
+        <v>-393200</v>
       </c>
       <c r="E91" s="3">
-        <v>-333800</v>
+        <v>-316800</v>
       </c>
       <c r="F91" s="3">
-        <v>-455700</v>
+        <v>-336700</v>
       </c>
       <c r="G91" s="3">
-        <v>-428200</v>
+        <v>-459700</v>
       </c>
       <c r="H91" s="3">
-        <v>-449100</v>
+        <v>-432000</v>
       </c>
       <c r="I91" s="3">
-        <v>-516100</v>
+        <v>-453000</v>
       </c>
       <c r="J91" s="3">
+        <v>-520600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-464500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1980200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5985200</v>
+        <v>-2763500</v>
       </c>
       <c r="E94" s="3">
-        <v>12905900</v>
+        <v>6037500</v>
       </c>
       <c r="F94" s="3">
-        <v>6735100</v>
+        <v>13018700</v>
       </c>
       <c r="G94" s="3">
-        <v>4607200</v>
+        <v>6794000</v>
       </c>
       <c r="H94" s="3">
-        <v>-8146100</v>
+        <v>4647500</v>
       </c>
       <c r="I94" s="3">
-        <v>10177400</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-8217300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>10266300</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7634500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,25 +3292,26 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2862500</v>
+        <v>-2967300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2815300</v>
+        <v>-2887500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2768100</v>
+        <v>-2839900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1529500</v>
+        <v>-2792300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1542900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17549300</v>
+        <v>-4601000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4334900</v>
+        <v>17702800</v>
       </c>
       <c r="F100" s="3">
-        <v>-20924600</v>
+        <v>-4372800</v>
       </c>
       <c r="G100" s="3">
-        <v>-12259200</v>
+        <v>-21107500</v>
       </c>
       <c r="H100" s="3">
-        <v>-5120000</v>
+        <v>-12366400</v>
       </c>
       <c r="I100" s="3">
-        <v>-9555900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-5164700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-9639400</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8135700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>224000</v>
+        <v>105200</v>
       </c>
       <c r="E101" s="3">
-        <v>285500</v>
+        <v>226000</v>
       </c>
       <c r="F101" s="3">
-        <v>170200</v>
+        <v>288000</v>
       </c>
       <c r="G101" s="3">
-        <v>-375500</v>
+        <v>171700</v>
       </c>
       <c r="H101" s="3">
+        <v>-378800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4400</v>
       </c>
-      <c r="I101" s="3">
-        <v>968400</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>976900</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-234800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31351200</v>
+        <v>7200500</v>
       </c>
       <c r="E102" s="3">
-        <v>3088700</v>
+        <v>31625300</v>
       </c>
       <c r="F102" s="3">
-        <v>-4628100</v>
+        <v>3115700</v>
       </c>
       <c r="G102" s="3">
-        <v>3586100</v>
+        <v>-4668500</v>
       </c>
       <c r="H102" s="3">
-        <v>-73600</v>
+        <v>3617400</v>
       </c>
       <c r="I102" s="3">
-        <v>-7653100</v>
+        <v>-74200</v>
       </c>
       <c r="J102" s="3">
+        <v>-7720000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11122700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15860500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -718,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31515700</v>
+        <v>33658200</v>
       </c>
       <c r="E8" s="3">
-        <v>31176700</v>
+        <v>33296300</v>
       </c>
       <c r="F8" s="3">
-        <v>48805300</v>
+        <v>52123300</v>
       </c>
       <c r="G8" s="3">
-        <v>48936000</v>
+        <v>52262900</v>
       </c>
       <c r="H8" s="3">
-        <v>51305100</v>
+        <v>54793100</v>
       </c>
       <c r="I8" s="3">
-        <v>53352000</v>
+        <v>56979100</v>
       </c>
       <c r="J8" s="3">
-        <v>56949500</v>
+        <v>60821200</v>
       </c>
       <c r="K8" s="3">
         <v>65900900</v>
@@ -931,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-872800</v>
+        <v>-932100</v>
       </c>
       <c r="E15" s="3">
-        <v>-803000</v>
+        <v>-857600</v>
       </c>
       <c r="F15" s="3">
-        <v>-767600</v>
+        <v>-819700</v>
       </c>
       <c r="G15" s="3">
-        <v>-593700</v>
+        <v>-634000</v>
       </c>
       <c r="H15" s="3">
-        <v>-681200</v>
+        <v>-727500</v>
       </c>
       <c r="I15" s="3">
-        <v>-638000</v>
+        <v>-681400</v>
       </c>
       <c r="J15" s="3">
-        <v>-671200</v>
+        <v>-716800</v>
       </c>
       <c r="K15" s="3">
         <v>-715900</v>
@@ -976,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18294200</v>
+        <v>19538000</v>
       </c>
       <c r="E17" s="3">
-        <v>17538800</v>
+        <v>18731200</v>
       </c>
       <c r="F17" s="3">
-        <v>35362300</v>
+        <v>37766400</v>
       </c>
       <c r="G17" s="3">
-        <v>35349100</v>
+        <v>37752300</v>
       </c>
       <c r="H17" s="3">
-        <v>38884500</v>
+        <v>41528100</v>
       </c>
       <c r="I17" s="3">
-        <v>41489600</v>
+        <v>44310300</v>
       </c>
       <c r="J17" s="3">
-        <v>46499300</v>
+        <v>49660500</v>
       </c>
       <c r="K17" s="3">
         <v>55167900</v>
@@ -1009,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13221400</v>
+        <v>14120300</v>
       </c>
       <c r="E18" s="3">
-        <v>13637900</v>
+        <v>14565000</v>
       </c>
       <c r="F18" s="3">
-        <v>13442900</v>
+        <v>14356900</v>
       </c>
       <c r="G18" s="3">
-        <v>13586900</v>
+        <v>14510600</v>
       </c>
       <c r="H18" s="3">
-        <v>12420600</v>
+        <v>13265000</v>
       </c>
       <c r="I18" s="3">
-        <v>11862400</v>
+        <v>12668900</v>
       </c>
       <c r="J18" s="3">
-        <v>10450200</v>
+        <v>11160700</v>
       </c>
       <c r="K18" s="3">
         <v>10733000</v>
@@ -1057,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5652100</v>
+        <v>-6036300</v>
       </c>
       <c r="E20" s="3">
-        <v>-6064100</v>
+        <v>-6476400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5392900</v>
+        <v>-5759500</v>
       </c>
       <c r="G20" s="3">
-        <v>-7048800</v>
+        <v>-7528000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5584500</v>
+        <v>-5964200</v>
       </c>
       <c r="I20" s="3">
-        <v>-7756500</v>
+        <v>-8283800</v>
       </c>
       <c r="J20" s="3">
-        <v>-3834500</v>
+        <v>-4095200</v>
       </c>
       <c r="K20" s="3">
         <v>-7016200</v>
@@ -1090,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8437500</v>
+        <v>9017600</v>
       </c>
       <c r="E21" s="3">
-        <v>8145900</v>
+        <v>8704000</v>
       </c>
       <c r="F21" s="3">
-        <v>8622200</v>
+        <v>9212600</v>
       </c>
       <c r="G21" s="3">
-        <v>7127900</v>
+        <v>7616900</v>
       </c>
       <c r="H21" s="3">
-        <v>7533700</v>
+        <v>8051100</v>
       </c>
       <c r="I21" s="3">
-        <v>4867300</v>
+        <v>5203900</v>
       </c>
       <c r="J21" s="3">
-        <v>7457400</v>
+        <v>7970700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1156,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7569300</v>
+        <v>8083900</v>
       </c>
       <c r="E23" s="3">
-        <v>7573800</v>
+        <v>8088700</v>
       </c>
       <c r="F23" s="3">
-        <v>8050000</v>
+        <v>8597300</v>
       </c>
       <c r="G23" s="3">
-        <v>6538200</v>
+        <v>6982700</v>
       </c>
       <c r="H23" s="3">
-        <v>6836100</v>
+        <v>7300900</v>
       </c>
       <c r="I23" s="3">
-        <v>4105900</v>
+        <v>4385000</v>
       </c>
       <c r="J23" s="3">
-        <v>6615700</v>
+        <v>7065500</v>
       </c>
       <c r="K23" s="3">
         <v>3716700</v>
@@ -1189,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2165400</v>
+        <v>2312600</v>
       </c>
       <c r="E24" s="3">
-        <v>2245100</v>
+        <v>2397700</v>
       </c>
       <c r="F24" s="3">
-        <v>2526400</v>
+        <v>2698200</v>
       </c>
       <c r="G24" s="3">
-        <v>1792100</v>
+        <v>1913900</v>
       </c>
       <c r="H24" s="3">
-        <v>1813100</v>
+        <v>1936400</v>
       </c>
       <c r="I24" s="3">
-        <v>1075500</v>
+        <v>1148600</v>
       </c>
       <c r="J24" s="3">
-        <v>1659200</v>
+        <v>1772000</v>
       </c>
       <c r="K24" s="3">
         <v>939900</v>
@@ -1255,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5404000</v>
+        <v>5771400</v>
       </c>
       <c r="E26" s="3">
-        <v>5328700</v>
+        <v>5690900</v>
       </c>
       <c r="F26" s="3">
-        <v>5523600</v>
+        <v>5899100</v>
       </c>
       <c r="G26" s="3">
-        <v>4746100</v>
+        <v>5068700</v>
       </c>
       <c r="H26" s="3">
-        <v>5023000</v>
+        <v>5364500</v>
       </c>
       <c r="I26" s="3">
-        <v>3030400</v>
+        <v>3236400</v>
       </c>
       <c r="J26" s="3">
-        <v>4956500</v>
+        <v>5293500</v>
       </c>
       <c r="K26" s="3">
         <v>2776800</v>
@@ -1288,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5295400</v>
+        <v>5655400</v>
       </c>
       <c r="E27" s="3">
-        <v>5209000</v>
+        <v>5563200</v>
       </c>
       <c r="F27" s="3">
-        <v>5432800</v>
+        <v>5802100</v>
       </c>
       <c r="G27" s="3">
-        <v>4663000</v>
+        <v>4980000</v>
       </c>
       <c r="H27" s="3">
-        <v>4946500</v>
+        <v>5282800</v>
       </c>
       <c r="I27" s="3">
-        <v>2112200</v>
+        <v>2255800</v>
       </c>
       <c r="J27" s="3">
-        <v>4285300</v>
+        <v>4576600</v>
       </c>
       <c r="K27" s="3">
         <v>1860000</v>
@@ -1363,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>488500</v>
+        <v>521700</v>
       </c>
       <c r="H29" s="3">
-        <v>-505100</v>
+        <v>-539400</v>
       </c>
       <c r="I29" s="3">
-        <v>-1557300</v>
+        <v>-1663200</v>
       </c>
       <c r="J29" s="3">
-        <v>548300</v>
+        <v>585500</v>
       </c>
       <c r="K29" s="3">
         <v>1405400</v>
@@ -1453,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5652100</v>
+        <v>6036300</v>
       </c>
       <c r="E32" s="3">
-        <v>6064100</v>
+        <v>6476400</v>
       </c>
       <c r="F32" s="3">
-        <v>5392900</v>
+        <v>5759500</v>
       </c>
       <c r="G32" s="3">
-        <v>7048800</v>
+        <v>7528000</v>
       </c>
       <c r="H32" s="3">
-        <v>5584500</v>
+        <v>5964200</v>
       </c>
       <c r="I32" s="3">
-        <v>7756500</v>
+        <v>8283800</v>
       </c>
       <c r="J32" s="3">
-        <v>3834500</v>
+        <v>4095200</v>
       </c>
       <c r="K32" s="3">
         <v>7016200</v>
@@ -1486,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5295400</v>
+        <v>5655400</v>
       </c>
       <c r="E33" s="3">
-        <v>5209000</v>
+        <v>5563200</v>
       </c>
       <c r="F33" s="3">
-        <v>5432800</v>
+        <v>5802100</v>
       </c>
       <c r="G33" s="3">
-        <v>5151400</v>
+        <v>5501700</v>
       </c>
       <c r="H33" s="3">
-        <v>4441500</v>
+        <v>4743400</v>
       </c>
       <c r="I33" s="3">
-        <v>554900</v>
+        <v>592600</v>
       </c>
       <c r="J33" s="3">
-        <v>4833600</v>
+        <v>5162200</v>
       </c>
       <c r="K33" s="3">
         <v>3265500</v>
@@ -1552,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5295400</v>
+        <v>5655400</v>
       </c>
       <c r="E35" s="3">
-        <v>5209000</v>
+        <v>5563200</v>
       </c>
       <c r="F35" s="3">
-        <v>5432800</v>
+        <v>5802100</v>
       </c>
       <c r="G35" s="3">
-        <v>5151400</v>
+        <v>5501700</v>
       </c>
       <c r="H35" s="3">
-        <v>4441500</v>
+        <v>4743400</v>
       </c>
       <c r="I35" s="3">
-        <v>554900</v>
+        <v>592600</v>
       </c>
       <c r="J35" s="3">
-        <v>4833600</v>
+        <v>5162200</v>
       </c>
       <c r="K35" s="3">
         <v>3265500</v>
@@ -1653,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98037500</v>
+        <v>104495000</v>
       </c>
       <c r="E41" s="3">
-        <v>89237900</v>
+        <v>95115800</v>
       </c>
       <c r="F41" s="3">
-        <v>56377800</v>
+        <v>60091300</v>
       </c>
       <c r="G41" s="3">
-        <v>52162800</v>
+        <v>55598700</v>
       </c>
       <c r="H41" s="3">
-        <v>114190000</v>
+        <v>121711000</v>
       </c>
       <c r="I41" s="3">
-        <v>109542000</v>
+        <v>116757000</v>
       </c>
       <c r="J41" s="3">
-        <v>124990000</v>
+        <v>133223000</v>
       </c>
       <c r="K41" s="3">
         <v>143923000</v>
@@ -1686,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>106748000</v>
+        <v>113780000</v>
       </c>
       <c r="E42" s="3">
-        <v>133715000</v>
+        <v>142523000</v>
       </c>
       <c r="F42" s="3">
-        <v>136751000</v>
+        <v>145758000</v>
       </c>
       <c r="G42" s="3">
-        <v>135499000</v>
+        <v>144424000</v>
       </c>
       <c r="H42" s="3">
-        <v>153206000</v>
+        <v>163297000</v>
       </c>
       <c r="I42" s="3">
-        <v>159921000</v>
+        <v>170455000</v>
       </c>
       <c r="J42" s="3">
-        <v>366616000</v>
+        <v>390764000</v>
       </c>
       <c r="K42" s="3">
         <v>256626000</v>
@@ -1851,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1986500</v>
+        <v>2117400</v>
       </c>
       <c r="E47" s="3">
-        <v>1335100</v>
+        <v>1423000</v>
       </c>
       <c r="F47" s="3">
-        <v>1207500</v>
+        <v>1287000</v>
       </c>
       <c r="G47" s="3">
-        <v>1266300</v>
+        <v>1349700</v>
       </c>
       <c r="H47" s="3">
-        <v>1067600</v>
+        <v>1137900</v>
       </c>
       <c r="I47" s="3">
-        <v>1057600</v>
+        <v>1127300</v>
       </c>
       <c r="J47" s="3">
-        <v>2244000</v>
+        <v>2391800</v>
       </c>
       <c r="K47" s="3">
         <v>7928700</v>
@@ -1884,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3571300</v>
+        <v>3806600</v>
       </c>
       <c r="E48" s="3">
-        <v>1901100</v>
+        <v>2026300</v>
       </c>
       <c r="F48" s="3">
-        <v>2070900</v>
+        <v>2207300</v>
       </c>
       <c r="G48" s="3">
-        <v>2221800</v>
+        <v>2368200</v>
       </c>
       <c r="H48" s="3">
-        <v>4584600</v>
+        <v>4886600</v>
       </c>
       <c r="I48" s="3">
-        <v>4749900</v>
+        <v>5062800</v>
       </c>
       <c r="J48" s="3">
-        <v>6590000</v>
+        <v>7024100</v>
       </c>
       <c r="K48" s="3">
         <v>11519100</v>
@@ -1917,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2126400</v>
+        <v>2266400</v>
       </c>
       <c r="E49" s="3">
-        <v>2040900</v>
+        <v>2175400</v>
       </c>
       <c r="F49" s="3">
-        <v>1630300</v>
+        <v>1737700</v>
       </c>
       <c r="G49" s="3">
-        <v>1646900</v>
+        <v>1755400</v>
       </c>
       <c r="H49" s="3">
-        <v>2848900</v>
+        <v>3036500</v>
       </c>
       <c r="I49" s="3">
-        <v>5425800</v>
+        <v>5783200</v>
       </c>
       <c r="J49" s="3">
-        <v>2244000</v>
+        <v>2391800</v>
       </c>
       <c r="K49" s="3">
         <v>8692900</v>
@@ -2016,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1597000</v>
+        <v>1702200</v>
       </c>
       <c r="E52" s="3">
-        <v>2918800</v>
+        <v>3111000</v>
       </c>
       <c r="F52" s="3">
-        <v>1509300</v>
+        <v>1608700</v>
       </c>
       <c r="G52" s="3">
-        <v>1024300</v>
+        <v>1091800</v>
       </c>
       <c r="H52" s="3">
-        <v>4006400</v>
+        <v>4270300</v>
       </c>
       <c r="I52" s="3">
-        <v>185632000</v>
+        <v>197859000</v>
       </c>
       <c r="J52" s="3">
-        <v>176758000</v>
+        <v>188401000</v>
       </c>
       <c r="K52" s="3">
         <v>84463700</v>
@@ -2082,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>989658000</v>
+        <v>1054840000</v>
       </c>
       <c r="E54" s="3">
-        <v>984426000</v>
+        <v>1049270000</v>
       </c>
       <c r="F54" s="3">
-        <v>939131000</v>
+        <v>1000990000</v>
       </c>
       <c r="G54" s="3">
-        <v>937871000</v>
+        <v>999646000</v>
       </c>
       <c r="H54" s="3">
-        <v>1115610000</v>
+        <v>1189090000</v>
       </c>
       <c r="I54" s="3">
-        <v>1308070000</v>
+        <v>1394230000</v>
       </c>
       <c r="J54" s="3">
-        <v>1194830000</v>
+        <v>1273530000</v>
       </c>
       <c r="K54" s="3">
         <v>1271540000</v>
@@ -2145,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2352800</v>
+        <v>2507700</v>
       </c>
       <c r="E57" s="3">
-        <v>2589200</v>
+        <v>2759700</v>
       </c>
       <c r="F57" s="3">
-        <v>6886300</v>
+        <v>7339900</v>
       </c>
       <c r="G57" s="3">
-        <v>4876500</v>
+        <v>5197700</v>
       </c>
       <c r="H57" s="3">
-        <v>5722100</v>
+        <v>6099000</v>
       </c>
       <c r="I57" s="3">
-        <v>6372500</v>
+        <v>6792200</v>
       </c>
       <c r="J57" s="3">
-        <v>8740800</v>
+        <v>9316500</v>
       </c>
       <c r="K57" s="3">
         <v>11604800</v>
@@ -2178,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57497600</v>
+        <v>61284900</v>
       </c>
       <c r="E58" s="3">
-        <v>61381900</v>
+        <v>65425000</v>
       </c>
       <c r="F58" s="3">
-        <v>49260700</v>
+        <v>52505400</v>
       </c>
       <c r="G58" s="3">
-        <v>44931400</v>
+        <v>47890900</v>
       </c>
       <c r="H58" s="3">
-        <v>56834000</v>
+        <v>60577500</v>
       </c>
       <c r="I58" s="3">
-        <v>60470800</v>
+        <v>64453900</v>
       </c>
       <c r="J58" s="3">
-        <v>58559700</v>
+        <v>62416900</v>
       </c>
       <c r="K58" s="3">
         <v>113681000</v>
@@ -2211,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1689100</v>
+        <v>1800400</v>
       </c>
       <c r="E59" s="3">
-        <v>1884400</v>
+        <v>2008600</v>
       </c>
       <c r="F59" s="3">
-        <v>1923300</v>
+        <v>2050000</v>
       </c>
       <c r="G59" s="3">
-        <v>1155300</v>
+        <v>1231400</v>
       </c>
       <c r="H59" s="3">
-        <v>1281800</v>
+        <v>1366200</v>
       </c>
       <c r="I59" s="3">
-        <v>1147500</v>
+        <v>1223100</v>
       </c>
       <c r="J59" s="3">
-        <v>1412800</v>
+        <v>1505800</v>
       </c>
       <c r="K59" s="3">
         <v>14712100</v>
@@ -2277,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>94126600</v>
+        <v>100327000</v>
       </c>
       <c r="E61" s="3">
-        <v>86748600</v>
+        <v>92462600</v>
       </c>
       <c r="F61" s="3">
-        <v>75096800</v>
+        <v>80043300</v>
       </c>
       <c r="G61" s="3">
-        <v>88751800</v>
+        <v>94597700</v>
       </c>
       <c r="H61" s="3">
-        <v>95985500</v>
+        <v>102308000</v>
       </c>
       <c r="I61" s="3">
-        <v>160377000</v>
+        <v>170941000</v>
       </c>
       <c r="J61" s="3">
-        <v>106048000</v>
+        <v>113033000</v>
       </c>
       <c r="K61" s="3">
         <v>185502000</v>
@@ -2310,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2164100</v>
+        <v>2306700</v>
       </c>
       <c r="E62" s="3">
-        <v>2383900</v>
+        <v>2540900</v>
       </c>
       <c r="F62" s="3">
-        <v>3360500</v>
+        <v>3581800</v>
       </c>
       <c r="G62" s="3">
-        <v>3848800</v>
+        <v>4102300</v>
       </c>
       <c r="H62" s="3">
-        <v>2336100</v>
+        <v>2490000</v>
       </c>
       <c r="I62" s="3">
-        <v>3154100</v>
+        <v>3361800</v>
       </c>
       <c r="J62" s="3">
-        <v>579300</v>
+        <v>617500</v>
       </c>
       <c r="K62" s="3">
         <v>5090300</v>
@@ -2442,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>929985000</v>
+        <v>991241000</v>
       </c>
       <c r="E66" s="3">
-        <v>927902000</v>
+        <v>989020000</v>
       </c>
       <c r="F66" s="3">
-        <v>883190000</v>
+        <v>941364000</v>
       </c>
       <c r="G66" s="3">
-        <v>882611000</v>
+        <v>940746000</v>
       </c>
       <c r="H66" s="3">
-        <v>1062520000</v>
+        <v>1132510000</v>
       </c>
       <c r="I66" s="3">
-        <v>1251090000</v>
+        <v>1333500000</v>
       </c>
       <c r="J66" s="3">
-        <v>1146250000</v>
+        <v>1221750000</v>
       </c>
       <c r="K66" s="3">
         <v>1218060000</v>
@@ -2622,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36249400</v>
+        <v>42409300</v>
       </c>
       <c r="E72" s="3">
-        <v>33581400</v>
+        <v>39271100</v>
       </c>
       <c r="F72" s="3">
-        <v>32183100</v>
+        <v>37292100</v>
       </c>
       <c r="G72" s="3">
-        <v>29861400</v>
+        <v>34472100</v>
       </c>
       <c r="H72" s="3">
-        <v>27846000</v>
+        <v>31730100</v>
       </c>
       <c r="I72" s="3">
-        <v>25703000</v>
+        <v>29150200</v>
       </c>
       <c r="J72" s="3">
-        <v>21036300</v>
+        <v>24366600</v>
       </c>
       <c r="K72" s="3">
         <v>43774000</v>
@@ -2754,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59672800</v>
+        <v>63603400</v>
       </c>
       <c r="E76" s="3">
-        <v>56524300</v>
+        <v>60247500</v>
       </c>
       <c r="F76" s="3">
-        <v>55940600</v>
+        <v>59625300</v>
       </c>
       <c r="G76" s="3">
-        <v>55260300</v>
+        <v>58900100</v>
       </c>
       <c r="H76" s="3">
-        <v>53084000</v>
+        <v>56580500</v>
       </c>
       <c r="I76" s="3">
-        <v>56981600</v>
+        <v>60734800</v>
       </c>
       <c r="J76" s="3">
-        <v>48581500</v>
+        <v>51781400</v>
       </c>
       <c r="K76" s="3">
         <v>53480300</v>
@@ -2858,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5295400</v>
+        <v>5655400</v>
       </c>
       <c r="E81" s="3">
-        <v>5209000</v>
+        <v>5563200</v>
       </c>
       <c r="F81" s="3">
-        <v>5432800</v>
+        <v>5802100</v>
       </c>
       <c r="G81" s="3">
-        <v>5151400</v>
+        <v>5501700</v>
       </c>
       <c r="H81" s="3">
-        <v>4441500</v>
+        <v>4743400</v>
       </c>
       <c r="I81" s="3">
-        <v>554900</v>
+        <v>592600</v>
       </c>
       <c r="J81" s="3">
-        <v>4833600</v>
+        <v>5162200</v>
       </c>
       <c r="K81" s="3">
         <v>3265500</v>
@@ -2906,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>873900</v>
+        <v>933300</v>
       </c>
       <c r="E83" s="3">
-        <v>576000</v>
+        <v>615100</v>
       </c>
       <c r="F83" s="3">
-        <v>576000</v>
+        <v>615100</v>
       </c>
       <c r="G83" s="3">
-        <v>593700</v>
+        <v>634000</v>
       </c>
       <c r="H83" s="3">
-        <v>702200</v>
+        <v>750000</v>
       </c>
       <c r="I83" s="3">
-        <v>766500</v>
+        <v>818600</v>
       </c>
       <c r="J83" s="3">
-        <v>847300</v>
+        <v>904900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3104,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14459700</v>
+        <v>15442800</v>
       </c>
       <c r="E89" s="3">
-        <v>7659100</v>
+        <v>8179800</v>
       </c>
       <c r="F89" s="3">
-        <v>-5818200</v>
+        <v>-6213800</v>
       </c>
       <c r="G89" s="3">
-        <v>9473300</v>
+        <v>10117300</v>
       </c>
       <c r="H89" s="3">
-        <v>11715100</v>
+        <v>12511500</v>
       </c>
       <c r="I89" s="3">
-        <v>13312200</v>
+        <v>14217300</v>
       </c>
       <c r="J89" s="3">
-        <v>-9323800</v>
+        <v>-9957700</v>
       </c>
       <c r="K89" s="3">
         <v>-10167500</v>
@@ -3152,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-393200</v>
+        <v>-419900</v>
       </c>
       <c r="E91" s="3">
-        <v>-316800</v>
+        <v>-338300</v>
       </c>
       <c r="F91" s="3">
-        <v>-336700</v>
+        <v>-359600</v>
       </c>
       <c r="G91" s="3">
-        <v>-459700</v>
+        <v>-490900</v>
       </c>
       <c r="H91" s="3">
-        <v>-432000</v>
+        <v>-461300</v>
       </c>
       <c r="I91" s="3">
-        <v>-453000</v>
+        <v>-483800</v>
       </c>
       <c r="J91" s="3">
-        <v>-520600</v>
+        <v>-556000</v>
       </c>
       <c r="K91" s="3">
         <v>-464500</v>
@@ -3251,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2763500</v>
+        <v>-2951300</v>
       </c>
       <c r="E94" s="3">
-        <v>6037500</v>
+        <v>6448000</v>
       </c>
       <c r="F94" s="3">
-        <v>13018700</v>
+        <v>13903800</v>
       </c>
       <c r="G94" s="3">
-        <v>6794000</v>
+        <v>7255900</v>
       </c>
       <c r="H94" s="3">
-        <v>4647500</v>
+        <v>4963400</v>
       </c>
       <c r="I94" s="3">
-        <v>-8217300</v>
+        <v>-8775900</v>
       </c>
       <c r="J94" s="3">
-        <v>10266300</v>
+        <v>10964300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3299,19 +3300,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2967300</v>
+        <v>-3169000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2887500</v>
+        <v>-3083800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2839900</v>
+        <v>-3033000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2792300</v>
+        <v>-2982100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1542900</v>
+        <v>-1647800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3431,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4601000</v>
+        <v>-4913800</v>
       </c>
       <c r="E100" s="3">
-        <v>17702800</v>
+        <v>18906300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4372800</v>
+        <v>-4670100</v>
       </c>
       <c r="G100" s="3">
-        <v>-21107500</v>
+        <v>-22542500</v>
       </c>
       <c r="H100" s="3">
-        <v>-12366400</v>
+        <v>-13207100</v>
       </c>
       <c r="I100" s="3">
-        <v>-5164700</v>
+        <v>-5515900</v>
       </c>
       <c r="J100" s="3">
-        <v>-9639400</v>
+        <v>-10294800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3464,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>105200</v>
+        <v>112400</v>
       </c>
       <c r="E101" s="3">
-        <v>226000</v>
+        <v>241300</v>
       </c>
       <c r="F101" s="3">
-        <v>288000</v>
+        <v>307600</v>
       </c>
       <c r="G101" s="3">
-        <v>171700</v>
+        <v>183300</v>
       </c>
       <c r="H101" s="3">
-        <v>-378800</v>
+        <v>-404600</v>
       </c>
       <c r="I101" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="J101" s="3">
-        <v>976900</v>
+        <v>1043300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3497,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7200500</v>
+        <v>7690000</v>
       </c>
       <c r="E102" s="3">
-        <v>31625300</v>
+        <v>33775300</v>
       </c>
       <c r="F102" s="3">
-        <v>3115700</v>
+        <v>3327500</v>
       </c>
       <c r="G102" s="3">
-        <v>-4668500</v>
+        <v>-4985900</v>
       </c>
       <c r="H102" s="3">
-        <v>3617400</v>
+        <v>3863400</v>
       </c>
       <c r="I102" s="3">
-        <v>-74200</v>
+        <v>-79300</v>
       </c>
       <c r="J102" s="3">
-        <v>-7720000</v>
+        <v>-8244800</v>
       </c>
       <c r="K102" s="3">
         <v>-11122700</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -665,9 +665,7 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -719,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33658200</v>
+        <v>34036700</v>
       </c>
       <c r="E8" s="3">
-        <v>33296300</v>
+        <v>33670600</v>
       </c>
       <c r="F8" s="3">
-        <v>52123300</v>
+        <v>52709400</v>
       </c>
       <c r="G8" s="3">
-        <v>52262900</v>
+        <v>52850500</v>
       </c>
       <c r="H8" s="3">
-        <v>54793100</v>
+        <v>55409200</v>
       </c>
       <c r="I8" s="3">
-        <v>56979100</v>
+        <v>57619800</v>
       </c>
       <c r="J8" s="3">
-        <v>60821200</v>
+        <v>61505000</v>
       </c>
       <c r="K8" s="3">
         <v>65900900</v>
@@ -932,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-932100</v>
+        <v>-942600</v>
       </c>
       <c r="E15" s="3">
-        <v>-857600</v>
+        <v>-867200</v>
       </c>
       <c r="F15" s="3">
-        <v>-819700</v>
+        <v>-829000</v>
       </c>
       <c r="G15" s="3">
-        <v>-634000</v>
+        <v>-641200</v>
       </c>
       <c r="H15" s="3">
-        <v>-727500</v>
+        <v>-735700</v>
       </c>
       <c r="I15" s="3">
-        <v>-681400</v>
+        <v>-689000</v>
       </c>
       <c r="J15" s="3">
-        <v>-716800</v>
+        <v>-724900</v>
       </c>
       <c r="K15" s="3">
         <v>-715900</v>
@@ -977,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19538000</v>
+        <v>19757600</v>
       </c>
       <c r="E17" s="3">
-        <v>18731200</v>
+        <v>18941800</v>
       </c>
       <c r="F17" s="3">
-        <v>37766400</v>
+        <v>38191100</v>
       </c>
       <c r="G17" s="3">
-        <v>37752300</v>
+        <v>38176700</v>
       </c>
       <c r="H17" s="3">
-        <v>41528100</v>
+        <v>41995000</v>
       </c>
       <c r="I17" s="3">
-        <v>44310300</v>
+        <v>44808500</v>
       </c>
       <c r="J17" s="3">
-        <v>49660500</v>
+        <v>50218900</v>
       </c>
       <c r="K17" s="3">
         <v>55167900</v>
@@ -1010,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14120300</v>
+        <v>14279000</v>
       </c>
       <c r="E18" s="3">
-        <v>14565000</v>
+        <v>14728800</v>
       </c>
       <c r="F18" s="3">
-        <v>14356900</v>
+        <v>14518300</v>
       </c>
       <c r="G18" s="3">
-        <v>14510600</v>
+        <v>14673800</v>
       </c>
       <c r="H18" s="3">
-        <v>13265000</v>
+        <v>13414200</v>
       </c>
       <c r="I18" s="3">
-        <v>12668900</v>
+        <v>12811300</v>
       </c>
       <c r="J18" s="3">
-        <v>11160700</v>
+        <v>11286100</v>
       </c>
       <c r="K18" s="3">
         <v>10733000</v>
@@ -1058,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6036300</v>
+        <v>-6104200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6476400</v>
+        <v>-6549200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5759500</v>
+        <v>-5824300</v>
       </c>
       <c r="G20" s="3">
-        <v>-7528000</v>
+        <v>-7612600</v>
       </c>
       <c r="H20" s="3">
-        <v>-5964200</v>
+        <v>-6031200</v>
       </c>
       <c r="I20" s="3">
-        <v>-8283800</v>
+        <v>-8377000</v>
       </c>
       <c r="J20" s="3">
-        <v>-4095200</v>
+        <v>-4141200</v>
       </c>
       <c r="K20" s="3">
         <v>-7016200</v>
@@ -1091,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9017600</v>
+        <v>9114800</v>
       </c>
       <c r="E21" s="3">
-        <v>8704000</v>
+        <v>8799100</v>
       </c>
       <c r="F21" s="3">
-        <v>9212600</v>
+        <v>9313500</v>
       </c>
       <c r="G21" s="3">
-        <v>7616900</v>
+        <v>7699700</v>
       </c>
       <c r="H21" s="3">
-        <v>8051100</v>
+        <v>8138200</v>
       </c>
       <c r="I21" s="3">
-        <v>5203900</v>
+        <v>5258700</v>
       </c>
       <c r="J21" s="3">
-        <v>7970700</v>
+        <v>8056200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1157,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8083900</v>
+        <v>8174800</v>
       </c>
       <c r="E23" s="3">
-        <v>8088700</v>
+        <v>8179600</v>
       </c>
       <c r="F23" s="3">
-        <v>8597300</v>
+        <v>8694000</v>
       </c>
       <c r="G23" s="3">
-        <v>6982700</v>
+        <v>7061200</v>
       </c>
       <c r="H23" s="3">
-        <v>7300900</v>
+        <v>7382900</v>
       </c>
       <c r="I23" s="3">
-        <v>4385000</v>
+        <v>4434300</v>
       </c>
       <c r="J23" s="3">
-        <v>7065500</v>
+        <v>7144900</v>
       </c>
       <c r="K23" s="3">
         <v>3716700</v>
@@ -1190,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2312600</v>
+        <v>2338600</v>
       </c>
       <c r="E24" s="3">
-        <v>2397700</v>
+        <v>2424700</v>
       </c>
       <c r="F24" s="3">
-        <v>2698200</v>
+        <v>2728500</v>
       </c>
       <c r="G24" s="3">
-        <v>1913900</v>
+        <v>1935500</v>
       </c>
       <c r="H24" s="3">
-        <v>1936400</v>
+        <v>1958200</v>
       </c>
       <c r="I24" s="3">
-        <v>1148600</v>
+        <v>1161500</v>
       </c>
       <c r="J24" s="3">
-        <v>1772000</v>
+        <v>1791900</v>
       </c>
       <c r="K24" s="3">
         <v>939900</v>
@@ -1256,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5771400</v>
+        <v>5836300</v>
       </c>
       <c r="E26" s="3">
-        <v>5690900</v>
+        <v>5754900</v>
       </c>
       <c r="F26" s="3">
-        <v>5899100</v>
+        <v>5965400</v>
       </c>
       <c r="G26" s="3">
-        <v>5068700</v>
+        <v>5125700</v>
       </c>
       <c r="H26" s="3">
-        <v>5364500</v>
+        <v>5424800</v>
       </c>
       <c r="I26" s="3">
-        <v>3236400</v>
+        <v>3272800</v>
       </c>
       <c r="J26" s="3">
-        <v>5293500</v>
+        <v>5353000</v>
       </c>
       <c r="K26" s="3">
         <v>2776800</v>
@@ -1289,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5655400</v>
+        <v>5719000</v>
       </c>
       <c r="E27" s="3">
-        <v>5563200</v>
+        <v>5625700</v>
       </c>
       <c r="F27" s="3">
-        <v>5802100</v>
+        <v>5867400</v>
       </c>
       <c r="G27" s="3">
-        <v>4980000</v>
+        <v>5036000</v>
       </c>
       <c r="H27" s="3">
-        <v>5282800</v>
+        <v>5342200</v>
       </c>
       <c r="I27" s="3">
-        <v>2255800</v>
+        <v>2281200</v>
       </c>
       <c r="J27" s="3">
-        <v>4576600</v>
+        <v>4628100</v>
       </c>
       <c r="K27" s="3">
         <v>1860000</v>
@@ -1364,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>521700</v>
+        <v>527500</v>
       </c>
       <c r="H29" s="3">
-        <v>-539400</v>
+        <v>-545500</v>
       </c>
       <c r="I29" s="3">
-        <v>-1663200</v>
+        <v>-1681900</v>
       </c>
       <c r="J29" s="3">
-        <v>585500</v>
+        <v>592100</v>
       </c>
       <c r="K29" s="3">
         <v>1405400</v>
@@ -1454,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6036300</v>
+        <v>6104200</v>
       </c>
       <c r="E32" s="3">
-        <v>6476400</v>
+        <v>6549200</v>
       </c>
       <c r="F32" s="3">
-        <v>5759500</v>
+        <v>5824300</v>
       </c>
       <c r="G32" s="3">
-        <v>7528000</v>
+        <v>7612600</v>
       </c>
       <c r="H32" s="3">
-        <v>5964200</v>
+        <v>6031200</v>
       </c>
       <c r="I32" s="3">
-        <v>8283800</v>
+        <v>8377000</v>
       </c>
       <c r="J32" s="3">
-        <v>4095200</v>
+        <v>4141200</v>
       </c>
       <c r="K32" s="3">
         <v>7016200</v>
@@ -1487,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5655400</v>
+        <v>5719000</v>
       </c>
       <c r="E33" s="3">
-        <v>5563200</v>
+        <v>5625700</v>
       </c>
       <c r="F33" s="3">
-        <v>5802100</v>
+        <v>5867400</v>
       </c>
       <c r="G33" s="3">
-        <v>5501700</v>
+        <v>5563500</v>
       </c>
       <c r="H33" s="3">
-        <v>4743400</v>
+        <v>4796800</v>
       </c>
       <c r="I33" s="3">
-        <v>592600</v>
+        <v>599300</v>
       </c>
       <c r="J33" s="3">
-        <v>5162200</v>
+        <v>5220200</v>
       </c>
       <c r="K33" s="3">
         <v>3265500</v>
@@ -1553,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5655400</v>
+        <v>5719000</v>
       </c>
       <c r="E35" s="3">
-        <v>5563200</v>
+        <v>5625700</v>
       </c>
       <c r="F35" s="3">
-        <v>5802100</v>
+        <v>5867400</v>
       </c>
       <c r="G35" s="3">
-        <v>5501700</v>
+        <v>5563500</v>
       </c>
       <c r="H35" s="3">
-        <v>4743400</v>
+        <v>4796800</v>
       </c>
       <c r="I35" s="3">
-        <v>592600</v>
+        <v>599300</v>
       </c>
       <c r="J35" s="3">
-        <v>5162200</v>
+        <v>5220200</v>
       </c>
       <c r="K35" s="3">
         <v>3265500</v>
@@ -1654,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104495000</v>
+        <v>105670000</v>
       </c>
       <c r="E41" s="3">
-        <v>95115800</v>
+        <v>96185200</v>
       </c>
       <c r="F41" s="3">
-        <v>60091300</v>
+        <v>60767000</v>
       </c>
       <c r="G41" s="3">
-        <v>55598700</v>
+        <v>56223800</v>
       </c>
       <c r="H41" s="3">
-        <v>121711000</v>
+        <v>123079000</v>
       </c>
       <c r="I41" s="3">
-        <v>116757000</v>
+        <v>118070000</v>
       </c>
       <c r="J41" s="3">
-        <v>133223000</v>
+        <v>134721000</v>
       </c>
       <c r="K41" s="3">
         <v>143923000</v>
@@ -1687,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113780000</v>
+        <v>115059000</v>
       </c>
       <c r="E42" s="3">
-        <v>142523000</v>
+        <v>144125000</v>
       </c>
       <c r="F42" s="3">
-        <v>145758000</v>
+        <v>147397000</v>
       </c>
       <c r="G42" s="3">
-        <v>144424000</v>
+        <v>146048000</v>
       </c>
       <c r="H42" s="3">
-        <v>163297000</v>
+        <v>165133000</v>
       </c>
       <c r="I42" s="3">
-        <v>170455000</v>
+        <v>172371000</v>
       </c>
       <c r="J42" s="3">
-        <v>390764000</v>
+        <v>395158000</v>
       </c>
       <c r="K42" s="3">
         <v>256626000</v>
@@ -1852,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2117400</v>
+        <v>2141200</v>
       </c>
       <c r="E47" s="3">
-        <v>1423000</v>
+        <v>1439000</v>
       </c>
       <c r="F47" s="3">
-        <v>1287000</v>
+        <v>1301500</v>
       </c>
       <c r="G47" s="3">
-        <v>1349700</v>
+        <v>1364900</v>
       </c>
       <c r="H47" s="3">
-        <v>1137900</v>
+        <v>1150700</v>
       </c>
       <c r="I47" s="3">
-        <v>1127300</v>
+        <v>1140000</v>
       </c>
       <c r="J47" s="3">
-        <v>2391800</v>
+        <v>2418700</v>
       </c>
       <c r="K47" s="3">
         <v>7928700</v>
@@ -1885,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3806600</v>
+        <v>3849400</v>
       </c>
       <c r="E48" s="3">
-        <v>2026300</v>
+        <v>2049100</v>
       </c>
       <c r="F48" s="3">
-        <v>2207300</v>
+        <v>2232100</v>
       </c>
       <c r="G48" s="3">
-        <v>2368200</v>
+        <v>2394800</v>
       </c>
       <c r="H48" s="3">
-        <v>4886600</v>
+        <v>4941500</v>
       </c>
       <c r="I48" s="3">
-        <v>5062800</v>
+        <v>5119700</v>
       </c>
       <c r="J48" s="3">
-        <v>7024100</v>
+        <v>7103000</v>
       </c>
       <c r="K48" s="3">
         <v>11519100</v>
@@ -1918,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2266400</v>
+        <v>2291900</v>
       </c>
       <c r="E49" s="3">
-        <v>2175400</v>
+        <v>2199800</v>
       </c>
       <c r="F49" s="3">
-        <v>1737700</v>
+        <v>1757200</v>
       </c>
       <c r="G49" s="3">
-        <v>1755400</v>
+        <v>1775200</v>
       </c>
       <c r="H49" s="3">
-        <v>3036500</v>
+        <v>3070600</v>
       </c>
       <c r="I49" s="3">
-        <v>5783200</v>
+        <v>5848200</v>
       </c>
       <c r="J49" s="3">
-        <v>2391800</v>
+        <v>2418700</v>
       </c>
       <c r="K49" s="3">
         <v>8692900</v>
@@ -2017,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1702200</v>
+        <v>1721300</v>
       </c>
       <c r="E52" s="3">
-        <v>3111000</v>
+        <v>3146000</v>
       </c>
       <c r="F52" s="3">
-        <v>1608700</v>
+        <v>1626800</v>
       </c>
       <c r="G52" s="3">
-        <v>1091800</v>
+        <v>1104100</v>
       </c>
       <c r="H52" s="3">
-        <v>4270300</v>
+        <v>4318300</v>
       </c>
       <c r="I52" s="3">
-        <v>197859000</v>
+        <v>200084000</v>
       </c>
       <c r="J52" s="3">
-        <v>188401000</v>
+        <v>190519000</v>
       </c>
       <c r="K52" s="3">
         <v>84463700</v>
@@ -2083,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1054840000</v>
+        <v>1066700000</v>
       </c>
       <c r="E54" s="3">
-        <v>1049270000</v>
+        <v>1061070000</v>
       </c>
       <c r="F54" s="3">
-        <v>1000990000</v>
+        <v>1012240000</v>
       </c>
       <c r="G54" s="3">
-        <v>999646000</v>
+        <v>1010890000</v>
       </c>
       <c r="H54" s="3">
-        <v>1189090000</v>
+        <v>1202460000</v>
       </c>
       <c r="I54" s="3">
-        <v>1394230000</v>
+        <v>1409910000</v>
       </c>
       <c r="J54" s="3">
-        <v>1273530000</v>
+        <v>1287850000</v>
       </c>
       <c r="K54" s="3">
         <v>1271540000</v>
@@ -2146,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2507700</v>
+        <v>2535900</v>
       </c>
       <c r="E57" s="3">
-        <v>2759700</v>
+        <v>2790700</v>
       </c>
       <c r="F57" s="3">
-        <v>7339900</v>
+        <v>7422400</v>
       </c>
       <c r="G57" s="3">
-        <v>5197700</v>
+        <v>5256100</v>
       </c>
       <c r="H57" s="3">
-        <v>6099000</v>
+        <v>6167600</v>
       </c>
       <c r="I57" s="3">
-        <v>6792200</v>
+        <v>6868600</v>
       </c>
       <c r="J57" s="3">
-        <v>9316500</v>
+        <v>9421300</v>
       </c>
       <c r="K57" s="3">
         <v>11604800</v>
@@ -2179,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>61284900</v>
+        <v>61973900</v>
       </c>
       <c r="E58" s="3">
-        <v>65425000</v>
+        <v>66160600</v>
       </c>
       <c r="F58" s="3">
-        <v>52505400</v>
+        <v>53095700</v>
       </c>
       <c r="G58" s="3">
-        <v>47890900</v>
+        <v>48429400</v>
       </c>
       <c r="H58" s="3">
-        <v>60577500</v>
+        <v>61258600</v>
       </c>
       <c r="I58" s="3">
-        <v>64453900</v>
+        <v>65178500</v>
       </c>
       <c r="J58" s="3">
-        <v>62416900</v>
+        <v>63118700</v>
       </c>
       <c r="K58" s="3">
         <v>113681000</v>
@@ -2212,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800400</v>
+        <v>1820600</v>
       </c>
       <c r="E59" s="3">
-        <v>2008600</v>
+        <v>2031100</v>
       </c>
       <c r="F59" s="3">
-        <v>2050000</v>
+        <v>2073000</v>
       </c>
       <c r="G59" s="3">
-        <v>1231400</v>
+        <v>1245200</v>
       </c>
       <c r="H59" s="3">
-        <v>1366200</v>
+        <v>1381600</v>
       </c>
       <c r="I59" s="3">
-        <v>1223100</v>
+        <v>1236900</v>
       </c>
       <c r="J59" s="3">
-        <v>1505800</v>
+        <v>1522800</v>
       </c>
       <c r="K59" s="3">
         <v>14712100</v>
@@ -2278,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100327000</v>
+        <v>101455000</v>
       </c>
       <c r="E61" s="3">
-        <v>92462600</v>
+        <v>93502200</v>
       </c>
       <c r="F61" s="3">
-        <v>80043300</v>
+        <v>80943300</v>
       </c>
       <c r="G61" s="3">
-        <v>94597700</v>
+        <v>95661300</v>
       </c>
       <c r="H61" s="3">
-        <v>102308000</v>
+        <v>103458000</v>
       </c>
       <c r="I61" s="3">
-        <v>170941000</v>
+        <v>172863000</v>
       </c>
       <c r="J61" s="3">
-        <v>113033000</v>
+        <v>114304000</v>
       </c>
       <c r="K61" s="3">
         <v>185502000</v>
@@ -2311,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2306700</v>
+        <v>2332600</v>
       </c>
       <c r="E62" s="3">
-        <v>2540900</v>
+        <v>2569400</v>
       </c>
       <c r="F62" s="3">
-        <v>3581800</v>
+        <v>3622100</v>
       </c>
       <c r="G62" s="3">
-        <v>4102300</v>
+        <v>4148400</v>
       </c>
       <c r="H62" s="3">
-        <v>2490000</v>
+        <v>2518000</v>
       </c>
       <c r="I62" s="3">
-        <v>3361800</v>
+        <v>3399600</v>
       </c>
       <c r="J62" s="3">
-        <v>617500</v>
+        <v>624400</v>
       </c>
       <c r="K62" s="3">
         <v>5090300</v>
@@ -2443,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>991241000</v>
+        <v>1002390000</v>
       </c>
       <c r="E66" s="3">
-        <v>989020000</v>
+        <v>1000140000</v>
       </c>
       <c r="F66" s="3">
-        <v>941364000</v>
+        <v>951948000</v>
       </c>
       <c r="G66" s="3">
-        <v>940746000</v>
+        <v>951324000</v>
       </c>
       <c r="H66" s="3">
-        <v>1132510000</v>
+        <v>1145240000</v>
       </c>
       <c r="I66" s="3">
-        <v>1333500000</v>
+        <v>1348490000</v>
       </c>
       <c r="J66" s="3">
-        <v>1221750000</v>
+        <v>1235490000</v>
       </c>
       <c r="K66" s="3">
         <v>1218060000</v>
@@ -2623,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42409300</v>
+        <v>42886200</v>
       </c>
       <c r="E72" s="3">
-        <v>39271100</v>
+        <v>39712600</v>
       </c>
       <c r="F72" s="3">
-        <v>37292100</v>
+        <v>37711400</v>
       </c>
       <c r="G72" s="3">
-        <v>34472100</v>
+        <v>34859700</v>
       </c>
       <c r="H72" s="3">
-        <v>31730100</v>
+        <v>32086900</v>
       </c>
       <c r="I72" s="3">
-        <v>29150200</v>
+        <v>29478000</v>
       </c>
       <c r="J72" s="3">
-        <v>24366600</v>
+        <v>24640500</v>
       </c>
       <c r="K72" s="3">
         <v>43774000</v>
@@ -2755,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63603400</v>
+        <v>64318500</v>
       </c>
       <c r="E76" s="3">
-        <v>60247500</v>
+        <v>60924900</v>
       </c>
       <c r="F76" s="3">
-        <v>59625300</v>
+        <v>60295700</v>
       </c>
       <c r="G76" s="3">
-        <v>58900100</v>
+        <v>59562400</v>
       </c>
       <c r="H76" s="3">
-        <v>56580500</v>
+        <v>57216600</v>
       </c>
       <c r="I76" s="3">
-        <v>60734800</v>
+        <v>61417700</v>
       </c>
       <c r="J76" s="3">
-        <v>51781400</v>
+        <v>52363700</v>
       </c>
       <c r="K76" s="3">
         <v>53480300</v>
@@ -2859,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5655400</v>
+        <v>5719000</v>
       </c>
       <c r="E81" s="3">
-        <v>5563200</v>
+        <v>5625700</v>
       </c>
       <c r="F81" s="3">
-        <v>5802100</v>
+        <v>5867400</v>
       </c>
       <c r="G81" s="3">
-        <v>5501700</v>
+        <v>5563500</v>
       </c>
       <c r="H81" s="3">
-        <v>4743400</v>
+        <v>4796800</v>
       </c>
       <c r="I81" s="3">
-        <v>592600</v>
+        <v>599300</v>
       </c>
       <c r="J81" s="3">
-        <v>5162200</v>
+        <v>5220200</v>
       </c>
       <c r="K81" s="3">
         <v>3265500</v>
@@ -2907,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>933300</v>
+        <v>943800</v>
       </c>
       <c r="E83" s="3">
-        <v>615100</v>
+        <v>622000</v>
       </c>
       <c r="F83" s="3">
-        <v>615100</v>
+        <v>622000</v>
       </c>
       <c r="G83" s="3">
-        <v>634000</v>
+        <v>641200</v>
       </c>
       <c r="H83" s="3">
-        <v>750000</v>
+        <v>758400</v>
       </c>
       <c r="I83" s="3">
-        <v>818600</v>
+        <v>827800</v>
       </c>
       <c r="J83" s="3">
-        <v>904900</v>
+        <v>915100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3105,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15442800</v>
+        <v>15616400</v>
       </c>
       <c r="E89" s="3">
-        <v>8179800</v>
+        <v>8271700</v>
       </c>
       <c r="F89" s="3">
-        <v>-6213800</v>
+        <v>-6283600</v>
       </c>
       <c r="G89" s="3">
-        <v>10117300</v>
+        <v>10231100</v>
       </c>
       <c r="H89" s="3">
-        <v>12511500</v>
+        <v>12652200</v>
       </c>
       <c r="I89" s="3">
-        <v>14217300</v>
+        <v>14377100</v>
       </c>
       <c r="J89" s="3">
-        <v>-9957700</v>
+        <v>-10069600</v>
       </c>
       <c r="K89" s="3">
         <v>-10167500</v>
@@ -3153,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-419900</v>
+        <v>-424700</v>
       </c>
       <c r="E91" s="3">
-        <v>-338300</v>
+        <v>-342100</v>
       </c>
       <c r="F91" s="3">
-        <v>-359600</v>
+        <v>-363600</v>
       </c>
       <c r="G91" s="3">
-        <v>-490900</v>
+        <v>-496400</v>
       </c>
       <c r="H91" s="3">
-        <v>-461300</v>
+        <v>-466500</v>
       </c>
       <c r="I91" s="3">
-        <v>-483800</v>
+        <v>-489200</v>
       </c>
       <c r="J91" s="3">
-        <v>-556000</v>
+        <v>-562200</v>
       </c>
       <c r="K91" s="3">
         <v>-464500</v>
@@ -3252,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2951300</v>
+        <v>-2984500</v>
       </c>
       <c r="E94" s="3">
-        <v>6448000</v>
+        <v>6520500</v>
       </c>
       <c r="F94" s="3">
-        <v>13903800</v>
+        <v>14060100</v>
       </c>
       <c r="G94" s="3">
-        <v>7255900</v>
+        <v>7337500</v>
       </c>
       <c r="H94" s="3">
-        <v>4963400</v>
+        <v>5019300</v>
       </c>
       <c r="I94" s="3">
-        <v>-8775900</v>
+        <v>-8874600</v>
       </c>
       <c r="J94" s="3">
-        <v>10964300</v>
+        <v>11087600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3300,19 +3298,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3169000</v>
+        <v>-3204600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3083800</v>
+        <v>-3118500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3033000</v>
+        <v>-3067100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2982100</v>
+        <v>-3015600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1647800</v>
+        <v>-1666300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3432,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4913800</v>
+        <v>-4969000</v>
       </c>
       <c r="E100" s="3">
-        <v>18906300</v>
+        <v>19118900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4670100</v>
+        <v>-4722600</v>
       </c>
       <c r="G100" s="3">
-        <v>-22542500</v>
+        <v>-22796000</v>
       </c>
       <c r="H100" s="3">
-        <v>-13207100</v>
+        <v>-13355600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5515900</v>
+        <v>-5577900</v>
       </c>
       <c r="J100" s="3">
-        <v>-10294800</v>
+        <v>-10410500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3465,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>112400</v>
+        <v>113600</v>
       </c>
       <c r="E101" s="3">
-        <v>241300</v>
+        <v>244000</v>
       </c>
       <c r="F101" s="3">
-        <v>307600</v>
+        <v>311000</v>
       </c>
       <c r="G101" s="3">
-        <v>183300</v>
+        <v>185400</v>
       </c>
       <c r="H101" s="3">
-        <v>-404600</v>
+        <v>-409100</v>
       </c>
       <c r="I101" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="J101" s="3">
-        <v>1043300</v>
+        <v>1055000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3498,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7690000</v>
+        <v>7776500</v>
       </c>
       <c r="E102" s="3">
-        <v>33775300</v>
+        <v>34155100</v>
       </c>
       <c r="F102" s="3">
-        <v>3327500</v>
+        <v>3364900</v>
       </c>
       <c r="G102" s="3">
-        <v>-4985900</v>
+        <v>-5042000</v>
       </c>
       <c r="H102" s="3">
-        <v>3863400</v>
+        <v>3906800</v>
       </c>
       <c r="I102" s="3">
-        <v>-79300</v>
+        <v>-80100</v>
       </c>
       <c r="J102" s="3">
-        <v>-8244800</v>
+        <v>-8337500</v>
       </c>
       <c r="K102" s="3">
         <v>-11122700</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,95 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34036700</v>
+        <v>26701900</v>
       </c>
       <c r="E8" s="3">
-        <v>33670600</v>
+        <v>33473300</v>
       </c>
       <c r="F8" s="3">
-        <v>52709400</v>
+        <v>33113300</v>
       </c>
       <c r="G8" s="3">
-        <v>52850500</v>
+        <v>51836900</v>
       </c>
       <c r="H8" s="3">
-        <v>55409200</v>
+        <v>51975700</v>
       </c>
       <c r="I8" s="3">
-        <v>57619800</v>
+        <v>54492000</v>
       </c>
       <c r="J8" s="3">
+        <v>56666000</v>
+      </c>
+      <c r="K8" s="3">
         <v>61505000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65900900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79429400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +784,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +908,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +944,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-942600</v>
+        <v>-975200</v>
       </c>
       <c r="E15" s="3">
-        <v>-867200</v>
+        <v>-927000</v>
       </c>
       <c r="F15" s="3">
-        <v>-829000</v>
+        <v>-852900</v>
       </c>
       <c r="G15" s="3">
-        <v>-641200</v>
+        <v>-815200</v>
       </c>
       <c r="H15" s="3">
-        <v>-735700</v>
+        <v>-630600</v>
       </c>
       <c r="I15" s="3">
-        <v>-689000</v>
+        <v>-723500</v>
       </c>
       <c r="J15" s="3">
+        <v>-677600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-724900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-715900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1015300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19757600</v>
+        <v>15145000</v>
       </c>
       <c r="E17" s="3">
-        <v>18941800</v>
+        <v>18229500</v>
       </c>
       <c r="F17" s="3">
-        <v>38191100</v>
+        <v>17514200</v>
       </c>
       <c r="G17" s="3">
-        <v>38176700</v>
+        <v>36499000</v>
       </c>
       <c r="H17" s="3">
-        <v>41995000</v>
+        <v>37544800</v>
       </c>
       <c r="I17" s="3">
-        <v>44808500</v>
+        <v>41299900</v>
       </c>
       <c r="J17" s="3">
+        <v>44066800</v>
+      </c>
+      <c r="K17" s="3">
         <v>50218900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55167900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62059300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14279000</v>
+        <v>11557000</v>
       </c>
       <c r="E18" s="3">
-        <v>14728800</v>
+        <v>15243800</v>
       </c>
       <c r="F18" s="3">
-        <v>14518300</v>
+        <v>15599100</v>
       </c>
       <c r="G18" s="3">
-        <v>14673800</v>
+        <v>15337900</v>
       </c>
       <c r="H18" s="3">
-        <v>13414200</v>
+        <v>14430900</v>
       </c>
       <c r="I18" s="3">
-        <v>12811300</v>
+        <v>13192100</v>
       </c>
       <c r="J18" s="3">
+        <v>12599200</v>
+      </c>
+      <c r="K18" s="3">
         <v>11286100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10733000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17370000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1084,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6104200</v>
+        <v>-7076000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6549200</v>
+        <v>-7204300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5824300</v>
+        <v>-7554800</v>
       </c>
       <c r="G20" s="3">
-        <v>-7612600</v>
+        <v>-6787800</v>
       </c>
       <c r="H20" s="3">
-        <v>-6031200</v>
+        <v>-7486600</v>
       </c>
       <c r="I20" s="3">
-        <v>-8377000</v>
+        <v>-5931400</v>
       </c>
       <c r="J20" s="3">
+        <v>-8238300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4141200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7016200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11411800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9114800</v>
+        <v>5460100</v>
       </c>
       <c r="E21" s="3">
-        <v>8799100</v>
+        <v>8971500</v>
       </c>
       <c r="F21" s="3">
-        <v>9313500</v>
+        <v>8658400</v>
       </c>
       <c r="G21" s="3">
-        <v>7699700</v>
+        <v>9164300</v>
       </c>
       <c r="H21" s="3">
-        <v>8138200</v>
+        <v>7577400</v>
       </c>
       <c r="I21" s="3">
-        <v>5258700</v>
+        <v>8009600</v>
       </c>
       <c r="J21" s="3">
+        <v>5178300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8056200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7736600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1189,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8174800</v>
+        <v>4480900</v>
       </c>
       <c r="E23" s="3">
-        <v>8179600</v>
+        <v>8039500</v>
       </c>
       <c r="F23" s="3">
-        <v>8694000</v>
+        <v>8044200</v>
       </c>
       <c r="G23" s="3">
-        <v>7061200</v>
+        <v>8550100</v>
       </c>
       <c r="H23" s="3">
-        <v>7382900</v>
+        <v>6944300</v>
       </c>
       <c r="I23" s="3">
-        <v>4434300</v>
+        <v>7260700</v>
       </c>
       <c r="J23" s="3">
+        <v>4360900</v>
+      </c>
+      <c r="K23" s="3">
         <v>7144900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3716700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5958300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2338600</v>
+        <v>1465800</v>
       </c>
       <c r="E24" s="3">
-        <v>2424700</v>
+        <v>2299900</v>
       </c>
       <c r="F24" s="3">
-        <v>2728500</v>
+        <v>2384600</v>
       </c>
       <c r="G24" s="3">
-        <v>1935500</v>
+        <v>2683400</v>
       </c>
       <c r="H24" s="3">
-        <v>1958200</v>
+        <v>1903400</v>
       </c>
       <c r="I24" s="3">
-        <v>1161500</v>
+        <v>1925800</v>
       </c>
       <c r="J24" s="3">
+        <v>1142300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1791900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>939900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1232500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5836300</v>
+        <v>3015100</v>
       </c>
       <c r="E26" s="3">
-        <v>5754900</v>
+        <v>5739700</v>
       </c>
       <c r="F26" s="3">
-        <v>5965400</v>
+        <v>5659700</v>
       </c>
       <c r="G26" s="3">
-        <v>5125700</v>
+        <v>5866700</v>
       </c>
       <c r="H26" s="3">
-        <v>5424800</v>
+        <v>5040900</v>
       </c>
       <c r="I26" s="3">
-        <v>3272800</v>
+        <v>5335000</v>
       </c>
       <c r="J26" s="3">
+        <v>3218600</v>
+      </c>
+      <c r="K26" s="3">
         <v>5353000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2776800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4725800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5719000</v>
+        <v>2923400</v>
       </c>
       <c r="E27" s="3">
-        <v>5625700</v>
+        <v>5624400</v>
       </c>
       <c r="F27" s="3">
-        <v>5867400</v>
+        <v>5532600</v>
       </c>
       <c r="G27" s="3">
-        <v>5036000</v>
+        <v>5770200</v>
       </c>
       <c r="H27" s="3">
-        <v>5342200</v>
+        <v>4952600</v>
       </c>
       <c r="I27" s="3">
-        <v>2281200</v>
+        <v>5253800</v>
       </c>
       <c r="J27" s="3">
+        <v>2243400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4628100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1860000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2750200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1405,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>527500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-545500</v>
+        <v>518800</v>
       </c>
       <c r="I29" s="3">
-        <v>-1681900</v>
+        <v>-536400</v>
       </c>
       <c r="J29" s="3">
+        <v>-1654000</v>
+      </c>
+      <c r="K29" s="3">
         <v>592100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1405400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1753700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6104200</v>
+        <v>7076000</v>
       </c>
       <c r="E32" s="3">
-        <v>6549200</v>
+        <v>7204300</v>
       </c>
       <c r="F32" s="3">
-        <v>5824300</v>
+        <v>7554800</v>
       </c>
       <c r="G32" s="3">
-        <v>7612600</v>
+        <v>6787800</v>
       </c>
       <c r="H32" s="3">
-        <v>6031200</v>
+        <v>7486600</v>
       </c>
       <c r="I32" s="3">
-        <v>8377000</v>
+        <v>5931400</v>
       </c>
       <c r="J32" s="3">
+        <v>8238300</v>
+      </c>
+      <c r="K32" s="3">
         <v>4141200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7016200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11411800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5719000</v>
+        <v>2923400</v>
       </c>
       <c r="E33" s="3">
-        <v>5625700</v>
+        <v>5624400</v>
       </c>
       <c r="F33" s="3">
-        <v>5867400</v>
+        <v>5532600</v>
       </c>
       <c r="G33" s="3">
-        <v>5563500</v>
+        <v>5770200</v>
       </c>
       <c r="H33" s="3">
-        <v>4796800</v>
+        <v>5471400</v>
       </c>
       <c r="I33" s="3">
-        <v>599300</v>
+        <v>4717400</v>
       </c>
       <c r="J33" s="3">
+        <v>589400</v>
+      </c>
+      <c r="K33" s="3">
         <v>5220200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3265500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4503900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5719000</v>
+        <v>2923400</v>
       </c>
       <c r="E35" s="3">
-        <v>5625700</v>
+        <v>5624400</v>
       </c>
       <c r="F35" s="3">
-        <v>5867400</v>
+        <v>5532600</v>
       </c>
       <c r="G35" s="3">
-        <v>5563500</v>
+        <v>5770200</v>
       </c>
       <c r="H35" s="3">
-        <v>4796800</v>
+        <v>5471400</v>
       </c>
       <c r="I35" s="3">
-        <v>599300</v>
+        <v>4717400</v>
       </c>
       <c r="J35" s="3">
+        <v>589400</v>
+      </c>
+      <c r="K35" s="3">
         <v>5220200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3265500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4503900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1733,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105670000</v>
+        <v>160521000</v>
       </c>
       <c r="E41" s="3">
-        <v>96185200</v>
+        <v>103921000</v>
       </c>
       <c r="F41" s="3">
-        <v>60767000</v>
+        <v>94593100</v>
       </c>
       <c r="G41" s="3">
-        <v>56223800</v>
+        <v>59761100</v>
       </c>
       <c r="H41" s="3">
-        <v>123079000</v>
+        <v>55293200</v>
       </c>
       <c r="I41" s="3">
-        <v>118070000</v>
+        <v>121042000</v>
       </c>
       <c r="J41" s="3">
+        <v>116115000</v>
+      </c>
+      <c r="K41" s="3">
         <v>134721000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143923000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126432000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>115059000</v>
+        <v>122847000</v>
       </c>
       <c r="E42" s="3">
-        <v>144125000</v>
+        <v>113154000</v>
       </c>
       <c r="F42" s="3">
-        <v>147397000</v>
+        <v>141740000</v>
       </c>
       <c r="G42" s="3">
-        <v>146048000</v>
+        <v>144957000</v>
       </c>
       <c r="H42" s="3">
-        <v>165133000</v>
+        <v>143630000</v>
       </c>
       <c r="I42" s="3">
-        <v>172371000</v>
+        <v>162400000</v>
       </c>
       <c r="J42" s="3">
+        <v>169518000</v>
+      </c>
+      <c r="K42" s="3">
         <v>395158000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>256626000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>308386000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1838,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1874,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1910,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1946,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2141200</v>
+        <v>1735200</v>
       </c>
       <c r="E47" s="3">
-        <v>1439000</v>
+        <v>2105800</v>
       </c>
       <c r="F47" s="3">
-        <v>1301500</v>
+        <v>1415200</v>
       </c>
       <c r="G47" s="3">
-        <v>1364900</v>
+        <v>1279900</v>
       </c>
       <c r="H47" s="3">
-        <v>1150700</v>
+        <v>1342300</v>
       </c>
       <c r="I47" s="3">
-        <v>1140000</v>
+        <v>1131700</v>
       </c>
       <c r="J47" s="3">
+        <v>1121100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2418700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7928700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9163900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3849400</v>
+        <v>3365700</v>
       </c>
       <c r="E48" s="3">
-        <v>2049100</v>
+        <v>3785700</v>
       </c>
       <c r="F48" s="3">
-        <v>2232100</v>
+        <v>2015200</v>
       </c>
       <c r="G48" s="3">
-        <v>2394800</v>
+        <v>2195200</v>
       </c>
       <c r="H48" s="3">
-        <v>4941500</v>
+        <v>2355200</v>
       </c>
       <c r="I48" s="3">
-        <v>5119700</v>
+        <v>4859700</v>
       </c>
       <c r="J48" s="3">
+        <v>5035000</v>
+      </c>
+      <c r="K48" s="3">
         <v>7103000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11519100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10695800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2291900</v>
+        <v>1639900</v>
       </c>
       <c r="E49" s="3">
-        <v>2199800</v>
+        <v>2254000</v>
       </c>
       <c r="F49" s="3">
-        <v>1757200</v>
+        <v>2163400</v>
       </c>
       <c r="G49" s="3">
-        <v>1775200</v>
+        <v>1728100</v>
       </c>
       <c r="H49" s="3">
-        <v>3070600</v>
+        <v>1745800</v>
       </c>
       <c r="I49" s="3">
-        <v>5848200</v>
+        <v>3019800</v>
       </c>
       <c r="J49" s="3">
+        <v>5751400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2418700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8692900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8352800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1721300</v>
+        <v>1762200</v>
       </c>
       <c r="E52" s="3">
-        <v>3146000</v>
+        <v>1692800</v>
       </c>
       <c r="F52" s="3">
-        <v>1626800</v>
+        <v>3093900</v>
       </c>
       <c r="G52" s="3">
-        <v>1104100</v>
+        <v>1599900</v>
       </c>
       <c r="H52" s="3">
-        <v>4318300</v>
+        <v>1085800</v>
       </c>
       <c r="I52" s="3">
-        <v>200084000</v>
+        <v>4246800</v>
       </c>
       <c r="J52" s="3">
+        <v>196772000</v>
+      </c>
+      <c r="K52" s="3">
         <v>190519000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84463700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91383500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1066700000</v>
+        <v>1102610000</v>
       </c>
       <c r="E54" s="3">
-        <v>1061070000</v>
+        <v>1049050000</v>
       </c>
       <c r="F54" s="3">
-        <v>1012240000</v>
+        <v>1043500000</v>
       </c>
       <c r="G54" s="3">
-        <v>1010890000</v>
+        <v>995489000</v>
       </c>
       <c r="H54" s="3">
-        <v>1202460000</v>
+        <v>994153000</v>
       </c>
       <c r="I54" s="3">
-        <v>1409910000</v>
+        <v>1182560000</v>
       </c>
       <c r="J54" s="3">
+        <v>1386570000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1287850000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1271540000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1495710000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2269,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2535900</v>
+        <v>2391600</v>
       </c>
       <c r="E57" s="3">
-        <v>2790700</v>
+        <v>2494000</v>
       </c>
       <c r="F57" s="3">
-        <v>7422400</v>
+        <v>2744500</v>
       </c>
       <c r="G57" s="3">
-        <v>5256100</v>
+        <v>7299600</v>
       </c>
       <c r="H57" s="3">
-        <v>6167600</v>
+        <v>5169100</v>
       </c>
       <c r="I57" s="3">
-        <v>6868600</v>
+        <v>6065500</v>
       </c>
       <c r="J57" s="3">
+        <v>6754900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9421300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11604800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13731200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>61973900</v>
+        <v>31779300</v>
       </c>
       <c r="E58" s="3">
-        <v>66160600</v>
+        <v>60948100</v>
       </c>
       <c r="F58" s="3">
-        <v>53095700</v>
+        <v>65065500</v>
       </c>
       <c r="G58" s="3">
-        <v>48429400</v>
+        <v>52216900</v>
       </c>
       <c r="H58" s="3">
-        <v>61258600</v>
+        <v>47627700</v>
       </c>
       <c r="I58" s="3">
-        <v>65178500</v>
+        <v>60244600</v>
       </c>
       <c r="J58" s="3">
+        <v>64099700</v>
+      </c>
+      <c r="K58" s="3">
         <v>63118700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>113681000</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1820600</v>
+        <v>1490500</v>
       </c>
       <c r="E59" s="3">
-        <v>2031100</v>
+        <v>1790500</v>
       </c>
       <c r="F59" s="3">
-        <v>2073000</v>
+        <v>1997500</v>
       </c>
       <c r="G59" s="3">
-        <v>1245200</v>
+        <v>2038700</v>
       </c>
       <c r="H59" s="3">
-        <v>1381600</v>
+        <v>1224600</v>
       </c>
       <c r="I59" s="3">
-        <v>1236900</v>
+        <v>1358700</v>
       </c>
       <c r="J59" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1522800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14712100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16799600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2410,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101455000</v>
+        <v>84930200</v>
       </c>
       <c r="E61" s="3">
-        <v>93502200</v>
+        <v>99775200</v>
       </c>
       <c r="F61" s="3">
-        <v>80943300</v>
+        <v>91954500</v>
       </c>
       <c r="G61" s="3">
-        <v>95661300</v>
+        <v>79603500</v>
       </c>
       <c r="H61" s="3">
-        <v>103458000</v>
+        <v>94077900</v>
       </c>
       <c r="I61" s="3">
-        <v>172863000</v>
+        <v>101746000</v>
       </c>
       <c r="J61" s="3">
+        <v>170002000</v>
+      </c>
+      <c r="K61" s="3">
         <v>114304000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>185502000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>197673000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2332600</v>
+        <v>2009300</v>
       </c>
       <c r="E62" s="3">
-        <v>2569400</v>
+        <v>2294000</v>
       </c>
       <c r="F62" s="3">
-        <v>3622100</v>
+        <v>2526900</v>
       </c>
       <c r="G62" s="3">
-        <v>4148400</v>
+        <v>3562100</v>
       </c>
       <c r="H62" s="3">
-        <v>2518000</v>
+        <v>4079800</v>
       </c>
       <c r="I62" s="3">
-        <v>3399600</v>
+        <v>2476300</v>
       </c>
       <c r="J62" s="3">
+        <v>3343300</v>
+      </c>
+      <c r="K62" s="3">
         <v>624400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5090300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7349200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1002390000</v>
+        <v>1038340000</v>
       </c>
       <c r="E66" s="3">
-        <v>1000140000</v>
+        <v>985794000</v>
       </c>
       <c r="F66" s="3">
-        <v>951948000</v>
+        <v>983586000</v>
       </c>
       <c r="G66" s="3">
-        <v>951324000</v>
+        <v>936191000</v>
       </c>
       <c r="H66" s="3">
-        <v>1145240000</v>
+        <v>935577000</v>
       </c>
       <c r="I66" s="3">
-        <v>1348490000</v>
+        <v>1126290000</v>
       </c>
       <c r="J66" s="3">
+        <v>1326170000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1235490000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1218060000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1441920000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42886200</v>
+        <v>45203200</v>
       </c>
       <c r="E72" s="3">
-        <v>39712600</v>
+        <v>42176300</v>
       </c>
       <c r="F72" s="3">
-        <v>37711400</v>
+        <v>39055300</v>
       </c>
       <c r="G72" s="3">
-        <v>34859700</v>
+        <v>37087200</v>
       </c>
       <c r="H72" s="3">
-        <v>32086900</v>
+        <v>34282600</v>
       </c>
       <c r="I72" s="3">
-        <v>29478000</v>
+        <v>31555800</v>
       </c>
       <c r="J72" s="3">
+        <v>28990000</v>
+      </c>
+      <c r="K72" s="3">
         <v>24640500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43774000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46677700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64318500</v>
+        <v>64275000</v>
       </c>
       <c r="E76" s="3">
-        <v>60924900</v>
+        <v>63253900</v>
       </c>
       <c r="F76" s="3">
-        <v>60295700</v>
+        <v>59916400</v>
       </c>
       <c r="G76" s="3">
-        <v>59562400</v>
+        <v>59297600</v>
       </c>
       <c r="H76" s="3">
-        <v>57216600</v>
+        <v>58576500</v>
       </c>
       <c r="I76" s="3">
-        <v>61417700</v>
+        <v>56269600</v>
       </c>
       <c r="J76" s="3">
+        <v>60401100</v>
+      </c>
+      <c r="K76" s="3">
         <v>52363700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53480300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53792200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5719000</v>
+        <v>2923400</v>
       </c>
       <c r="E81" s="3">
-        <v>5625700</v>
+        <v>5624400</v>
       </c>
       <c r="F81" s="3">
-        <v>5867400</v>
+        <v>5532600</v>
       </c>
       <c r="G81" s="3">
-        <v>5563500</v>
+        <v>5770200</v>
       </c>
       <c r="H81" s="3">
-        <v>4796800</v>
+        <v>5471400</v>
       </c>
       <c r="I81" s="3">
-        <v>599300</v>
+        <v>4717400</v>
       </c>
       <c r="J81" s="3">
+        <v>589400</v>
+      </c>
+      <c r="K81" s="3">
         <v>5220200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3265500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4503900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>943800</v>
+        <v>975200</v>
       </c>
       <c r="E83" s="3">
-        <v>622000</v>
+        <v>928200</v>
       </c>
       <c r="F83" s="3">
-        <v>622000</v>
+        <v>611700</v>
       </c>
       <c r="G83" s="3">
-        <v>641200</v>
+        <v>611700</v>
       </c>
       <c r="H83" s="3">
-        <v>758400</v>
+        <v>630600</v>
       </c>
       <c r="I83" s="3">
-        <v>827800</v>
+        <v>745800</v>
       </c>
       <c r="J83" s="3">
+        <v>814100</v>
+      </c>
+      <c r="K83" s="3">
         <v>915100</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1777100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15616400</v>
+        <v>119102300</v>
       </c>
       <c r="E89" s="3">
-        <v>8271700</v>
+        <v>15357900</v>
       </c>
       <c r="F89" s="3">
-        <v>-6283600</v>
+        <v>8134800</v>
       </c>
       <c r="G89" s="3">
-        <v>10231100</v>
+        <v>-6179600</v>
       </c>
       <c r="H89" s="3">
-        <v>12652200</v>
+        <v>10061700</v>
       </c>
       <c r="I89" s="3">
-        <v>14377100</v>
+        <v>12442800</v>
       </c>
       <c r="J89" s="3">
+        <v>14139200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10069600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10167500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16596500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-424700</v>
+        <v>-337600</v>
       </c>
       <c r="E91" s="3">
-        <v>-342100</v>
+        <v>-417600</v>
       </c>
       <c r="F91" s="3">
-        <v>-363600</v>
+        <v>-336500</v>
       </c>
       <c r="G91" s="3">
-        <v>-496400</v>
+        <v>-357600</v>
       </c>
       <c r="H91" s="3">
-        <v>-466500</v>
+        <v>-488200</v>
       </c>
       <c r="I91" s="3">
-        <v>-489200</v>
+        <v>-458800</v>
       </c>
       <c r="J91" s="3">
+        <v>-481100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-562200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-464500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1980200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2984500</v>
+        <v>-9984100</v>
       </c>
       <c r="E94" s="3">
-        <v>6520500</v>
+        <v>-2935100</v>
       </c>
       <c r="F94" s="3">
-        <v>14060100</v>
+        <v>6412600</v>
       </c>
       <c r="G94" s="3">
-        <v>7337500</v>
+        <v>13827400</v>
       </c>
       <c r="H94" s="3">
-        <v>5019300</v>
+        <v>7216000</v>
       </c>
       <c r="I94" s="3">
-        <v>-8874600</v>
+        <v>4936200</v>
       </c>
       <c r="J94" s="3">
+        <v>-8727700</v>
+      </c>
+      <c r="K94" s="3">
         <v>11087600</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7634500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,28 +3526,29 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3204600</v>
+        <v>-3500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3118500</v>
+        <v>-3151600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3067100</v>
+        <v>-3066900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3015600</v>
+        <v>-3016300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1666300</v>
+        <v>-2965700</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1638700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3324,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4969000</v>
+        <v>-40934000</v>
       </c>
       <c r="E100" s="3">
-        <v>19118900</v>
+        <v>-4886800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4722600</v>
+        <v>18802400</v>
       </c>
       <c r="G100" s="3">
-        <v>-22796000</v>
+        <v>-4644400</v>
       </c>
       <c r="H100" s="3">
-        <v>-13355600</v>
+        <v>-22418700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5577900</v>
+        <v>-13134500</v>
       </c>
       <c r="J100" s="3">
+        <v>-5485600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-10410500</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8135700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>113600</v>
+        <v>-500000</v>
       </c>
       <c r="E101" s="3">
-        <v>244000</v>
+        <v>111800</v>
       </c>
       <c r="F101" s="3">
-        <v>311000</v>
+        <v>240000</v>
       </c>
       <c r="G101" s="3">
-        <v>185400</v>
+        <v>305900</v>
       </c>
       <c r="H101" s="3">
-        <v>-409100</v>
+        <v>182300</v>
       </c>
       <c r="I101" s="3">
-        <v>-4800</v>
+        <v>-402300</v>
       </c>
       <c r="J101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1055000</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-234800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7776500</v>
+        <v>67684200</v>
       </c>
       <c r="E102" s="3">
-        <v>34155100</v>
+        <v>7647800</v>
       </c>
       <c r="F102" s="3">
-        <v>3364900</v>
+        <v>33589700</v>
       </c>
       <c r="G102" s="3">
-        <v>-5042000</v>
+        <v>3309200</v>
       </c>
       <c r="H102" s="3">
-        <v>3906800</v>
+        <v>-4958500</v>
       </c>
       <c r="I102" s="3">
-        <v>-80100</v>
+        <v>3842100</v>
       </c>
       <c r="J102" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8337500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11122700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15860500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -665,9 +665,7 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -722,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26701900</v>
+        <v>27804800</v>
       </c>
       <c r="E8" s="3">
-        <v>33473300</v>
+        <v>34855900</v>
       </c>
       <c r="F8" s="3">
-        <v>33113300</v>
+        <v>34481000</v>
       </c>
       <c r="G8" s="3">
-        <v>51836900</v>
+        <v>53978000</v>
       </c>
       <c r="H8" s="3">
-        <v>51975700</v>
+        <v>54122500</v>
       </c>
       <c r="I8" s="3">
-        <v>54492000</v>
+        <v>56742800</v>
       </c>
       <c r="J8" s="3">
-        <v>56666000</v>
+        <v>59006500</v>
       </c>
       <c r="K8" s="3">
         <v>61505000</v>
@@ -954,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-975200</v>
+        <v>-1015500</v>
       </c>
       <c r="E15" s="3">
-        <v>-927000</v>
+        <v>-965300</v>
       </c>
       <c r="F15" s="3">
-        <v>-852900</v>
+        <v>-888100</v>
       </c>
       <c r="G15" s="3">
-        <v>-815200</v>
+        <v>-848900</v>
       </c>
       <c r="H15" s="3">
-        <v>-630600</v>
+        <v>-656600</v>
       </c>
       <c r="I15" s="3">
-        <v>-723500</v>
+        <v>-753400</v>
       </c>
       <c r="J15" s="3">
-        <v>-677600</v>
+        <v>-705600</v>
       </c>
       <c r="K15" s="3">
         <v>-724900</v>
@@ -1003,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15145000</v>
+        <v>15770500</v>
       </c>
       <c r="E17" s="3">
-        <v>18229500</v>
+        <v>18982400</v>
       </c>
       <c r="F17" s="3">
-        <v>17514200</v>
+        <v>18237700</v>
       </c>
       <c r="G17" s="3">
-        <v>36499000</v>
+        <v>38006500</v>
       </c>
       <c r="H17" s="3">
-        <v>37544800</v>
+        <v>39095600</v>
       </c>
       <c r="I17" s="3">
-        <v>41299900</v>
+        <v>43005700</v>
       </c>
       <c r="J17" s="3">
-        <v>44066800</v>
+        <v>45886900</v>
       </c>
       <c r="K17" s="3">
         <v>50218900</v>
@@ -1039,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11557000</v>
+        <v>12034300</v>
       </c>
       <c r="E18" s="3">
-        <v>15243800</v>
+        <v>15873400</v>
       </c>
       <c r="F18" s="3">
-        <v>15599100</v>
+        <v>16243400</v>
       </c>
       <c r="G18" s="3">
-        <v>15337900</v>
+        <v>15971400</v>
       </c>
       <c r="H18" s="3">
-        <v>14430900</v>
+        <v>15027000</v>
       </c>
       <c r="I18" s="3">
-        <v>13192100</v>
+        <v>13737000</v>
       </c>
       <c r="J18" s="3">
-        <v>12599200</v>
+        <v>13119600</v>
       </c>
       <c r="K18" s="3">
         <v>11286100</v>
@@ -1091,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7076000</v>
+        <v>-7368300</v>
       </c>
       <c r="E20" s="3">
-        <v>-7204300</v>
+        <v>-7501800</v>
       </c>
       <c r="F20" s="3">
-        <v>-7554800</v>
+        <v>-7866900</v>
       </c>
       <c r="G20" s="3">
-        <v>-6787800</v>
+        <v>-7068200</v>
       </c>
       <c r="H20" s="3">
-        <v>-7486600</v>
+        <v>-7795800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5931400</v>
+        <v>-6176400</v>
       </c>
       <c r="J20" s="3">
-        <v>-8238300</v>
+        <v>-8578600</v>
       </c>
       <c r="K20" s="3">
         <v>-4141200</v>
@@ -1127,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5460100</v>
+        <v>5678600</v>
       </c>
       <c r="E21" s="3">
-        <v>8971500</v>
+        <v>9335300</v>
       </c>
       <c r="F21" s="3">
-        <v>8658400</v>
+        <v>9011700</v>
       </c>
       <c r="G21" s="3">
-        <v>9164300</v>
+        <v>9538400</v>
       </c>
       <c r="H21" s="3">
-        <v>7577400</v>
+        <v>7885800</v>
       </c>
       <c r="I21" s="3">
-        <v>8009600</v>
+        <v>8335100</v>
       </c>
       <c r="J21" s="3">
-        <v>5178300</v>
+        <v>5386300</v>
       </c>
       <c r="K21" s="3">
         <v>8056200</v>
@@ -1199,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4480900</v>
+        <v>4666000</v>
       </c>
       <c r="E23" s="3">
-        <v>8039500</v>
+        <v>8371600</v>
       </c>
       <c r="F23" s="3">
-        <v>8044200</v>
+        <v>8376500</v>
       </c>
       <c r="G23" s="3">
-        <v>8550100</v>
+        <v>8903200</v>
       </c>
       <c r="H23" s="3">
-        <v>6944300</v>
+        <v>7231100</v>
       </c>
       <c r="I23" s="3">
-        <v>7260700</v>
+        <v>7560600</v>
       </c>
       <c r="J23" s="3">
-        <v>4360900</v>
+        <v>4541000</v>
       </c>
       <c r="K23" s="3">
         <v>7144900</v>
@@ -1235,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1465800</v>
+        <v>1526300</v>
       </c>
       <c r="E24" s="3">
-        <v>2299900</v>
+        <v>2394900</v>
       </c>
       <c r="F24" s="3">
-        <v>2384600</v>
+        <v>2483100</v>
       </c>
       <c r="G24" s="3">
-        <v>2683400</v>
+        <v>2794200</v>
       </c>
       <c r="H24" s="3">
-        <v>1903400</v>
+        <v>1982000</v>
       </c>
       <c r="I24" s="3">
-        <v>1925800</v>
+        <v>2005300</v>
       </c>
       <c r="J24" s="3">
-        <v>1142300</v>
+        <v>1189500</v>
       </c>
       <c r="K24" s="3">
         <v>1791900</v>
@@ -1307,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3015100</v>
+        <v>3139600</v>
       </c>
       <c r="E26" s="3">
-        <v>5739700</v>
+        <v>5976700</v>
       </c>
       <c r="F26" s="3">
-        <v>5659700</v>
+        <v>5893400</v>
       </c>
       <c r="G26" s="3">
-        <v>5866700</v>
+        <v>6109000</v>
       </c>
       <c r="H26" s="3">
-        <v>5040900</v>
+        <v>5249100</v>
       </c>
       <c r="I26" s="3">
-        <v>5335000</v>
+        <v>5555300</v>
       </c>
       <c r="J26" s="3">
-        <v>3218600</v>
+        <v>3351600</v>
       </c>
       <c r="K26" s="3">
         <v>5353000</v>
@@ -1343,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2923400</v>
+        <v>3044100</v>
       </c>
       <c r="E27" s="3">
-        <v>5624400</v>
+        <v>5856700</v>
       </c>
       <c r="F27" s="3">
-        <v>5532600</v>
+        <v>5761100</v>
       </c>
       <c r="G27" s="3">
-        <v>5770200</v>
+        <v>6008600</v>
       </c>
       <c r="H27" s="3">
-        <v>4952600</v>
+        <v>5157200</v>
       </c>
       <c r="I27" s="3">
-        <v>5253800</v>
+        <v>5470800</v>
       </c>
       <c r="J27" s="3">
-        <v>2243400</v>
+        <v>2336100</v>
       </c>
       <c r="K27" s="3">
         <v>4628100</v>
@@ -1427,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>518800</v>
+        <v>540200</v>
       </c>
       <c r="I29" s="3">
-        <v>-536400</v>
+        <v>-558600</v>
       </c>
       <c r="J29" s="3">
-        <v>-1654000</v>
+        <v>-1722300</v>
       </c>
       <c r="K29" s="3">
         <v>592100</v>
@@ -1523,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7076000</v>
+        <v>7368300</v>
       </c>
       <c r="E32" s="3">
-        <v>7204300</v>
+        <v>7501800</v>
       </c>
       <c r="F32" s="3">
-        <v>7554800</v>
+        <v>7866900</v>
       </c>
       <c r="G32" s="3">
-        <v>6787800</v>
+        <v>7068200</v>
       </c>
       <c r="H32" s="3">
-        <v>7486600</v>
+        <v>7795800</v>
       </c>
       <c r="I32" s="3">
-        <v>5931400</v>
+        <v>6176400</v>
       </c>
       <c r="J32" s="3">
-        <v>8238300</v>
+        <v>8578600</v>
       </c>
       <c r="K32" s="3">
         <v>4141200</v>
@@ -1559,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2923400</v>
+        <v>3044100</v>
       </c>
       <c r="E33" s="3">
-        <v>5624400</v>
+        <v>5856700</v>
       </c>
       <c r="F33" s="3">
-        <v>5532600</v>
+        <v>5761100</v>
       </c>
       <c r="G33" s="3">
-        <v>5770200</v>
+        <v>6008600</v>
       </c>
       <c r="H33" s="3">
-        <v>5471400</v>
+        <v>5697400</v>
       </c>
       <c r="I33" s="3">
-        <v>4717400</v>
+        <v>4912200</v>
       </c>
       <c r="J33" s="3">
-        <v>589400</v>
+        <v>613700</v>
       </c>
       <c r="K33" s="3">
         <v>5220200</v>
@@ -1631,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2923400</v>
+        <v>3044100</v>
       </c>
       <c r="E35" s="3">
-        <v>5624400</v>
+        <v>5856700</v>
       </c>
       <c r="F35" s="3">
-        <v>5532600</v>
+        <v>5761100</v>
       </c>
       <c r="G35" s="3">
-        <v>5770200</v>
+        <v>6008600</v>
       </c>
       <c r="H35" s="3">
-        <v>5471400</v>
+        <v>5697400</v>
       </c>
       <c r="I35" s="3">
-        <v>4717400</v>
+        <v>4912200</v>
       </c>
       <c r="J35" s="3">
-        <v>589400</v>
+        <v>613700</v>
       </c>
       <c r="K35" s="3">
         <v>5220200</v>
@@ -1740,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160521000</v>
+        <v>167151000</v>
       </c>
       <c r="E41" s="3">
-        <v>103921000</v>
+        <v>108213000</v>
       </c>
       <c r="F41" s="3">
-        <v>94593100</v>
+        <v>98500200</v>
       </c>
       <c r="G41" s="3">
-        <v>59761100</v>
+        <v>62229500</v>
       </c>
       <c r="H41" s="3">
-        <v>55293200</v>
+        <v>57577000</v>
       </c>
       <c r="I41" s="3">
-        <v>121042000</v>
+        <v>126042000</v>
       </c>
       <c r="J41" s="3">
-        <v>116115000</v>
+        <v>120911000</v>
       </c>
       <c r="K41" s="3">
         <v>134721000</v>
@@ -1776,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>122847000</v>
+        <v>127921000</v>
       </c>
       <c r="E42" s="3">
-        <v>113154000</v>
+        <v>117828000</v>
       </c>
       <c r="F42" s="3">
-        <v>141740000</v>
+        <v>147594000</v>
       </c>
       <c r="G42" s="3">
-        <v>144957000</v>
+        <v>150945000</v>
       </c>
       <c r="H42" s="3">
-        <v>143630000</v>
+        <v>149563000</v>
       </c>
       <c r="I42" s="3">
-        <v>162400000</v>
+        <v>169107000</v>
       </c>
       <c r="J42" s="3">
-        <v>169518000</v>
+        <v>176520000</v>
       </c>
       <c r="K42" s="3">
         <v>395158000</v>
@@ -1956,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1735200</v>
+        <v>1806900</v>
       </c>
       <c r="E47" s="3">
-        <v>2105800</v>
+        <v>2192700</v>
       </c>
       <c r="F47" s="3">
-        <v>1415200</v>
+        <v>1473700</v>
       </c>
       <c r="G47" s="3">
-        <v>1279900</v>
+        <v>1332800</v>
       </c>
       <c r="H47" s="3">
-        <v>1342300</v>
+        <v>1397700</v>
       </c>
       <c r="I47" s="3">
-        <v>1131700</v>
+        <v>1178400</v>
       </c>
       <c r="J47" s="3">
-        <v>1121100</v>
+        <v>1167400</v>
       </c>
       <c r="K47" s="3">
         <v>2418700</v>
@@ -1992,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3365700</v>
+        <v>3504700</v>
       </c>
       <c r="E48" s="3">
-        <v>3785700</v>
+        <v>3942000</v>
       </c>
       <c r="F48" s="3">
-        <v>2015200</v>
+        <v>2098400</v>
       </c>
       <c r="G48" s="3">
-        <v>2195200</v>
+        <v>2285800</v>
       </c>
       <c r="H48" s="3">
-        <v>2355200</v>
+        <v>2452400</v>
       </c>
       <c r="I48" s="3">
-        <v>4859700</v>
+        <v>5060400</v>
       </c>
       <c r="J48" s="3">
-        <v>5035000</v>
+        <v>5243000</v>
       </c>
       <c r="K48" s="3">
         <v>7103000</v>
@@ -2028,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1639900</v>
+        <v>1707600</v>
       </c>
       <c r="E49" s="3">
-        <v>2254000</v>
+        <v>2347100</v>
       </c>
       <c r="F49" s="3">
-        <v>2163400</v>
+        <v>2252800</v>
       </c>
       <c r="G49" s="3">
-        <v>1728100</v>
+        <v>1799500</v>
       </c>
       <c r="H49" s="3">
-        <v>1745800</v>
+        <v>1817900</v>
       </c>
       <c r="I49" s="3">
-        <v>3019800</v>
+        <v>3144500</v>
       </c>
       <c r="J49" s="3">
-        <v>5751400</v>
+        <v>5989000</v>
       </c>
       <c r="K49" s="3">
         <v>2418700</v>
@@ -2136,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1762200</v>
+        <v>1835000</v>
       </c>
       <c r="E52" s="3">
-        <v>1692800</v>
+        <v>1762800</v>
       </c>
       <c r="F52" s="3">
-        <v>3093900</v>
+        <v>3221700</v>
       </c>
       <c r="G52" s="3">
-        <v>1599900</v>
+        <v>1666000</v>
       </c>
       <c r="H52" s="3">
-        <v>1085800</v>
+        <v>1130700</v>
       </c>
       <c r="I52" s="3">
-        <v>4246800</v>
+        <v>4422200</v>
       </c>
       <c r="J52" s="3">
-        <v>196772000</v>
+        <v>204899000</v>
       </c>
       <c r="K52" s="3">
         <v>190519000</v>
@@ -2208,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1102610000</v>
+        <v>1148150000</v>
       </c>
       <c r="E54" s="3">
-        <v>1049050000</v>
+        <v>1092380000</v>
       </c>
       <c r="F54" s="3">
-        <v>1043500000</v>
+        <v>1086600000</v>
       </c>
       <c r="G54" s="3">
-        <v>995489000</v>
+        <v>1036610000</v>
       </c>
       <c r="H54" s="3">
-        <v>994153000</v>
+        <v>1035220000</v>
       </c>
       <c r="I54" s="3">
-        <v>1182560000</v>
+        <v>1231400000</v>
       </c>
       <c r="J54" s="3">
-        <v>1386570000</v>
+        <v>1443840000</v>
       </c>
       <c r="K54" s="3">
         <v>1287850000</v>
@@ -2276,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2391600</v>
+        <v>2490400</v>
       </c>
       <c r="E57" s="3">
-        <v>2494000</v>
+        <v>2597000</v>
       </c>
       <c r="F57" s="3">
-        <v>2744500</v>
+        <v>2857900</v>
       </c>
       <c r="G57" s="3">
-        <v>7299600</v>
+        <v>7601100</v>
       </c>
       <c r="H57" s="3">
-        <v>5169100</v>
+        <v>5382600</v>
       </c>
       <c r="I57" s="3">
-        <v>6065500</v>
+        <v>6316000</v>
       </c>
       <c r="J57" s="3">
-        <v>6754900</v>
+        <v>7033900</v>
       </c>
       <c r="K57" s="3">
         <v>9421300</v>
@@ -2312,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31779300</v>
+        <v>33091900</v>
       </c>
       <c r="E58" s="3">
-        <v>60948100</v>
+        <v>63465500</v>
       </c>
       <c r="F58" s="3">
-        <v>65065500</v>
+        <v>67753000</v>
       </c>
       <c r="G58" s="3">
-        <v>52216900</v>
+        <v>54373600</v>
       </c>
       <c r="H58" s="3">
-        <v>47627700</v>
+        <v>49594900</v>
       </c>
       <c r="I58" s="3">
-        <v>60244600</v>
+        <v>62733000</v>
       </c>
       <c r="J58" s="3">
-        <v>64099700</v>
+        <v>66747300</v>
       </c>
       <c r="K58" s="3">
         <v>63118700</v>
@@ -2348,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1490500</v>
+        <v>1552100</v>
       </c>
       <c r="E59" s="3">
-        <v>1790500</v>
+        <v>1864400</v>
       </c>
       <c r="F59" s="3">
-        <v>1997500</v>
+        <v>2080000</v>
       </c>
       <c r="G59" s="3">
-        <v>2038700</v>
+        <v>2122900</v>
       </c>
       <c r="H59" s="3">
-        <v>1224600</v>
+        <v>1275200</v>
       </c>
       <c r="I59" s="3">
-        <v>1358700</v>
+        <v>1414900</v>
       </c>
       <c r="J59" s="3">
-        <v>1216400</v>
+        <v>1266600</v>
       </c>
       <c r="K59" s="3">
         <v>1522800</v>
@@ -2420,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>84930200</v>
+        <v>88438200</v>
       </c>
       <c r="E61" s="3">
-        <v>99775200</v>
+        <v>103896000</v>
       </c>
       <c r="F61" s="3">
-        <v>91954500</v>
+        <v>95752600</v>
       </c>
       <c r="G61" s="3">
-        <v>79603500</v>
+        <v>82891400</v>
       </c>
       <c r="H61" s="3">
-        <v>94077900</v>
+        <v>97963700</v>
       </c>
       <c r="I61" s="3">
-        <v>101746000</v>
+        <v>105948000</v>
       </c>
       <c r="J61" s="3">
-        <v>170002000</v>
+        <v>177023000</v>
       </c>
       <c r="K61" s="3">
         <v>114304000</v>
@@ -2456,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2009300</v>
+        <v>2092300</v>
       </c>
       <c r="E62" s="3">
-        <v>2294000</v>
+        <v>2388700</v>
       </c>
       <c r="F62" s="3">
-        <v>2526900</v>
+        <v>2631300</v>
       </c>
       <c r="G62" s="3">
-        <v>3562100</v>
+        <v>3709300</v>
       </c>
       <c r="H62" s="3">
-        <v>4079800</v>
+        <v>4248300</v>
       </c>
       <c r="I62" s="3">
-        <v>2476300</v>
+        <v>2578600</v>
       </c>
       <c r="J62" s="3">
-        <v>3343300</v>
+        <v>3481400</v>
       </c>
       <c r="K62" s="3">
         <v>624400</v>
@@ -2600,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1038340000</v>
+        <v>1081220000</v>
       </c>
       <c r="E66" s="3">
-        <v>985794000</v>
+        <v>1026510000</v>
       </c>
       <c r="F66" s="3">
-        <v>983586000</v>
+        <v>1024210000</v>
       </c>
       <c r="G66" s="3">
-        <v>936191000</v>
+        <v>974859000</v>
       </c>
       <c r="H66" s="3">
-        <v>935577000</v>
+        <v>974220000</v>
       </c>
       <c r="I66" s="3">
-        <v>1126290000</v>
+        <v>1172810000</v>
       </c>
       <c r="J66" s="3">
-        <v>1326170000</v>
+        <v>1380950000</v>
       </c>
       <c r="K66" s="3">
         <v>1235490000</v>
@@ -2796,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45203200</v>
+        <v>47070200</v>
       </c>
       <c r="E72" s="3">
-        <v>42176300</v>
+        <v>43918300</v>
       </c>
       <c r="F72" s="3">
-        <v>39055300</v>
+        <v>40668400</v>
       </c>
       <c r="G72" s="3">
-        <v>37087200</v>
+        <v>38619000</v>
       </c>
       <c r="H72" s="3">
-        <v>34282600</v>
+        <v>35698700</v>
       </c>
       <c r="I72" s="3">
-        <v>31555800</v>
+        <v>32859100</v>
       </c>
       <c r="J72" s="3">
-        <v>28990000</v>
+        <v>30187400</v>
       </c>
       <c r="K72" s="3">
         <v>24640500</v>
@@ -2940,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64275000</v>
+        <v>66929800</v>
       </c>
       <c r="E76" s="3">
-        <v>63253900</v>
+        <v>65866500</v>
       </c>
       <c r="F76" s="3">
-        <v>59916400</v>
+        <v>62391200</v>
       </c>
       <c r="G76" s="3">
-        <v>59297600</v>
+        <v>61746800</v>
       </c>
       <c r="H76" s="3">
-        <v>58576500</v>
+        <v>60995900</v>
       </c>
       <c r="I76" s="3">
-        <v>56269600</v>
+        <v>58593700</v>
       </c>
       <c r="J76" s="3">
-        <v>60401100</v>
+        <v>62895900</v>
       </c>
       <c r="K76" s="3">
         <v>52363700</v>
@@ -3053,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2923400</v>
+        <v>3044100</v>
       </c>
       <c r="E81" s="3">
-        <v>5624400</v>
+        <v>5856700</v>
       </c>
       <c r="F81" s="3">
-        <v>5532600</v>
+        <v>5761100</v>
       </c>
       <c r="G81" s="3">
-        <v>5770200</v>
+        <v>6008600</v>
       </c>
       <c r="H81" s="3">
-        <v>5471400</v>
+        <v>5697400</v>
       </c>
       <c r="I81" s="3">
-        <v>4717400</v>
+        <v>4912200</v>
       </c>
       <c r="J81" s="3">
-        <v>589400</v>
+        <v>613700</v>
       </c>
       <c r="K81" s="3">
         <v>5220200</v>
@@ -3105,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>975200</v>
+        <v>1015500</v>
       </c>
       <c r="E83" s="3">
-        <v>928200</v>
+        <v>966500</v>
       </c>
       <c r="F83" s="3">
-        <v>611700</v>
+        <v>637000</v>
       </c>
       <c r="G83" s="3">
-        <v>611700</v>
+        <v>637000</v>
       </c>
       <c r="H83" s="3">
-        <v>630600</v>
+        <v>656600</v>
       </c>
       <c r="I83" s="3">
-        <v>745800</v>
+        <v>776600</v>
       </c>
       <c r="J83" s="3">
-        <v>814100</v>
+        <v>847700</v>
       </c>
       <c r="K83" s="3">
         <v>915100</v>
@@ -3321,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>119102300</v>
+        <v>124021700</v>
       </c>
       <c r="E89" s="3">
-        <v>15357900</v>
+        <v>15992200</v>
       </c>
       <c r="F89" s="3">
-        <v>8134800</v>
+        <v>8470800</v>
       </c>
       <c r="G89" s="3">
-        <v>-6179600</v>
+        <v>-6434900</v>
       </c>
       <c r="H89" s="3">
-        <v>10061700</v>
+        <v>10477300</v>
       </c>
       <c r="I89" s="3">
-        <v>12442800</v>
+        <v>12956700</v>
       </c>
       <c r="J89" s="3">
-        <v>14139200</v>
+        <v>14723200</v>
       </c>
       <c r="K89" s="3">
         <v>-10069600</v>
@@ -3373,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-337600</v>
+        <v>-351600</v>
       </c>
       <c r="E91" s="3">
-        <v>-417600</v>
+        <v>-434900</v>
       </c>
       <c r="F91" s="3">
-        <v>-336500</v>
+        <v>-350300</v>
       </c>
       <c r="G91" s="3">
-        <v>-357600</v>
+        <v>-372400</v>
       </c>
       <c r="H91" s="3">
-        <v>-488200</v>
+        <v>-508400</v>
       </c>
       <c r="I91" s="3">
-        <v>-458800</v>
+        <v>-477700</v>
       </c>
       <c r="J91" s="3">
-        <v>-481100</v>
+        <v>-501000</v>
       </c>
       <c r="K91" s="3">
         <v>-562200</v>
@@ -3481,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9984100</v>
+        <v>-10396500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2935100</v>
+        <v>-3056400</v>
       </c>
       <c r="F94" s="3">
-        <v>6412600</v>
+        <v>6677400</v>
       </c>
       <c r="G94" s="3">
-        <v>13827400</v>
+        <v>14398500</v>
       </c>
       <c r="H94" s="3">
-        <v>7216000</v>
+        <v>7514100</v>
       </c>
       <c r="I94" s="3">
-        <v>4936200</v>
+        <v>5140100</v>
       </c>
       <c r="J94" s="3">
-        <v>-8727700</v>
+        <v>-9088200</v>
       </c>
       <c r="K94" s="3">
         <v>11087600</v>
@@ -3533,22 +3531,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3151600</v>
+        <v>-3281700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3066900</v>
+        <v>-3193500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3016300</v>
+        <v>-3140900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2965700</v>
+        <v>-3088200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1638700</v>
+        <v>-1706400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3677,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40934000</v>
+        <v>-42624800</v>
       </c>
       <c r="E100" s="3">
-        <v>-4886800</v>
+        <v>-5088600</v>
       </c>
       <c r="F100" s="3">
-        <v>18802400</v>
+        <v>19579000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4644400</v>
+        <v>-4836300</v>
       </c>
       <c r="H100" s="3">
-        <v>-22418700</v>
+        <v>-23344600</v>
       </c>
       <c r="I100" s="3">
-        <v>-13134500</v>
+        <v>-13677000</v>
       </c>
       <c r="J100" s="3">
-        <v>-5485600</v>
+        <v>-5712100</v>
       </c>
       <c r="K100" s="3">
         <v>-10410500</v>
@@ -3713,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-500000</v>
+        <v>-520600</v>
       </c>
       <c r="E101" s="3">
-        <v>111800</v>
+        <v>116400</v>
       </c>
       <c r="F101" s="3">
-        <v>240000</v>
+        <v>249900</v>
       </c>
       <c r="G101" s="3">
-        <v>305900</v>
+        <v>318500</v>
       </c>
       <c r="H101" s="3">
-        <v>182300</v>
+        <v>189900</v>
       </c>
       <c r="I101" s="3">
-        <v>-402300</v>
+        <v>-418900</v>
       </c>
       <c r="J101" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K101" s="3">
         <v>1055000</v>
@@ -3749,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67684200</v>
+        <v>70479800</v>
       </c>
       <c r="E102" s="3">
-        <v>7647800</v>
+        <v>7963700</v>
       </c>
       <c r="F102" s="3">
-        <v>33589700</v>
+        <v>34977100</v>
       </c>
       <c r="G102" s="3">
-        <v>3309200</v>
+        <v>3445900</v>
       </c>
       <c r="H102" s="3">
-        <v>-4958500</v>
+        <v>-5163300</v>
       </c>
       <c r="I102" s="3">
-        <v>3842100</v>
+        <v>4000800</v>
       </c>
       <c r="J102" s="3">
-        <v>-78800</v>
+        <v>-82100</v>
       </c>
       <c r="K102" s="3">
         <v>-8337500</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -720,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27804800</v>
+        <v>26497900</v>
       </c>
       <c r="E8" s="3">
-        <v>34855900</v>
+        <v>33217500</v>
       </c>
       <c r="F8" s="3">
-        <v>34481000</v>
+        <v>32860300</v>
       </c>
       <c r="G8" s="3">
-        <v>53978000</v>
+        <v>51440800</v>
       </c>
       <c r="H8" s="3">
-        <v>54122500</v>
+        <v>51578500</v>
       </c>
       <c r="I8" s="3">
-        <v>56742800</v>
+        <v>54075600</v>
       </c>
       <c r="J8" s="3">
-        <v>59006500</v>
+        <v>56233000</v>
       </c>
       <c r="K8" s="3">
         <v>61505000</v>
@@ -952,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1015500</v>
+        <v>-967800</v>
       </c>
       <c r="E15" s="3">
-        <v>-965300</v>
+        <v>-919900</v>
       </c>
       <c r="F15" s="3">
-        <v>-888100</v>
+        <v>-846400</v>
       </c>
       <c r="G15" s="3">
-        <v>-848900</v>
+        <v>-809000</v>
       </c>
       <c r="H15" s="3">
-        <v>-656600</v>
+        <v>-625700</v>
       </c>
       <c r="I15" s="3">
-        <v>-753400</v>
+        <v>-718000</v>
       </c>
       <c r="J15" s="3">
-        <v>-705600</v>
+        <v>-672400</v>
       </c>
       <c r="K15" s="3">
         <v>-724900</v>
@@ -1001,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15770500</v>
+        <v>15029200</v>
       </c>
       <c r="E17" s="3">
-        <v>18982400</v>
+        <v>19282100</v>
       </c>
       <c r="F17" s="3">
-        <v>18237700</v>
+        <v>17380400</v>
       </c>
       <c r="G17" s="3">
-        <v>38006500</v>
+        <v>36220100</v>
       </c>
       <c r="H17" s="3">
-        <v>39095600</v>
+        <v>37257900</v>
       </c>
       <c r="I17" s="3">
-        <v>43005700</v>
+        <v>40984300</v>
       </c>
       <c r="J17" s="3">
-        <v>45886900</v>
+        <v>43730000</v>
       </c>
       <c r="K17" s="3">
         <v>50218900</v>
@@ -1037,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12034300</v>
+        <v>11468600</v>
       </c>
       <c r="E18" s="3">
-        <v>15873400</v>
+        <v>13935400</v>
       </c>
       <c r="F18" s="3">
-        <v>16243400</v>
+        <v>15479900</v>
       </c>
       <c r="G18" s="3">
-        <v>15971400</v>
+        <v>15220700</v>
       </c>
       <c r="H18" s="3">
-        <v>15027000</v>
+        <v>14320600</v>
       </c>
       <c r="I18" s="3">
-        <v>13737000</v>
+        <v>13091300</v>
       </c>
       <c r="J18" s="3">
-        <v>13119600</v>
+        <v>12503000</v>
       </c>
       <c r="K18" s="3">
         <v>11286100</v>
@@ -1089,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7368300</v>
+        <v>-7022000</v>
       </c>
       <c r="E20" s="3">
-        <v>-7501800</v>
+        <v>-5957300</v>
       </c>
       <c r="F20" s="3">
-        <v>-7866900</v>
+        <v>-7497100</v>
       </c>
       <c r="G20" s="3">
-        <v>-7068200</v>
+        <v>-6736000</v>
       </c>
       <c r="H20" s="3">
-        <v>-7795800</v>
+        <v>-7429400</v>
       </c>
       <c r="I20" s="3">
-        <v>-6176400</v>
+        <v>-5886100</v>
       </c>
       <c r="J20" s="3">
-        <v>-8578600</v>
+        <v>-8175400</v>
       </c>
       <c r="K20" s="3">
         <v>-4141200</v>
@@ -1125,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5678600</v>
+        <v>5417400</v>
       </c>
       <c r="E21" s="3">
-        <v>9335300</v>
+        <v>8902000</v>
       </c>
       <c r="F21" s="3">
-        <v>9011700</v>
+        <v>8591700</v>
       </c>
       <c r="G21" s="3">
-        <v>9538400</v>
+        <v>9093700</v>
       </c>
       <c r="H21" s="3">
-        <v>7885800</v>
+        <v>7518900</v>
       </c>
       <c r="I21" s="3">
-        <v>8335100</v>
+        <v>7947700</v>
       </c>
       <c r="J21" s="3">
-        <v>5386300</v>
+        <v>5137900</v>
       </c>
       <c r="K21" s="3">
         <v>8056200</v>
@@ -1197,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4666000</v>
+        <v>4446700</v>
       </c>
       <c r="E23" s="3">
-        <v>8371600</v>
+        <v>7978100</v>
       </c>
       <c r="F23" s="3">
-        <v>8376500</v>
+        <v>7982700</v>
       </c>
       <c r="G23" s="3">
-        <v>8903200</v>
+        <v>8484700</v>
       </c>
       <c r="H23" s="3">
-        <v>7231100</v>
+        <v>6891200</v>
       </c>
       <c r="I23" s="3">
-        <v>7560600</v>
+        <v>7205300</v>
       </c>
       <c r="J23" s="3">
-        <v>4541000</v>
+        <v>4327600</v>
       </c>
       <c r="K23" s="3">
         <v>7144900</v>
@@ -1233,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1526300</v>
+        <v>1454600</v>
       </c>
       <c r="E24" s="3">
-        <v>2394900</v>
+        <v>2282300</v>
       </c>
       <c r="F24" s="3">
-        <v>2483100</v>
+        <v>2366300</v>
       </c>
       <c r="G24" s="3">
-        <v>2794200</v>
+        <v>2662900</v>
       </c>
       <c r="H24" s="3">
-        <v>1982000</v>
+        <v>1888900</v>
       </c>
       <c r="I24" s="3">
-        <v>2005300</v>
+        <v>1911100</v>
       </c>
       <c r="J24" s="3">
-        <v>1189500</v>
+        <v>1133600</v>
       </c>
       <c r="K24" s="3">
         <v>1791900</v>
@@ -1305,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3139600</v>
+        <v>2992100</v>
       </c>
       <c r="E26" s="3">
-        <v>5976700</v>
+        <v>5695800</v>
       </c>
       <c r="F26" s="3">
-        <v>5893400</v>
+        <v>5616400</v>
       </c>
       <c r="G26" s="3">
-        <v>6109000</v>
+        <v>5821900</v>
       </c>
       <c r="H26" s="3">
-        <v>5249100</v>
+        <v>5002400</v>
       </c>
       <c r="I26" s="3">
-        <v>5555300</v>
+        <v>5294200</v>
       </c>
       <c r="J26" s="3">
-        <v>3351600</v>
+        <v>3194000</v>
       </c>
       <c r="K26" s="3">
         <v>5353000</v>
@@ -1341,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3044100</v>
+        <v>2901000</v>
       </c>
       <c r="E27" s="3">
-        <v>5856700</v>
+        <v>5581400</v>
       </c>
       <c r="F27" s="3">
-        <v>5761100</v>
+        <v>5490300</v>
       </c>
       <c r="G27" s="3">
-        <v>6008600</v>
+        <v>5726100</v>
       </c>
       <c r="H27" s="3">
-        <v>5157200</v>
+        <v>4914800</v>
       </c>
       <c r="I27" s="3">
-        <v>5470800</v>
+        <v>5213700</v>
       </c>
       <c r="J27" s="3">
-        <v>2336100</v>
+        <v>2226300</v>
       </c>
       <c r="K27" s="3">
         <v>4628100</v>
@@ -1425,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>540200</v>
+        <v>514800</v>
       </c>
       <c r="I29" s="3">
-        <v>-558600</v>
+        <v>-532300</v>
       </c>
       <c r="J29" s="3">
-        <v>-1722300</v>
+        <v>-1641400</v>
       </c>
       <c r="K29" s="3">
         <v>592100</v>
@@ -1521,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7368300</v>
+        <v>7022000</v>
       </c>
       <c r="E32" s="3">
-        <v>7501800</v>
+        <v>5957300</v>
       </c>
       <c r="F32" s="3">
-        <v>7866900</v>
+        <v>7497100</v>
       </c>
       <c r="G32" s="3">
-        <v>7068200</v>
+        <v>6736000</v>
       </c>
       <c r="H32" s="3">
-        <v>7795800</v>
+        <v>7429400</v>
       </c>
       <c r="I32" s="3">
-        <v>6176400</v>
+        <v>5886100</v>
       </c>
       <c r="J32" s="3">
-        <v>8578600</v>
+        <v>8175400</v>
       </c>
       <c r="K32" s="3">
         <v>4141200</v>
@@ -1557,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3044100</v>
+        <v>2901000</v>
       </c>
       <c r="E33" s="3">
-        <v>5856700</v>
+        <v>5581400</v>
       </c>
       <c r="F33" s="3">
-        <v>5761100</v>
+        <v>5490300</v>
       </c>
       <c r="G33" s="3">
-        <v>6008600</v>
+        <v>5726100</v>
       </c>
       <c r="H33" s="3">
-        <v>5697400</v>
+        <v>5429600</v>
       </c>
       <c r="I33" s="3">
-        <v>4912200</v>
+        <v>4681300</v>
       </c>
       <c r="J33" s="3">
-        <v>613700</v>
+        <v>584900</v>
       </c>
       <c r="K33" s="3">
         <v>5220200</v>
@@ -1629,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3044100</v>
+        <v>2901000</v>
       </c>
       <c r="E35" s="3">
-        <v>5856700</v>
+        <v>5581400</v>
       </c>
       <c r="F35" s="3">
-        <v>5761100</v>
+        <v>5490300</v>
       </c>
       <c r="G35" s="3">
-        <v>6008600</v>
+        <v>5726100</v>
       </c>
       <c r="H35" s="3">
-        <v>5697400</v>
+        <v>5429600</v>
       </c>
       <c r="I35" s="3">
-        <v>4912200</v>
+        <v>4681300</v>
       </c>
       <c r="J35" s="3">
-        <v>613700</v>
+        <v>584900</v>
       </c>
       <c r="K35" s="3">
         <v>5220200</v>
@@ -1738,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>167151000</v>
+        <v>159294000</v>
       </c>
       <c r="E41" s="3">
-        <v>108213000</v>
+        <v>103127000</v>
       </c>
       <c r="F41" s="3">
-        <v>98500200</v>
+        <v>93870300</v>
       </c>
       <c r="G41" s="3">
-        <v>62229500</v>
+        <v>59304400</v>
       </c>
       <c r="H41" s="3">
-        <v>57577000</v>
+        <v>54870600</v>
       </c>
       <c r="I41" s="3">
-        <v>126042000</v>
+        <v>120117000</v>
       </c>
       <c r="J41" s="3">
-        <v>120911000</v>
+        <v>115228000</v>
       </c>
       <c r="K41" s="3">
         <v>134721000</v>
@@ -1774,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>127921000</v>
+        <v>121908000</v>
       </c>
       <c r="E42" s="3">
-        <v>117828000</v>
+        <v>112290000</v>
       </c>
       <c r="F42" s="3">
-        <v>147594000</v>
+        <v>140657000</v>
       </c>
       <c r="G42" s="3">
-        <v>150945000</v>
+        <v>143849000</v>
       </c>
       <c r="H42" s="3">
-        <v>149563000</v>
+        <v>142533000</v>
       </c>
       <c r="I42" s="3">
-        <v>169107000</v>
+        <v>161159000</v>
       </c>
       <c r="J42" s="3">
-        <v>176520000</v>
+        <v>168223000</v>
       </c>
       <c r="K42" s="3">
         <v>395158000</v>
@@ -1954,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1806900</v>
+        <v>1721900</v>
       </c>
       <c r="E47" s="3">
-        <v>2192700</v>
+        <v>2089700</v>
       </c>
       <c r="F47" s="3">
-        <v>1473700</v>
+        <v>1404400</v>
       </c>
       <c r="G47" s="3">
-        <v>1332800</v>
+        <v>1270100</v>
       </c>
       <c r="H47" s="3">
-        <v>1397700</v>
+        <v>1332000</v>
       </c>
       <c r="I47" s="3">
-        <v>1178400</v>
+        <v>1123000</v>
       </c>
       <c r="J47" s="3">
-        <v>1167400</v>
+        <v>1112500</v>
       </c>
       <c r="K47" s="3">
         <v>2418700</v>
@@ -1990,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3504700</v>
+        <v>3340000</v>
       </c>
       <c r="E48" s="3">
-        <v>3942000</v>
+        <v>3756700</v>
       </c>
       <c r="F48" s="3">
-        <v>2098400</v>
+        <v>1999800</v>
       </c>
       <c r="G48" s="3">
-        <v>2285800</v>
+        <v>2178400</v>
       </c>
       <c r="H48" s="3">
-        <v>2452400</v>
+        <v>2337200</v>
       </c>
       <c r="I48" s="3">
-        <v>5060400</v>
+        <v>4822600</v>
       </c>
       <c r="J48" s="3">
-        <v>5243000</v>
+        <v>4996500</v>
       </c>
       <c r="K48" s="3">
         <v>7103000</v>
@@ -2026,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1707600</v>
+        <v>1627400</v>
       </c>
       <c r="E49" s="3">
-        <v>2347100</v>
+        <v>2236800</v>
       </c>
       <c r="F49" s="3">
-        <v>2252800</v>
+        <v>2146900</v>
       </c>
       <c r="G49" s="3">
-        <v>1799500</v>
+        <v>1714900</v>
       </c>
       <c r="H49" s="3">
-        <v>1817900</v>
+        <v>1732400</v>
       </c>
       <c r="I49" s="3">
-        <v>3144500</v>
+        <v>2996700</v>
       </c>
       <c r="J49" s="3">
-        <v>5989000</v>
+        <v>5707500</v>
       </c>
       <c r="K49" s="3">
         <v>2418700</v>
@@ -2134,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1835000</v>
+        <v>1748800</v>
       </c>
       <c r="E52" s="3">
-        <v>1762800</v>
+        <v>1679900</v>
       </c>
       <c r="F52" s="3">
-        <v>3221700</v>
+        <v>3070300</v>
       </c>
       <c r="G52" s="3">
-        <v>1666000</v>
+        <v>1587700</v>
       </c>
       <c r="H52" s="3">
-        <v>1130700</v>
+        <v>1077500</v>
       </c>
       <c r="I52" s="3">
-        <v>4422200</v>
+        <v>4214400</v>
       </c>
       <c r="J52" s="3">
-        <v>204899000</v>
+        <v>195268000</v>
       </c>
       <c r="K52" s="3">
         <v>190519000</v>
@@ -2206,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1148150000</v>
+        <v>1094180000</v>
       </c>
       <c r="E54" s="3">
-        <v>1092380000</v>
+        <v>1041030000</v>
       </c>
       <c r="F54" s="3">
-        <v>1086600000</v>
+        <v>1035530000</v>
       </c>
       <c r="G54" s="3">
-        <v>1036610000</v>
+        <v>987881000</v>
       </c>
       <c r="H54" s="3">
-        <v>1035220000</v>
+        <v>986556000</v>
       </c>
       <c r="I54" s="3">
-        <v>1231400000</v>
+        <v>1173520000</v>
       </c>
       <c r="J54" s="3">
-        <v>1443840000</v>
+        <v>1375980000</v>
       </c>
       <c r="K54" s="3">
         <v>1287850000</v>
@@ -2274,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2490400</v>
+        <v>2373300</v>
       </c>
       <c r="E57" s="3">
-        <v>2597000</v>
+        <v>2474900</v>
       </c>
       <c r="F57" s="3">
-        <v>2857900</v>
+        <v>2723600</v>
       </c>
       <c r="G57" s="3">
-        <v>7601100</v>
+        <v>7243800</v>
       </c>
       <c r="H57" s="3">
-        <v>5382600</v>
+        <v>5129600</v>
       </c>
       <c r="I57" s="3">
-        <v>6316000</v>
+        <v>6019200</v>
       </c>
       <c r="J57" s="3">
-        <v>7033900</v>
+        <v>6703300</v>
       </c>
       <c r="K57" s="3">
         <v>9421300</v>
@@ -2310,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33091900</v>
+        <v>31799100</v>
       </c>
       <c r="E58" s="3">
-        <v>63465500</v>
+        <v>60482300</v>
       </c>
       <c r="F58" s="3">
-        <v>67753000</v>
+        <v>64568300</v>
       </c>
       <c r="G58" s="3">
-        <v>54373600</v>
+        <v>51817800</v>
       </c>
       <c r="H58" s="3">
-        <v>49594900</v>
+        <v>47263800</v>
       </c>
       <c r="I58" s="3">
-        <v>62733000</v>
+        <v>59784200</v>
       </c>
       <c r="J58" s="3">
-        <v>66747300</v>
+        <v>63609800</v>
       </c>
       <c r="K58" s="3">
         <v>63118700</v>
@@ -2346,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1552100</v>
+        <v>1479100</v>
       </c>
       <c r="E59" s="3">
-        <v>1864400</v>
+        <v>1776800</v>
       </c>
       <c r="F59" s="3">
-        <v>2080000</v>
+        <v>1982300</v>
       </c>
       <c r="G59" s="3">
-        <v>2122900</v>
+        <v>2023100</v>
       </c>
       <c r="H59" s="3">
-        <v>1275200</v>
+        <v>1215300</v>
       </c>
       <c r="I59" s="3">
-        <v>1414900</v>
+        <v>1348400</v>
       </c>
       <c r="J59" s="3">
-        <v>1266600</v>
+        <v>1207100</v>
       </c>
       <c r="K59" s="3">
         <v>1522800</v>
@@ -2418,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88438200</v>
+        <v>84018500</v>
       </c>
       <c r="E61" s="3">
-        <v>103896000</v>
+        <v>99012700</v>
       </c>
       <c r="F61" s="3">
-        <v>95752600</v>
+        <v>91251800</v>
       </c>
       <c r="G61" s="3">
-        <v>82891400</v>
+        <v>78995100</v>
       </c>
       <c r="H61" s="3">
-        <v>97963700</v>
+        <v>93358900</v>
       </c>
       <c r="I61" s="3">
-        <v>105948000</v>
+        <v>100968000</v>
       </c>
       <c r="J61" s="3">
-        <v>177023000</v>
+        <v>168702000</v>
       </c>
       <c r="K61" s="3">
         <v>114304000</v>
@@ -2454,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2092300</v>
+        <v>1993900</v>
       </c>
       <c r="E62" s="3">
-        <v>2388700</v>
+        <v>2276400</v>
       </c>
       <c r="F62" s="3">
-        <v>2631300</v>
+        <v>2507600</v>
       </c>
       <c r="G62" s="3">
-        <v>3709300</v>
+        <v>3534900</v>
       </c>
       <c r="H62" s="3">
-        <v>4248300</v>
+        <v>4048600</v>
       </c>
       <c r="I62" s="3">
-        <v>2578600</v>
+        <v>2457400</v>
       </c>
       <c r="J62" s="3">
-        <v>3481400</v>
+        <v>3317800</v>
       </c>
       <c r="K62" s="3">
         <v>624400</v>
@@ -2598,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1081220000</v>
+        <v>1030400000</v>
       </c>
       <c r="E66" s="3">
-        <v>1026510000</v>
+        <v>978260000</v>
       </c>
       <c r="F66" s="3">
-        <v>1024210000</v>
+        <v>976069000</v>
       </c>
       <c r="G66" s="3">
-        <v>974859000</v>
+        <v>929037000</v>
       </c>
       <c r="H66" s="3">
-        <v>974220000</v>
+        <v>928427000</v>
       </c>
       <c r="I66" s="3">
-        <v>1172810000</v>
+        <v>1117680000</v>
       </c>
       <c r="J66" s="3">
-        <v>1380950000</v>
+        <v>1316040000</v>
       </c>
       <c r="K66" s="3">
         <v>1235490000</v>
@@ -2794,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47070200</v>
+        <v>44857700</v>
       </c>
       <c r="E72" s="3">
-        <v>43918300</v>
+        <v>41854000</v>
       </c>
       <c r="F72" s="3">
-        <v>40668400</v>
+        <v>38756800</v>
       </c>
       <c r="G72" s="3">
-        <v>38619000</v>
+        <v>36803800</v>
       </c>
       <c r="H72" s="3">
-        <v>35698700</v>
+        <v>34020700</v>
       </c>
       <c r="I72" s="3">
-        <v>32859100</v>
+        <v>31314600</v>
       </c>
       <c r="J72" s="3">
-        <v>30187400</v>
+        <v>28768500</v>
       </c>
       <c r="K72" s="3">
         <v>24640500</v>
@@ -2938,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66929800</v>
+        <v>63783800</v>
       </c>
       <c r="E76" s="3">
-        <v>65866500</v>
+        <v>62770500</v>
       </c>
       <c r="F76" s="3">
-        <v>62391200</v>
+        <v>59458500</v>
       </c>
       <c r="G76" s="3">
-        <v>61746800</v>
+        <v>58844500</v>
       </c>
       <c r="H76" s="3">
-        <v>60995900</v>
+        <v>58128800</v>
       </c>
       <c r="I76" s="3">
-        <v>58593700</v>
+        <v>55839600</v>
       </c>
       <c r="J76" s="3">
-        <v>62895900</v>
+        <v>59939500</v>
       </c>
       <c r="K76" s="3">
         <v>52363700</v>
@@ -3051,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3044100</v>
+        <v>2901000</v>
       </c>
       <c r="E81" s="3">
-        <v>5856700</v>
+        <v>5581400</v>
       </c>
       <c r="F81" s="3">
-        <v>5761100</v>
+        <v>5490300</v>
       </c>
       <c r="G81" s="3">
-        <v>6008600</v>
+        <v>5726100</v>
       </c>
       <c r="H81" s="3">
-        <v>5697400</v>
+        <v>5429600</v>
       </c>
       <c r="I81" s="3">
-        <v>4912200</v>
+        <v>4681300</v>
       </c>
       <c r="J81" s="3">
-        <v>613700</v>
+        <v>584900</v>
       </c>
       <c r="K81" s="3">
         <v>5220200</v>
@@ -3103,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1015500</v>
+        <v>967800</v>
       </c>
       <c r="E83" s="3">
-        <v>966500</v>
+        <v>921100</v>
       </c>
       <c r="F83" s="3">
-        <v>637000</v>
+        <v>607100</v>
       </c>
       <c r="G83" s="3">
-        <v>637000</v>
+        <v>607100</v>
       </c>
       <c r="H83" s="3">
-        <v>656600</v>
+        <v>625700</v>
       </c>
       <c r="I83" s="3">
-        <v>776600</v>
+        <v>740100</v>
       </c>
       <c r="J83" s="3">
-        <v>847700</v>
+        <v>807800</v>
       </c>
       <c r="K83" s="3">
         <v>915100</v>
@@ -3319,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>124021700</v>
+        <v>118192100</v>
       </c>
       <c r="E89" s="3">
-        <v>15992200</v>
+        <v>15240500</v>
       </c>
       <c r="F89" s="3">
-        <v>8470800</v>
+        <v>8072600</v>
       </c>
       <c r="G89" s="3">
-        <v>-6434900</v>
+        <v>-6132400</v>
       </c>
       <c r="H89" s="3">
-        <v>10477300</v>
+        <v>9984900</v>
       </c>
       <c r="I89" s="3">
-        <v>12956700</v>
+        <v>12347700</v>
       </c>
       <c r="J89" s="3">
-        <v>14723200</v>
+        <v>14031100</v>
       </c>
       <c r="K89" s="3">
         <v>-10069600</v>
@@ -3371,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-351600</v>
+        <v>-335000</v>
       </c>
       <c r="E91" s="3">
-        <v>-434900</v>
+        <v>-414400</v>
       </c>
       <c r="F91" s="3">
-        <v>-350300</v>
+        <v>-333900</v>
       </c>
       <c r="G91" s="3">
-        <v>-372400</v>
+        <v>-354900</v>
       </c>
       <c r="H91" s="3">
-        <v>-508400</v>
+        <v>-484500</v>
       </c>
       <c r="I91" s="3">
-        <v>-477700</v>
+        <v>-455300</v>
       </c>
       <c r="J91" s="3">
-        <v>-501000</v>
+        <v>-477500</v>
       </c>
       <c r="K91" s="3">
         <v>-562200</v>
@@ -3479,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10396500</v>
+        <v>-9907800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3056400</v>
+        <v>-2912700</v>
       </c>
       <c r="F94" s="3">
-        <v>6677400</v>
+        <v>6363600</v>
       </c>
       <c r="G94" s="3">
-        <v>14398500</v>
+        <v>13721700</v>
       </c>
       <c r="H94" s="3">
-        <v>7514100</v>
+        <v>7160900</v>
       </c>
       <c r="I94" s="3">
-        <v>5140100</v>
+        <v>4898500</v>
       </c>
       <c r="J94" s="3">
-        <v>-9088200</v>
+        <v>-8661000</v>
       </c>
       <c r="K94" s="3">
         <v>11087600</v>
@@ -3531,22 +3533,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3281700</v>
+        <v>-3093600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3193500</v>
+        <v>-3043400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3140900</v>
+        <v>-2993200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3088200</v>
+        <v>-2943000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1706400</v>
+        <v>-1626200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-42624800</v>
+        <v>-40621200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5088600</v>
+        <v>-4849400</v>
       </c>
       <c r="F100" s="3">
-        <v>19579000</v>
+        <v>18658700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4836300</v>
+        <v>-4608900</v>
       </c>
       <c r="H100" s="3">
-        <v>-23344600</v>
+        <v>-22247300</v>
       </c>
       <c r="I100" s="3">
-        <v>-13677000</v>
+        <v>-13034100</v>
       </c>
       <c r="J100" s="3">
-        <v>-5712100</v>
+        <v>-5443600</v>
       </c>
       <c r="K100" s="3">
         <v>-10410500</v>
@@ -3711,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-520600</v>
+        <v>-496100</v>
       </c>
       <c r="E101" s="3">
-        <v>116400</v>
+        <v>110900</v>
       </c>
       <c r="F101" s="3">
-        <v>249900</v>
+        <v>238200</v>
       </c>
       <c r="G101" s="3">
-        <v>318500</v>
+        <v>303500</v>
       </c>
       <c r="H101" s="3">
-        <v>189900</v>
+        <v>180900</v>
       </c>
       <c r="I101" s="3">
-        <v>-418900</v>
+        <v>-399300</v>
       </c>
       <c r="J101" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="K101" s="3">
         <v>1055000</v>
@@ -3747,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70479800</v>
+        <v>67166900</v>
       </c>
       <c r="E102" s="3">
-        <v>7963700</v>
+        <v>7589300</v>
       </c>
       <c r="F102" s="3">
-        <v>34977100</v>
+        <v>33333100</v>
       </c>
       <c r="G102" s="3">
-        <v>3445900</v>
+        <v>3283900</v>
       </c>
       <c r="H102" s="3">
-        <v>-5163300</v>
+        <v>-4920600</v>
       </c>
       <c r="I102" s="3">
-        <v>4000800</v>
+        <v>3812800</v>
       </c>
       <c r="J102" s="3">
-        <v>-82100</v>
+        <v>-78200</v>
       </c>
       <c r="K102" s="3">
         <v>-8337500</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26497900</v>
+        <v>25628300</v>
       </c>
       <c r="E8" s="3">
-        <v>33217500</v>
+        <v>32127400</v>
       </c>
       <c r="F8" s="3">
-        <v>32860300</v>
+        <v>31781900</v>
       </c>
       <c r="G8" s="3">
-        <v>51440800</v>
+        <v>49752700</v>
       </c>
       <c r="H8" s="3">
-        <v>51578500</v>
+        <v>49885900</v>
       </c>
       <c r="I8" s="3">
-        <v>54075600</v>
+        <v>52301000</v>
       </c>
       <c r="J8" s="3">
-        <v>56233000</v>
+        <v>54387600</v>
       </c>
       <c r="K8" s="3">
         <v>61505000</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-967800</v>
+        <v>-936000</v>
       </c>
       <c r="E15" s="3">
-        <v>-919900</v>
+        <v>-889700</v>
       </c>
       <c r="F15" s="3">
-        <v>-846400</v>
+        <v>-818600</v>
       </c>
       <c r="G15" s="3">
-        <v>-809000</v>
+        <v>-782500</v>
       </c>
       <c r="H15" s="3">
-        <v>-625700</v>
+        <v>-605200</v>
       </c>
       <c r="I15" s="3">
-        <v>-718000</v>
+        <v>-694400</v>
       </c>
       <c r="J15" s="3">
-        <v>-672400</v>
+        <v>-650400</v>
       </c>
       <c r="K15" s="3">
         <v>-724900</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15029200</v>
+        <v>13288400</v>
       </c>
       <c r="E17" s="3">
-        <v>19282100</v>
+        <v>18649300</v>
       </c>
       <c r="F17" s="3">
-        <v>17380400</v>
+        <v>16810000</v>
       </c>
       <c r="G17" s="3">
-        <v>36220100</v>
+        <v>35031500</v>
       </c>
       <c r="H17" s="3">
-        <v>37257900</v>
+        <v>36035200</v>
       </c>
       <c r="I17" s="3">
-        <v>40984300</v>
+        <v>39639300</v>
       </c>
       <c r="J17" s="3">
-        <v>43730000</v>
+        <v>42295000</v>
       </c>
       <c r="K17" s="3">
         <v>50218900</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11468600</v>
+        <v>12339900</v>
       </c>
       <c r="E18" s="3">
-        <v>13935400</v>
+        <v>13478100</v>
       </c>
       <c r="F18" s="3">
-        <v>15479900</v>
+        <v>14971900</v>
       </c>
       <c r="G18" s="3">
-        <v>15220700</v>
+        <v>14721200</v>
       </c>
       <c r="H18" s="3">
-        <v>14320600</v>
+        <v>13850700</v>
       </c>
       <c r="I18" s="3">
-        <v>13091300</v>
+        <v>12661700</v>
       </c>
       <c r="J18" s="3">
-        <v>12503000</v>
+        <v>12092700</v>
       </c>
       <c r="K18" s="3">
         <v>11286100</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7022000</v>
+        <v>-8039200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5957300</v>
+        <v>-5761800</v>
       </c>
       <c r="F20" s="3">
-        <v>-7497100</v>
+        <v>-7251100</v>
       </c>
       <c r="G20" s="3">
-        <v>-6736000</v>
+        <v>-6514900</v>
       </c>
       <c r="H20" s="3">
-        <v>-7429400</v>
+        <v>-7185600</v>
       </c>
       <c r="I20" s="3">
-        <v>-5886100</v>
+        <v>-5692900</v>
       </c>
       <c r="J20" s="3">
-        <v>-8175400</v>
+        <v>-7907100</v>
       </c>
       <c r="K20" s="3">
         <v>-4141200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5417400</v>
+        <v>5238900</v>
       </c>
       <c r="E21" s="3">
-        <v>8902000</v>
+        <v>8609200</v>
       </c>
       <c r="F21" s="3">
-        <v>8591700</v>
+        <v>8309300</v>
       </c>
       <c r="G21" s="3">
-        <v>9093700</v>
+        <v>8794800</v>
       </c>
       <c r="H21" s="3">
-        <v>7518900</v>
+        <v>7271700</v>
       </c>
       <c r="I21" s="3">
-        <v>7947700</v>
+        <v>7686300</v>
       </c>
       <c r="J21" s="3">
-        <v>5137900</v>
+        <v>4968700</v>
       </c>
       <c r="K21" s="3">
         <v>8056200</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4446700</v>
+        <v>4300700</v>
       </c>
       <c r="E23" s="3">
-        <v>7978100</v>
+        <v>7716300</v>
       </c>
       <c r="F23" s="3">
-        <v>7982700</v>
+        <v>7720800</v>
       </c>
       <c r="G23" s="3">
-        <v>8484700</v>
+        <v>8206300</v>
       </c>
       <c r="H23" s="3">
-        <v>6891200</v>
+        <v>6665100</v>
       </c>
       <c r="I23" s="3">
-        <v>7205300</v>
+        <v>6968800</v>
       </c>
       <c r="J23" s="3">
-        <v>4327600</v>
+        <v>4185600</v>
       </c>
       <c r="K23" s="3">
         <v>7144900</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1454600</v>
+        <v>1406900</v>
       </c>
       <c r="E24" s="3">
-        <v>2282300</v>
+        <v>2207400</v>
       </c>
       <c r="F24" s="3">
-        <v>2366300</v>
+        <v>2288700</v>
       </c>
       <c r="G24" s="3">
-        <v>2662900</v>
+        <v>2575500</v>
       </c>
       <c r="H24" s="3">
-        <v>1888900</v>
+        <v>1826900</v>
       </c>
       <c r="I24" s="3">
-        <v>1911100</v>
+        <v>1848300</v>
       </c>
       <c r="J24" s="3">
-        <v>1133600</v>
+        <v>1096400</v>
       </c>
       <c r="K24" s="3">
         <v>1791900</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2992100</v>
+        <v>2893900</v>
       </c>
       <c r="E26" s="3">
-        <v>5695800</v>
+        <v>5508900</v>
       </c>
       <c r="F26" s="3">
-        <v>5616400</v>
+        <v>5432100</v>
       </c>
       <c r="G26" s="3">
-        <v>5821900</v>
+        <v>5630800</v>
       </c>
       <c r="H26" s="3">
-        <v>5002400</v>
+        <v>4838200</v>
       </c>
       <c r="I26" s="3">
-        <v>5294200</v>
+        <v>5120500</v>
       </c>
       <c r="J26" s="3">
-        <v>3194000</v>
+        <v>3089200</v>
       </c>
       <c r="K26" s="3">
         <v>5353000</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2901000</v>
+        <v>2805800</v>
       </c>
       <c r="E27" s="3">
-        <v>5581400</v>
+        <v>5398200</v>
       </c>
       <c r="F27" s="3">
-        <v>5490300</v>
+        <v>5310200</v>
       </c>
       <c r="G27" s="3">
-        <v>5726100</v>
+        <v>5538200</v>
       </c>
       <c r="H27" s="3">
-        <v>4914800</v>
+        <v>4753500</v>
       </c>
       <c r="I27" s="3">
-        <v>5213700</v>
+        <v>5042600</v>
       </c>
       <c r="J27" s="3">
-        <v>2226300</v>
+        <v>2153200</v>
       </c>
       <c r="K27" s="3">
         <v>4628100</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>514800</v>
+        <v>497900</v>
       </c>
       <c r="I29" s="3">
-        <v>-532300</v>
+        <v>-514900</v>
       </c>
       <c r="J29" s="3">
-        <v>-1641400</v>
+        <v>-1587500</v>
       </c>
       <c r="K29" s="3">
         <v>592100</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7022000</v>
+        <v>8039200</v>
       </c>
       <c r="E32" s="3">
-        <v>5957300</v>
+        <v>5761800</v>
       </c>
       <c r="F32" s="3">
-        <v>7497100</v>
+        <v>7251100</v>
       </c>
       <c r="G32" s="3">
-        <v>6736000</v>
+        <v>6514900</v>
       </c>
       <c r="H32" s="3">
-        <v>7429400</v>
+        <v>7185600</v>
       </c>
       <c r="I32" s="3">
-        <v>5886100</v>
+        <v>5692900</v>
       </c>
       <c r="J32" s="3">
-        <v>8175400</v>
+        <v>7907100</v>
       </c>
       <c r="K32" s="3">
         <v>4141200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2901000</v>
+        <v>2805800</v>
       </c>
       <c r="E33" s="3">
-        <v>5581400</v>
+        <v>5398200</v>
       </c>
       <c r="F33" s="3">
-        <v>5490300</v>
+        <v>5310200</v>
       </c>
       <c r="G33" s="3">
-        <v>5726100</v>
+        <v>5538200</v>
       </c>
       <c r="H33" s="3">
-        <v>5429600</v>
+        <v>5251400</v>
       </c>
       <c r="I33" s="3">
-        <v>4681300</v>
+        <v>4527700</v>
       </c>
       <c r="J33" s="3">
-        <v>584900</v>
+        <v>565700</v>
       </c>
       <c r="K33" s="3">
         <v>5220200</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2901000</v>
+        <v>2805800</v>
       </c>
       <c r="E35" s="3">
-        <v>5581400</v>
+        <v>5398200</v>
       </c>
       <c r="F35" s="3">
-        <v>5490300</v>
+        <v>5310200</v>
       </c>
       <c r="G35" s="3">
-        <v>5726100</v>
+        <v>5538200</v>
       </c>
       <c r="H35" s="3">
-        <v>5429600</v>
+        <v>5251400</v>
       </c>
       <c r="I35" s="3">
-        <v>4681300</v>
+        <v>4527700</v>
       </c>
       <c r="J35" s="3">
-        <v>584900</v>
+        <v>565700</v>
       </c>
       <c r="K35" s="3">
         <v>5220200</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159294000</v>
+        <v>154067000</v>
       </c>
       <c r="E41" s="3">
-        <v>103127000</v>
+        <v>99742400</v>
       </c>
       <c r="F41" s="3">
-        <v>93870300</v>
+        <v>90789800</v>
       </c>
       <c r="G41" s="3">
-        <v>59304400</v>
+        <v>57358300</v>
       </c>
       <c r="H41" s="3">
-        <v>54870600</v>
+        <v>53070000</v>
       </c>
       <c r="I41" s="3">
-        <v>120117000</v>
+        <v>116175000</v>
       </c>
       <c r="J41" s="3">
-        <v>115228000</v>
+        <v>111447000</v>
       </c>
       <c r="K41" s="3">
         <v>134721000</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>121908000</v>
+        <v>117907000</v>
       </c>
       <c r="E42" s="3">
-        <v>112290000</v>
+        <v>108605000</v>
       </c>
       <c r="F42" s="3">
-        <v>140657000</v>
+        <v>136041000</v>
       </c>
       <c r="G42" s="3">
-        <v>143849000</v>
+        <v>139129000</v>
       </c>
       <c r="H42" s="3">
-        <v>142533000</v>
+        <v>137855000</v>
       </c>
       <c r="I42" s="3">
-        <v>161159000</v>
+        <v>155870000</v>
       </c>
       <c r="J42" s="3">
-        <v>168223000</v>
+        <v>162702000</v>
       </c>
       <c r="K42" s="3">
         <v>395158000</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1721900</v>
+        <v>1665400</v>
       </c>
       <c r="E47" s="3">
-        <v>2089700</v>
+        <v>2021100</v>
       </c>
       <c r="F47" s="3">
-        <v>1404400</v>
+        <v>1358300</v>
       </c>
       <c r="G47" s="3">
-        <v>1270100</v>
+        <v>1228500</v>
       </c>
       <c r="H47" s="3">
-        <v>1332000</v>
+        <v>1288300</v>
       </c>
       <c r="I47" s="3">
-        <v>1123000</v>
+        <v>1086200</v>
       </c>
       <c r="J47" s="3">
-        <v>1112500</v>
+        <v>1076000</v>
       </c>
       <c r="K47" s="3">
         <v>2418700</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3340000</v>
+        <v>3230400</v>
       </c>
       <c r="E48" s="3">
-        <v>3756700</v>
+        <v>3633400</v>
       </c>
       <c r="F48" s="3">
-        <v>1999800</v>
+        <v>1934100</v>
       </c>
       <c r="G48" s="3">
-        <v>2178400</v>
+        <v>2106900</v>
       </c>
       <c r="H48" s="3">
-        <v>2337200</v>
+        <v>2260500</v>
       </c>
       <c r="I48" s="3">
-        <v>4822600</v>
+        <v>4664300</v>
       </c>
       <c r="J48" s="3">
-        <v>4996500</v>
+        <v>4832500</v>
       </c>
       <c r="K48" s="3">
         <v>7103000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1627400</v>
+        <v>1574000</v>
       </c>
       <c r="E49" s="3">
-        <v>2236800</v>
+        <v>2163400</v>
       </c>
       <c r="F49" s="3">
-        <v>2146900</v>
+        <v>2076400</v>
       </c>
       <c r="G49" s="3">
-        <v>1714900</v>
+        <v>1658600</v>
       </c>
       <c r="H49" s="3">
-        <v>1732400</v>
+        <v>1675600</v>
       </c>
       <c r="I49" s="3">
-        <v>2996700</v>
+        <v>2898400</v>
       </c>
       <c r="J49" s="3">
-        <v>5707500</v>
+        <v>5520200</v>
       </c>
       <c r="K49" s="3">
         <v>2418700</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1748800</v>
+        <v>1691400</v>
       </c>
       <c r="E52" s="3">
-        <v>1679900</v>
+        <v>1624800</v>
       </c>
       <c r="F52" s="3">
-        <v>3070300</v>
+        <v>2969500</v>
       </c>
       <c r="G52" s="3">
-        <v>1587700</v>
+        <v>1535600</v>
       </c>
       <c r="H52" s="3">
-        <v>1077500</v>
+        <v>1042200</v>
       </c>
       <c r="I52" s="3">
-        <v>4214400</v>
+        <v>4076100</v>
       </c>
       <c r="J52" s="3">
-        <v>195268000</v>
+        <v>188860000</v>
       </c>
       <c r="K52" s="3">
         <v>190519000</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1094180000</v>
+        <v>1058280000</v>
       </c>
       <c r="E54" s="3">
-        <v>1041030000</v>
+        <v>1006870000</v>
       </c>
       <c r="F54" s="3">
-        <v>1035530000</v>
+        <v>1001550000</v>
       </c>
       <c r="G54" s="3">
-        <v>987881000</v>
+        <v>955463000</v>
       </c>
       <c r="H54" s="3">
-        <v>986556000</v>
+        <v>954181000</v>
       </c>
       <c r="I54" s="3">
-        <v>1173520000</v>
+        <v>1135010000</v>
       </c>
       <c r="J54" s="3">
-        <v>1375980000</v>
+        <v>1330820000</v>
       </c>
       <c r="K54" s="3">
         <v>1287850000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2373300</v>
+        <v>2295500</v>
       </c>
       <c r="E57" s="3">
-        <v>2474900</v>
+        <v>2393700</v>
       </c>
       <c r="F57" s="3">
-        <v>2723600</v>
+        <v>2634200</v>
       </c>
       <c r="G57" s="3">
-        <v>7243800</v>
+        <v>7006100</v>
       </c>
       <c r="H57" s="3">
-        <v>5129600</v>
+        <v>4961300</v>
       </c>
       <c r="I57" s="3">
-        <v>6019200</v>
+        <v>5821600</v>
       </c>
       <c r="J57" s="3">
-        <v>6703300</v>
+        <v>6483300</v>
       </c>
       <c r="K57" s="3">
         <v>9421300</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31799100</v>
+        <v>30755600</v>
       </c>
       <c r="E58" s="3">
-        <v>60482300</v>
+        <v>58497500</v>
       </c>
       <c r="F58" s="3">
-        <v>64568300</v>
+        <v>62449400</v>
       </c>
       <c r="G58" s="3">
-        <v>51817800</v>
+        <v>50117400</v>
       </c>
       <c r="H58" s="3">
-        <v>47263800</v>
+        <v>45712700</v>
       </c>
       <c r="I58" s="3">
-        <v>59784200</v>
+        <v>57822300</v>
       </c>
       <c r="J58" s="3">
-        <v>63609800</v>
+        <v>61522400</v>
       </c>
       <c r="K58" s="3">
         <v>63118700</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1479100</v>
+        <v>1430600</v>
       </c>
       <c r="E59" s="3">
-        <v>1776800</v>
+        <v>1718500</v>
       </c>
       <c r="F59" s="3">
-        <v>1982300</v>
+        <v>1917200</v>
       </c>
       <c r="G59" s="3">
-        <v>2023100</v>
+        <v>1956700</v>
       </c>
       <c r="H59" s="3">
-        <v>1215300</v>
+        <v>1175400</v>
       </c>
       <c r="I59" s="3">
-        <v>1348400</v>
+        <v>1304100</v>
       </c>
       <c r="J59" s="3">
-        <v>1207100</v>
+        <v>1167500</v>
       </c>
       <c r="K59" s="3">
         <v>1522800</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>84018500</v>
+        <v>81261300</v>
       </c>
       <c r="E61" s="3">
-        <v>99012700</v>
+        <v>95763500</v>
       </c>
       <c r="F61" s="3">
-        <v>91251800</v>
+        <v>88257200</v>
       </c>
       <c r="G61" s="3">
-        <v>78995100</v>
+        <v>76402800</v>
       </c>
       <c r="H61" s="3">
-        <v>93358900</v>
+        <v>90295300</v>
       </c>
       <c r="I61" s="3">
-        <v>100968000</v>
+        <v>97654700</v>
       </c>
       <c r="J61" s="3">
-        <v>168702000</v>
+        <v>163166000</v>
       </c>
       <c r="K61" s="3">
         <v>114304000</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1993900</v>
+        <v>1928500</v>
       </c>
       <c r="E62" s="3">
-        <v>2276400</v>
+        <v>2201700</v>
       </c>
       <c r="F62" s="3">
-        <v>2507600</v>
+        <v>2425300</v>
       </c>
       <c r="G62" s="3">
-        <v>3534900</v>
+        <v>3418900</v>
       </c>
       <c r="H62" s="3">
-        <v>4048600</v>
+        <v>3915700</v>
       </c>
       <c r="I62" s="3">
-        <v>2457400</v>
+        <v>2376800</v>
       </c>
       <c r="J62" s="3">
-        <v>3317800</v>
+        <v>3208900</v>
       </c>
       <c r="K62" s="3">
         <v>624400</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1030400000</v>
+        <v>996587000</v>
       </c>
       <c r="E66" s="3">
-        <v>978260000</v>
+        <v>946158000</v>
       </c>
       <c r="F66" s="3">
-        <v>976069000</v>
+        <v>944038000</v>
       </c>
       <c r="G66" s="3">
-        <v>929037000</v>
+        <v>898549000</v>
       </c>
       <c r="H66" s="3">
-        <v>928427000</v>
+        <v>897960000</v>
       </c>
       <c r="I66" s="3">
-        <v>1117680000</v>
+        <v>1081000000</v>
       </c>
       <c r="J66" s="3">
-        <v>1316040000</v>
+        <v>1272850000</v>
       </c>
       <c r="K66" s="3">
         <v>1235490000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44857700</v>
+        <v>43385700</v>
       </c>
       <c r="E72" s="3">
-        <v>41854000</v>
+        <v>40480500</v>
       </c>
       <c r="F72" s="3">
-        <v>38756800</v>
+        <v>37485000</v>
       </c>
       <c r="G72" s="3">
-        <v>36803800</v>
+        <v>35596000</v>
       </c>
       <c r="H72" s="3">
-        <v>34020700</v>
+        <v>32904200</v>
       </c>
       <c r="I72" s="3">
-        <v>31314600</v>
+        <v>30287000</v>
       </c>
       <c r="J72" s="3">
-        <v>28768500</v>
+        <v>27824400</v>
       </c>
       <c r="K72" s="3">
         <v>24640500</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63783800</v>
+        <v>61690600</v>
       </c>
       <c r="E76" s="3">
-        <v>62770500</v>
+        <v>60710600</v>
       </c>
       <c r="F76" s="3">
-        <v>59458500</v>
+        <v>57507300</v>
       </c>
       <c r="G76" s="3">
-        <v>58844500</v>
+        <v>56913400</v>
       </c>
       <c r="H76" s="3">
-        <v>58128800</v>
+        <v>56221300</v>
       </c>
       <c r="I76" s="3">
-        <v>55839600</v>
+        <v>54007100</v>
       </c>
       <c r="J76" s="3">
-        <v>59939500</v>
+        <v>57972500</v>
       </c>
       <c r="K76" s="3">
         <v>52363700</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2901000</v>
+        <v>2805800</v>
       </c>
       <c r="E81" s="3">
-        <v>5581400</v>
+        <v>5398200</v>
       </c>
       <c r="F81" s="3">
-        <v>5490300</v>
+        <v>5310200</v>
       </c>
       <c r="G81" s="3">
-        <v>5726100</v>
+        <v>5538200</v>
       </c>
       <c r="H81" s="3">
-        <v>5429600</v>
+        <v>5251400</v>
       </c>
       <c r="I81" s="3">
-        <v>4681300</v>
+        <v>4527700</v>
       </c>
       <c r="J81" s="3">
-        <v>584900</v>
+        <v>565700</v>
       </c>
       <c r="K81" s="3">
         <v>5220200</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>967800</v>
+        <v>936000</v>
       </c>
       <c r="E83" s="3">
-        <v>921100</v>
+        <v>890900</v>
       </c>
       <c r="F83" s="3">
-        <v>607100</v>
+        <v>587100</v>
       </c>
       <c r="G83" s="3">
-        <v>607100</v>
+        <v>587100</v>
       </c>
       <c r="H83" s="3">
-        <v>625700</v>
+        <v>605200</v>
       </c>
       <c r="I83" s="3">
-        <v>740100</v>
+        <v>715800</v>
       </c>
       <c r="J83" s="3">
-        <v>807800</v>
+        <v>781300</v>
       </c>
       <c r="K83" s="3">
         <v>915100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>118192100</v>
+        <v>114313500</v>
       </c>
       <c r="E89" s="3">
-        <v>15240500</v>
+        <v>14740400</v>
       </c>
       <c r="F89" s="3">
-        <v>8072600</v>
+        <v>7807700</v>
       </c>
       <c r="G89" s="3">
-        <v>-6132400</v>
+        <v>-5931200</v>
       </c>
       <c r="H89" s="3">
-        <v>9984900</v>
+        <v>9657200</v>
       </c>
       <c r="I89" s="3">
-        <v>12347700</v>
+        <v>11942500</v>
       </c>
       <c r="J89" s="3">
-        <v>14031100</v>
+        <v>13570700</v>
       </c>
       <c r="K89" s="3">
         <v>-10069600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-335000</v>
+        <v>-324100</v>
       </c>
       <c r="E91" s="3">
-        <v>-414400</v>
+        <v>-400800</v>
       </c>
       <c r="F91" s="3">
-        <v>-333900</v>
+        <v>-322900</v>
       </c>
       <c r="G91" s="3">
-        <v>-354900</v>
+        <v>-343200</v>
       </c>
       <c r="H91" s="3">
-        <v>-484500</v>
+        <v>-468600</v>
       </c>
       <c r="I91" s="3">
-        <v>-455300</v>
+        <v>-440300</v>
       </c>
       <c r="J91" s="3">
-        <v>-477500</v>
+        <v>-461800</v>
       </c>
       <c r="K91" s="3">
         <v>-562200</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9907800</v>
+        <v>-9582700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2912700</v>
+        <v>-2817100</v>
       </c>
       <c r="F94" s="3">
-        <v>6363600</v>
+        <v>6154700</v>
       </c>
       <c r="G94" s="3">
-        <v>13721700</v>
+        <v>13271400</v>
       </c>
       <c r="H94" s="3">
-        <v>7160900</v>
+        <v>6925900</v>
       </c>
       <c r="I94" s="3">
-        <v>4898500</v>
+        <v>4737700</v>
       </c>
       <c r="J94" s="3">
-        <v>-8661000</v>
+        <v>-8376800</v>
       </c>
       <c r="K94" s="3">
         <v>11087600</v>
@@ -3536,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3093600</v>
+        <v>-2992100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3043400</v>
+        <v>-2943600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2993200</v>
+        <v>-2895000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2943000</v>
+        <v>-2846500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1626200</v>
+        <v>-1572800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40621200</v>
+        <v>-39288200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4849400</v>
+        <v>-4690300</v>
       </c>
       <c r="F100" s="3">
-        <v>18658700</v>
+        <v>18046400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4608900</v>
+        <v>-4457700</v>
       </c>
       <c r="H100" s="3">
-        <v>-22247300</v>
+        <v>-21517300</v>
       </c>
       <c r="I100" s="3">
-        <v>-13034100</v>
+        <v>-12606400</v>
       </c>
       <c r="J100" s="3">
-        <v>-5443600</v>
+        <v>-5265000</v>
       </c>
       <c r="K100" s="3">
         <v>-10410500</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-496100</v>
+        <v>-479900</v>
       </c>
       <c r="E101" s="3">
-        <v>110900</v>
+        <v>107300</v>
       </c>
       <c r="F101" s="3">
-        <v>238200</v>
+        <v>230300</v>
       </c>
       <c r="G101" s="3">
-        <v>303500</v>
+        <v>293600</v>
       </c>
       <c r="H101" s="3">
-        <v>180900</v>
+        <v>175000</v>
       </c>
       <c r="I101" s="3">
-        <v>-399300</v>
+        <v>-386200</v>
       </c>
       <c r="J101" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="K101" s="3">
         <v>1055000</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67166900</v>
+        <v>64962800</v>
       </c>
       <c r="E102" s="3">
-        <v>7589300</v>
+        <v>7340300</v>
       </c>
       <c r="F102" s="3">
-        <v>33333100</v>
+        <v>32239200</v>
       </c>
       <c r="G102" s="3">
-        <v>3283900</v>
+        <v>3176200</v>
       </c>
       <c r="H102" s="3">
-        <v>-4920600</v>
+        <v>-4759200</v>
       </c>
       <c r="I102" s="3">
-        <v>3812800</v>
+        <v>3687600</v>
       </c>
       <c r="J102" s="3">
-        <v>-78200</v>
+        <v>-75600</v>
       </c>
       <c r="K102" s="3">
         <v>-8337500</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,101 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25628300</v>
+        <v>23033500</v>
       </c>
       <c r="E8" s="3">
-        <v>32127400</v>
+        <v>24761500</v>
       </c>
       <c r="F8" s="3">
-        <v>31781900</v>
+        <v>31040800</v>
       </c>
       <c r="G8" s="3">
-        <v>49752700</v>
+        <v>30706900</v>
       </c>
       <c r="H8" s="3">
-        <v>49885900</v>
+        <v>48069900</v>
       </c>
       <c r="I8" s="3">
-        <v>52301000</v>
+        <v>48198600</v>
       </c>
       <c r="J8" s="3">
+        <v>50532000</v>
+      </c>
+      <c r="K8" s="3">
         <v>54387600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61505000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65900900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79429400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,9 +793,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,9 +927,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,45 +966,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-936000</v>
+        <v>-909800</v>
       </c>
       <c r="E15" s="3">
-        <v>-889700</v>
+        <v>-904400</v>
       </c>
       <c r="F15" s="3">
-        <v>-818600</v>
+        <v>-859600</v>
       </c>
       <c r="G15" s="3">
-        <v>-782500</v>
+        <v>-790900</v>
       </c>
       <c r="H15" s="3">
-        <v>-605200</v>
+        <v>-756000</v>
       </c>
       <c r="I15" s="3">
-        <v>-694400</v>
+        <v>-584700</v>
       </c>
       <c r="J15" s="3">
+        <v>-670900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-650400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-724900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-715900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1015300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13288400</v>
+        <v>8743600</v>
       </c>
       <c r="E17" s="3">
-        <v>18649300</v>
+        <v>12838900</v>
       </c>
       <c r="F17" s="3">
-        <v>16810000</v>
+        <v>18018600</v>
       </c>
       <c r="G17" s="3">
-        <v>35031500</v>
+        <v>16241500</v>
       </c>
       <c r="H17" s="3">
-        <v>36035200</v>
+        <v>33846600</v>
       </c>
       <c r="I17" s="3">
-        <v>39639300</v>
+        <v>34816400</v>
       </c>
       <c r="J17" s="3">
+        <v>38298600</v>
+      </c>
+      <c r="K17" s="3">
         <v>42295000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50218900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55167900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62059300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12339900</v>
+        <v>14289800</v>
       </c>
       <c r="E18" s="3">
-        <v>13478100</v>
+        <v>11922600</v>
       </c>
       <c r="F18" s="3">
-        <v>14971900</v>
+        <v>13022200</v>
       </c>
       <c r="G18" s="3">
-        <v>14721200</v>
+        <v>14465500</v>
       </c>
       <c r="H18" s="3">
-        <v>13850700</v>
+        <v>14223300</v>
       </c>
       <c r="I18" s="3">
-        <v>12661700</v>
+        <v>13382200</v>
       </c>
       <c r="J18" s="3">
+        <v>12233500</v>
+      </c>
+      <c r="K18" s="3">
         <v>12092700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11286100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10733000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17370000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,80 +1117,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8039200</v>
+        <v>-6891300</v>
       </c>
       <c r="E20" s="3">
-        <v>-5761800</v>
+        <v>-7767300</v>
       </c>
       <c r="F20" s="3">
-        <v>-7251100</v>
+        <v>-5566900</v>
       </c>
       <c r="G20" s="3">
-        <v>-6514900</v>
+        <v>-7005800</v>
       </c>
       <c r="H20" s="3">
-        <v>-7185600</v>
+        <v>-6294600</v>
       </c>
       <c r="I20" s="3">
-        <v>-5692900</v>
+        <v>-6942600</v>
       </c>
       <c r="J20" s="3">
+        <v>-5500400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7907100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4141200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7016200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11411800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5238900</v>
+        <v>8322200</v>
       </c>
       <c r="E21" s="3">
-        <v>8609200</v>
+        <v>5073400</v>
       </c>
       <c r="F21" s="3">
-        <v>8309300</v>
+        <v>8329100</v>
       </c>
       <c r="G21" s="3">
-        <v>8794800</v>
+        <v>8035500</v>
       </c>
       <c r="H21" s="3">
-        <v>7271700</v>
+        <v>8504600</v>
       </c>
       <c r="I21" s="3">
-        <v>7686300</v>
+        <v>7033300</v>
       </c>
       <c r="J21" s="3">
+        <v>7435300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4968700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8056200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>7736600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1192,81 +1231,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4300700</v>
+        <v>7398600</v>
       </c>
       <c r="E23" s="3">
-        <v>7716300</v>
+        <v>4155300</v>
       </c>
       <c r="F23" s="3">
-        <v>7720800</v>
+        <v>7455300</v>
       </c>
       <c r="G23" s="3">
-        <v>8206300</v>
+        <v>7459600</v>
       </c>
       <c r="H23" s="3">
-        <v>6665100</v>
+        <v>7928700</v>
       </c>
       <c r="I23" s="3">
-        <v>6968800</v>
+        <v>6439600</v>
       </c>
       <c r="J23" s="3">
+        <v>6733100</v>
+      </c>
+      <c r="K23" s="3">
         <v>4185600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7144900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3716700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5958300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1406900</v>
+        <v>2047600</v>
       </c>
       <c r="E24" s="3">
-        <v>2207400</v>
+        <v>1359300</v>
       </c>
       <c r="F24" s="3">
-        <v>2288700</v>
+        <v>2132700</v>
       </c>
       <c r="G24" s="3">
-        <v>2575500</v>
+        <v>2211300</v>
       </c>
       <c r="H24" s="3">
-        <v>1826900</v>
+        <v>2488400</v>
       </c>
       <c r="I24" s="3">
-        <v>1848300</v>
+        <v>1765100</v>
       </c>
       <c r="J24" s="3">
+        <v>1785800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1096400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1791900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>939900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1232500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2893900</v>
+        <v>5350900</v>
       </c>
       <c r="E26" s="3">
-        <v>5508900</v>
+        <v>2796000</v>
       </c>
       <c r="F26" s="3">
-        <v>5432100</v>
+        <v>5322500</v>
       </c>
       <c r="G26" s="3">
-        <v>5630800</v>
+        <v>5248400</v>
       </c>
       <c r="H26" s="3">
-        <v>4838200</v>
+        <v>5440400</v>
       </c>
       <c r="I26" s="3">
-        <v>5120500</v>
+        <v>4674500</v>
       </c>
       <c r="J26" s="3">
+        <v>4947300</v>
+      </c>
+      <c r="K26" s="3">
         <v>3089200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5353000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2776800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4725800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2805800</v>
+        <v>5210200</v>
       </c>
       <c r="E27" s="3">
-        <v>5398200</v>
+        <v>2710900</v>
       </c>
       <c r="F27" s="3">
-        <v>5310200</v>
+        <v>5215600</v>
       </c>
       <c r="G27" s="3">
-        <v>5538200</v>
+        <v>5130500</v>
       </c>
       <c r="H27" s="3">
-        <v>4753500</v>
+        <v>5350900</v>
       </c>
       <c r="I27" s="3">
-        <v>5042600</v>
+        <v>4592700</v>
       </c>
       <c r="J27" s="3">
+        <v>4872000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2153200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4628100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1860000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2750200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,33 +1480,36 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>497900</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-514900</v>
+        <v>481100</v>
       </c>
       <c r="J29" s="3">
+        <v>-497500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1587500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>592100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1405400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1753700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8039200</v>
+        <v>6891300</v>
       </c>
       <c r="E32" s="3">
-        <v>5761800</v>
+        <v>7767300</v>
       </c>
       <c r="F32" s="3">
-        <v>7251100</v>
+        <v>5566900</v>
       </c>
       <c r="G32" s="3">
-        <v>6514900</v>
+        <v>7005800</v>
       </c>
       <c r="H32" s="3">
-        <v>7185600</v>
+        <v>6294600</v>
       </c>
       <c r="I32" s="3">
-        <v>5692900</v>
+        <v>6942600</v>
       </c>
       <c r="J32" s="3">
+        <v>5500400</v>
+      </c>
+      <c r="K32" s="3">
         <v>7907100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4141200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7016200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11411800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2805800</v>
+        <v>5210200</v>
       </c>
       <c r="E33" s="3">
-        <v>5398200</v>
+        <v>2710900</v>
       </c>
       <c r="F33" s="3">
-        <v>5310200</v>
+        <v>5215600</v>
       </c>
       <c r="G33" s="3">
-        <v>5538200</v>
+        <v>5130500</v>
       </c>
       <c r="H33" s="3">
-        <v>5251400</v>
+        <v>5350900</v>
       </c>
       <c r="I33" s="3">
-        <v>4527700</v>
+        <v>5073800</v>
       </c>
       <c r="J33" s="3">
+        <v>4374500</v>
+      </c>
+      <c r="K33" s="3">
         <v>565700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5220200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3265500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4503900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2805800</v>
+        <v>5210200</v>
       </c>
       <c r="E35" s="3">
-        <v>5398200</v>
+        <v>2710900</v>
       </c>
       <c r="F35" s="3">
-        <v>5310200</v>
+        <v>5215600</v>
       </c>
       <c r="G35" s="3">
-        <v>5538200</v>
+        <v>5130500</v>
       </c>
       <c r="H35" s="3">
-        <v>5251400</v>
+        <v>5350900</v>
       </c>
       <c r="I35" s="3">
-        <v>4527700</v>
+        <v>5073800</v>
       </c>
       <c r="J35" s="3">
+        <v>4374500</v>
+      </c>
+      <c r="K35" s="3">
         <v>565700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5220200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3265500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4503900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,80 +1819,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154067000</v>
+        <v>141941000</v>
       </c>
       <c r="E41" s="3">
-        <v>99742400</v>
+        <v>148856000</v>
       </c>
       <c r="F41" s="3">
-        <v>90789800</v>
+        <v>96368800</v>
       </c>
       <c r="G41" s="3">
-        <v>57358300</v>
+        <v>87719000</v>
       </c>
       <c r="H41" s="3">
-        <v>53070000</v>
+        <v>55418200</v>
       </c>
       <c r="I41" s="3">
-        <v>116175000</v>
+        <v>51275000</v>
       </c>
       <c r="J41" s="3">
+        <v>112246000</v>
+      </c>
+      <c r="K41" s="3">
         <v>111447000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134721000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143923000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126432000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117907000</v>
+        <v>112139000</v>
       </c>
       <c r="E42" s="3">
-        <v>108605000</v>
+        <v>113919000</v>
       </c>
       <c r="F42" s="3">
-        <v>136041000</v>
+        <v>104931000</v>
       </c>
       <c r="G42" s="3">
-        <v>139129000</v>
+        <v>131439000</v>
       </c>
       <c r="H42" s="3">
-        <v>137855000</v>
+        <v>134423000</v>
       </c>
       <c r="I42" s="3">
-        <v>155870000</v>
+        <v>133193000</v>
       </c>
       <c r="J42" s="3">
+        <v>150598000</v>
+      </c>
+      <c r="K42" s="3">
         <v>162702000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>395158000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>256626000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>308386000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1841,9 +1933,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,9 +1972,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1913,9 +2011,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1949,117 +2050,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1665400</v>
+        <v>1731300</v>
       </c>
       <c r="E47" s="3">
-        <v>2021100</v>
+        <v>1609100</v>
       </c>
       <c r="F47" s="3">
-        <v>1358300</v>
+        <v>1952700</v>
       </c>
       <c r="G47" s="3">
-        <v>1228500</v>
+        <v>1312400</v>
       </c>
       <c r="H47" s="3">
-        <v>1288300</v>
+        <v>1186900</v>
       </c>
       <c r="I47" s="3">
-        <v>1086200</v>
+        <v>1244700</v>
       </c>
       <c r="J47" s="3">
+        <v>1049500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1076000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2418700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7928700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9163900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3230400</v>
+        <v>2772000</v>
       </c>
       <c r="E48" s="3">
-        <v>3633400</v>
+        <v>3121100</v>
       </c>
       <c r="F48" s="3">
-        <v>1934100</v>
+        <v>3510500</v>
       </c>
       <c r="G48" s="3">
-        <v>2106900</v>
+        <v>1868700</v>
       </c>
       <c r="H48" s="3">
-        <v>2260500</v>
+        <v>2035600</v>
       </c>
       <c r="I48" s="3">
-        <v>4664300</v>
+        <v>2184000</v>
       </c>
       <c r="J48" s="3">
+        <v>4506500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4832500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7103000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11519100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10695800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1574000</v>
+        <v>1261100</v>
       </c>
       <c r="E49" s="3">
-        <v>2163400</v>
+        <v>1520700</v>
       </c>
       <c r="F49" s="3">
-        <v>2076400</v>
+        <v>2090200</v>
       </c>
       <c r="G49" s="3">
-        <v>1658600</v>
+        <v>2006200</v>
       </c>
       <c r="H49" s="3">
-        <v>1675600</v>
+        <v>1602500</v>
       </c>
       <c r="I49" s="3">
-        <v>2898400</v>
+        <v>1618900</v>
       </c>
       <c r="J49" s="3">
+        <v>2800400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5520200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2418700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8692900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8352800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1691400</v>
+        <v>1898200</v>
       </c>
       <c r="E52" s="3">
-        <v>1624800</v>
+        <v>1634200</v>
       </c>
       <c r="F52" s="3">
-        <v>2969500</v>
+        <v>1569800</v>
       </c>
       <c r="G52" s="3">
-        <v>1535600</v>
+        <v>2869100</v>
       </c>
       <c r="H52" s="3">
-        <v>1042200</v>
+        <v>1483600</v>
       </c>
       <c r="I52" s="3">
-        <v>4076100</v>
+        <v>1006900</v>
       </c>
       <c r="J52" s="3">
+        <v>3938200</v>
+      </c>
+      <c r="K52" s="3">
         <v>188860000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>190519000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84463700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91383500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1058280000</v>
+        <v>1037770000</v>
       </c>
       <c r="E54" s="3">
-        <v>1006870000</v>
+        <v>1022480000</v>
       </c>
       <c r="F54" s="3">
-        <v>1001550000</v>
+        <v>972812000</v>
       </c>
       <c r="G54" s="3">
-        <v>955463000</v>
+        <v>967670000</v>
       </c>
       <c r="H54" s="3">
-        <v>954181000</v>
+        <v>923146000</v>
       </c>
       <c r="I54" s="3">
-        <v>1135010000</v>
+        <v>921907000</v>
       </c>
       <c r="J54" s="3">
+        <v>1096620000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1330820000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1287850000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1271540000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1495710000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,116 +2399,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2295500</v>
+        <v>2220000</v>
       </c>
       <c r="E57" s="3">
-        <v>2393700</v>
+        <v>2217800</v>
       </c>
       <c r="F57" s="3">
-        <v>2634200</v>
+        <v>2312700</v>
       </c>
       <c r="G57" s="3">
-        <v>7006100</v>
+        <v>2545100</v>
       </c>
       <c r="H57" s="3">
-        <v>4961300</v>
+        <v>6769100</v>
       </c>
       <c r="I57" s="3">
-        <v>5821600</v>
+        <v>4793500</v>
       </c>
       <c r="J57" s="3">
+        <v>5624700</v>
+      </c>
+      <c r="K57" s="3">
         <v>6483300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9421300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11604800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13731200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30755600</v>
+        <v>41634600</v>
       </c>
       <c r="E58" s="3">
-        <v>58497500</v>
+        <v>29715300</v>
       </c>
       <c r="F58" s="3">
-        <v>62449400</v>
+        <v>56519000</v>
       </c>
       <c r="G58" s="3">
-        <v>50117400</v>
+        <v>60337100</v>
       </c>
       <c r="H58" s="3">
-        <v>45712700</v>
+        <v>48422200</v>
       </c>
       <c r="I58" s="3">
-        <v>57822300</v>
+        <v>44166600</v>
       </c>
       <c r="J58" s="3">
+        <v>55866600</v>
+      </c>
+      <c r="K58" s="3">
         <v>61522400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63118700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>113681000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1430600</v>
+        <v>1409500</v>
       </c>
       <c r="E59" s="3">
-        <v>1718500</v>
+        <v>1382200</v>
       </c>
       <c r="F59" s="3">
-        <v>1917200</v>
+        <v>1660400</v>
       </c>
       <c r="G59" s="3">
-        <v>1956700</v>
+        <v>1852400</v>
       </c>
       <c r="H59" s="3">
-        <v>1175400</v>
+        <v>1890500</v>
       </c>
       <c r="I59" s="3">
-        <v>1304100</v>
+        <v>1135600</v>
       </c>
       <c r="J59" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1167500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1522800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14712100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16799600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2413,81 +2552,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81261300</v>
+        <v>78059000</v>
       </c>
       <c r="E61" s="3">
-        <v>95763500</v>
+        <v>78512800</v>
       </c>
       <c r="F61" s="3">
-        <v>88257200</v>
+        <v>92524400</v>
       </c>
       <c r="G61" s="3">
-        <v>76402800</v>
+        <v>85272100</v>
       </c>
       <c r="H61" s="3">
-        <v>90295300</v>
+        <v>73818600</v>
       </c>
       <c r="I61" s="3">
-        <v>97654700</v>
+        <v>87241200</v>
       </c>
       <c r="J61" s="3">
+        <v>94351700</v>
+      </c>
+      <c r="K61" s="3">
         <v>163166000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>114304000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>185502000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>197673000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1928500</v>
+        <v>2069500</v>
       </c>
       <c r="E62" s="3">
-        <v>2201700</v>
+        <v>1863300</v>
       </c>
       <c r="F62" s="3">
-        <v>2425300</v>
+        <v>2127300</v>
       </c>
       <c r="G62" s="3">
-        <v>3418900</v>
+        <v>2343300</v>
       </c>
       <c r="H62" s="3">
-        <v>3915700</v>
+        <v>3303300</v>
       </c>
       <c r="I62" s="3">
-        <v>2376800</v>
+        <v>3783300</v>
       </c>
       <c r="J62" s="3">
+        <v>2296400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3208900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>624400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5090300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7349200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>996587000</v>
+        <v>978952000</v>
       </c>
       <c r="E66" s="3">
-        <v>946158000</v>
+        <v>962879000</v>
       </c>
       <c r="F66" s="3">
-        <v>944038000</v>
+        <v>914155000</v>
       </c>
       <c r="G66" s="3">
-        <v>898549000</v>
+        <v>912108000</v>
       </c>
       <c r="H66" s="3">
-        <v>897960000</v>
+        <v>868157000</v>
       </c>
       <c r="I66" s="3">
-        <v>1081000000</v>
+        <v>867588000</v>
       </c>
       <c r="J66" s="3">
+        <v>1044440000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1272850000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1235490000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1218060000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1441920000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43385700</v>
+        <v>44434900</v>
       </c>
       <c r="E72" s="3">
-        <v>40480500</v>
+        <v>41918200</v>
       </c>
       <c r="F72" s="3">
-        <v>37485000</v>
+        <v>39111300</v>
       </c>
       <c r="G72" s="3">
-        <v>35596000</v>
+        <v>36217100</v>
       </c>
       <c r="H72" s="3">
-        <v>32904200</v>
+        <v>34392000</v>
       </c>
       <c r="I72" s="3">
-        <v>30287000</v>
+        <v>31791300</v>
       </c>
       <c r="J72" s="3">
+        <v>29262600</v>
+      </c>
+      <c r="K72" s="3">
         <v>27824400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24640500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43774000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46677700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61690600</v>
+        <v>58819700</v>
       </c>
       <c r="E76" s="3">
-        <v>60710600</v>
+        <v>59604000</v>
       </c>
       <c r="F76" s="3">
-        <v>57507300</v>
+        <v>58657100</v>
       </c>
       <c r="G76" s="3">
-        <v>56913400</v>
+        <v>55562200</v>
       </c>
       <c r="H76" s="3">
-        <v>56221300</v>
+        <v>54988400</v>
       </c>
       <c r="I76" s="3">
-        <v>54007100</v>
+        <v>54319700</v>
       </c>
       <c r="J76" s="3">
+        <v>52180400</v>
+      </c>
+      <c r="K76" s="3">
         <v>57972500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52363700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53480300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53792200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2805800</v>
+        <v>5210200</v>
       </c>
       <c r="E81" s="3">
-        <v>5398200</v>
+        <v>2710900</v>
       </c>
       <c r="F81" s="3">
-        <v>5310200</v>
+        <v>5215600</v>
       </c>
       <c r="G81" s="3">
-        <v>5538200</v>
+        <v>5130500</v>
       </c>
       <c r="H81" s="3">
-        <v>5251400</v>
+        <v>5350900</v>
       </c>
       <c r="I81" s="3">
-        <v>4527700</v>
+        <v>5073800</v>
       </c>
       <c r="J81" s="3">
+        <v>4374500</v>
+      </c>
+      <c r="K81" s="3">
         <v>565700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5220200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3265500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4503900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>936000</v>
+        <v>909800</v>
       </c>
       <c r="E83" s="3">
-        <v>890900</v>
+        <v>904400</v>
       </c>
       <c r="F83" s="3">
-        <v>587100</v>
+        <v>860700</v>
       </c>
       <c r="G83" s="3">
-        <v>587100</v>
+        <v>567300</v>
       </c>
       <c r="H83" s="3">
-        <v>605200</v>
+        <v>567300</v>
       </c>
       <c r="I83" s="3">
-        <v>715800</v>
+        <v>584700</v>
       </c>
       <c r="J83" s="3">
+        <v>691600</v>
+      </c>
+      <c r="K83" s="3">
         <v>781300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>915100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>1777100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>114313500</v>
+        <v>-16301500</v>
       </c>
       <c r="E89" s="3">
-        <v>14740400</v>
+        <v>110447000</v>
       </c>
       <c r="F89" s="3">
-        <v>7807700</v>
+        <v>14241800</v>
       </c>
       <c r="G89" s="3">
-        <v>-5931200</v>
+        <v>7543600</v>
       </c>
       <c r="H89" s="3">
-        <v>9657200</v>
+        <v>-5730600</v>
       </c>
       <c r="I89" s="3">
-        <v>11942500</v>
+        <v>9330600</v>
       </c>
       <c r="J89" s="3">
+        <v>11538600</v>
+      </c>
+      <c r="K89" s="3">
         <v>13570700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10069600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10167500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16596500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-324100</v>
+        <v>-200700</v>
       </c>
       <c r="E91" s="3">
-        <v>-400800</v>
+        <v>-313100</v>
       </c>
       <c r="F91" s="3">
-        <v>-322900</v>
+        <v>-387300</v>
       </c>
       <c r="G91" s="3">
-        <v>-343200</v>
+        <v>-312000</v>
       </c>
       <c r="H91" s="3">
-        <v>-468600</v>
+        <v>-331600</v>
       </c>
       <c r="I91" s="3">
-        <v>-440300</v>
+        <v>-452700</v>
       </c>
       <c r="J91" s="3">
+        <v>-425500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-461800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-562200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-464500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1980200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9582700</v>
+        <v>6785500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2817100</v>
+        <v>-9258600</v>
       </c>
       <c r="F94" s="3">
-        <v>6154700</v>
+        <v>-2721800</v>
       </c>
       <c r="G94" s="3">
-        <v>13271400</v>
+        <v>5946600</v>
       </c>
       <c r="H94" s="3">
-        <v>6925900</v>
+        <v>12822600</v>
       </c>
       <c r="I94" s="3">
-        <v>4737700</v>
+        <v>6691600</v>
       </c>
       <c r="J94" s="3">
+        <v>4577500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8376800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11087600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>7634500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,31 +3759,32 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2554900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2992100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2943600</v>
+        <v>-2890900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2895000</v>
+        <v>-2844000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2846500</v>
+        <v>-2797100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1572800</v>
+        <v>-2750200</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1519600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39288200</v>
+        <v>5876700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4690300</v>
+        <v>-37959300</v>
       </c>
       <c r="F100" s="3">
-        <v>18046400</v>
+        <v>-4531600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4457700</v>
+        <v>17436000</v>
       </c>
       <c r="H100" s="3">
-        <v>-21517300</v>
+        <v>-4306900</v>
       </c>
       <c r="I100" s="3">
-        <v>-12606400</v>
+        <v>-20789500</v>
       </c>
       <c r="J100" s="3">
+        <v>-12180000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5265000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10410500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-8135700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-479900</v>
+        <v>-616400</v>
       </c>
       <c r="E101" s="3">
-        <v>107300</v>
+        <v>-463600</v>
       </c>
       <c r="F101" s="3">
-        <v>230300</v>
+        <v>103600</v>
       </c>
       <c r="G101" s="3">
-        <v>293600</v>
+        <v>222500</v>
       </c>
       <c r="H101" s="3">
-        <v>175000</v>
+        <v>283600</v>
       </c>
       <c r="I101" s="3">
-        <v>-386200</v>
+        <v>169100</v>
       </c>
       <c r="J101" s="3">
+        <v>-373100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1055000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-234800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64962800</v>
+        <v>-4255600</v>
       </c>
       <c r="E102" s="3">
-        <v>7340300</v>
+        <v>62765500</v>
       </c>
       <c r="F102" s="3">
-        <v>32239200</v>
+        <v>7092000</v>
       </c>
       <c r="G102" s="3">
-        <v>3176200</v>
+        <v>31148800</v>
       </c>
       <c r="H102" s="3">
-        <v>-4759200</v>
+        <v>3068700</v>
       </c>
       <c r="I102" s="3">
-        <v>3687600</v>
+        <v>-4598200</v>
       </c>
       <c r="J102" s="3">
+        <v>3562900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-75600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8337500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11122700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15860500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -725,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23033500</v>
+        <v>21914200</v>
       </c>
       <c r="E8" s="3">
-        <v>24761500</v>
+        <v>23558300</v>
       </c>
       <c r="F8" s="3">
-        <v>31040800</v>
+        <v>29532400</v>
       </c>
       <c r="G8" s="3">
-        <v>30706900</v>
+        <v>29214800</v>
       </c>
       <c r="H8" s="3">
-        <v>48069900</v>
+        <v>45734000</v>
       </c>
       <c r="I8" s="3">
-        <v>48198600</v>
+        <v>45856500</v>
       </c>
       <c r="J8" s="3">
-        <v>50532000</v>
+        <v>48076600</v>
       </c>
       <c r="K8" s="3">
         <v>54387600</v>
@@ -976,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-909800</v>
+        <v>-865600</v>
       </c>
       <c r="E15" s="3">
-        <v>-904400</v>
+        <v>-860400</v>
       </c>
       <c r="F15" s="3">
-        <v>-859600</v>
+        <v>-817900</v>
       </c>
       <c r="G15" s="3">
-        <v>-790900</v>
+        <v>-752500</v>
       </c>
       <c r="H15" s="3">
-        <v>-756000</v>
+        <v>-719300</v>
       </c>
       <c r="I15" s="3">
-        <v>-584700</v>
+        <v>-556300</v>
       </c>
       <c r="J15" s="3">
-        <v>-670900</v>
+        <v>-638300</v>
       </c>
       <c r="K15" s="3">
         <v>-650400</v>
@@ -1029,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8743600</v>
+        <v>8318800</v>
       </c>
       <c r="E17" s="3">
-        <v>12838900</v>
+        <v>12215000</v>
       </c>
       <c r="F17" s="3">
-        <v>18018600</v>
+        <v>17143000</v>
       </c>
       <c r="G17" s="3">
-        <v>16241500</v>
+        <v>15452300</v>
       </c>
       <c r="H17" s="3">
-        <v>33846600</v>
+        <v>32201900</v>
       </c>
       <c r="I17" s="3">
-        <v>34816400</v>
+        <v>33124600</v>
       </c>
       <c r="J17" s="3">
-        <v>38298600</v>
+        <v>36437600</v>
       </c>
       <c r="K17" s="3">
         <v>42295000</v>
@@ -1068,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14289800</v>
+        <v>13595500</v>
       </c>
       <c r="E18" s="3">
-        <v>11922600</v>
+        <v>11343200</v>
       </c>
       <c r="F18" s="3">
-        <v>13022200</v>
+        <v>12389400</v>
       </c>
       <c r="G18" s="3">
-        <v>14465500</v>
+        <v>13762600</v>
       </c>
       <c r="H18" s="3">
-        <v>14223300</v>
+        <v>13532100</v>
       </c>
       <c r="I18" s="3">
-        <v>13382200</v>
+        <v>12731900</v>
       </c>
       <c r="J18" s="3">
-        <v>12233500</v>
+        <v>11639000</v>
       </c>
       <c r="K18" s="3">
         <v>12092700</v>
@@ -1124,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6891300</v>
+        <v>-6556400</v>
       </c>
       <c r="E20" s="3">
-        <v>-7767300</v>
+        <v>-7389800</v>
       </c>
       <c r="F20" s="3">
-        <v>-5566900</v>
+        <v>-5296400</v>
       </c>
       <c r="G20" s="3">
-        <v>-7005800</v>
+        <v>-6665400</v>
       </c>
       <c r="H20" s="3">
-        <v>-6294600</v>
+        <v>-5988700</v>
       </c>
       <c r="I20" s="3">
-        <v>-6942600</v>
+        <v>-6605200</v>
       </c>
       <c r="J20" s="3">
-        <v>-5500400</v>
+        <v>-5233100</v>
       </c>
       <c r="K20" s="3">
         <v>-7907100</v>
@@ -1163,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8322200</v>
+        <v>7915700</v>
       </c>
       <c r="E21" s="3">
-        <v>5073400</v>
+        <v>4824700</v>
       </c>
       <c r="F21" s="3">
-        <v>8329100</v>
+        <v>7922300</v>
       </c>
       <c r="G21" s="3">
-        <v>8035500</v>
+        <v>7643700</v>
       </c>
       <c r="H21" s="3">
-        <v>8504600</v>
+        <v>8090000</v>
       </c>
       <c r="I21" s="3">
-        <v>7033300</v>
+        <v>6690100</v>
       </c>
       <c r="J21" s="3">
-        <v>7435300</v>
+        <v>7072300</v>
       </c>
       <c r="K21" s="3">
         <v>4968700</v>
@@ -1241,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7398600</v>
+        <v>7039000</v>
       </c>
       <c r="E23" s="3">
-        <v>4155300</v>
+        <v>3953400</v>
       </c>
       <c r="F23" s="3">
-        <v>7455300</v>
+        <v>7093000</v>
       </c>
       <c r="G23" s="3">
-        <v>7459600</v>
+        <v>7097200</v>
       </c>
       <c r="H23" s="3">
-        <v>7928700</v>
+        <v>7543500</v>
       </c>
       <c r="I23" s="3">
-        <v>6439600</v>
+        <v>6126700</v>
       </c>
       <c r="J23" s="3">
-        <v>6733100</v>
+        <v>6405900</v>
       </c>
       <c r="K23" s="3">
         <v>4185600</v>
@@ -1280,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2047600</v>
+        <v>1948100</v>
       </c>
       <c r="E24" s="3">
-        <v>1359300</v>
+        <v>1293200</v>
       </c>
       <c r="F24" s="3">
-        <v>2132700</v>
+        <v>2029100</v>
       </c>
       <c r="G24" s="3">
-        <v>2211300</v>
+        <v>2103800</v>
       </c>
       <c r="H24" s="3">
-        <v>2488400</v>
+        <v>2367400</v>
       </c>
       <c r="I24" s="3">
-        <v>1765100</v>
+        <v>1679300</v>
       </c>
       <c r="J24" s="3">
-        <v>1785800</v>
+        <v>1699000</v>
       </c>
       <c r="K24" s="3">
         <v>1096400</v>
@@ -1358,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5350900</v>
+        <v>5090900</v>
       </c>
       <c r="E26" s="3">
-        <v>2796000</v>
+        <v>2660100</v>
       </c>
       <c r="F26" s="3">
-        <v>5322500</v>
+        <v>5063900</v>
       </c>
       <c r="G26" s="3">
-        <v>5248400</v>
+        <v>4993300</v>
       </c>
       <c r="H26" s="3">
-        <v>5440400</v>
+        <v>5176000</v>
       </c>
       <c r="I26" s="3">
-        <v>4674500</v>
+        <v>4447400</v>
       </c>
       <c r="J26" s="3">
-        <v>4947300</v>
+        <v>4706900</v>
       </c>
       <c r="K26" s="3">
         <v>3089200</v>
@@ -1397,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5210200</v>
+        <v>4957000</v>
       </c>
       <c r="E27" s="3">
-        <v>2710900</v>
+        <v>2579200</v>
       </c>
       <c r="F27" s="3">
-        <v>5215600</v>
+        <v>4962200</v>
       </c>
       <c r="G27" s="3">
-        <v>5130500</v>
+        <v>4881200</v>
       </c>
       <c r="H27" s="3">
-        <v>5350900</v>
+        <v>5090900</v>
       </c>
       <c r="I27" s="3">
-        <v>4592700</v>
+        <v>4369600</v>
       </c>
       <c r="J27" s="3">
-        <v>4872000</v>
+        <v>4635300</v>
       </c>
       <c r="K27" s="3">
         <v>2153200</v>
@@ -1490,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>481100</v>
+        <v>457700</v>
       </c>
       <c r="J29" s="3">
-        <v>-497500</v>
+        <v>-473300</v>
       </c>
       <c r="K29" s="3">
         <v>-1587500</v>
@@ -1592,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6891300</v>
+        <v>6556400</v>
       </c>
       <c r="E32" s="3">
-        <v>7767300</v>
+        <v>7389800</v>
       </c>
       <c r="F32" s="3">
-        <v>5566900</v>
+        <v>5296400</v>
       </c>
       <c r="G32" s="3">
-        <v>7005800</v>
+        <v>6665400</v>
       </c>
       <c r="H32" s="3">
-        <v>6294600</v>
+        <v>5988700</v>
       </c>
       <c r="I32" s="3">
-        <v>6942600</v>
+        <v>6605200</v>
       </c>
       <c r="J32" s="3">
-        <v>5500400</v>
+        <v>5233100</v>
       </c>
       <c r="K32" s="3">
         <v>7907100</v>
@@ -1631,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5210200</v>
+        <v>4957000</v>
       </c>
       <c r="E33" s="3">
-        <v>2710900</v>
+        <v>2579200</v>
       </c>
       <c r="F33" s="3">
-        <v>5215600</v>
+        <v>4962200</v>
       </c>
       <c r="G33" s="3">
-        <v>5130500</v>
+        <v>4881200</v>
       </c>
       <c r="H33" s="3">
-        <v>5350900</v>
+        <v>5090900</v>
       </c>
       <c r="I33" s="3">
-        <v>5073800</v>
+        <v>4827300</v>
       </c>
       <c r="J33" s="3">
-        <v>4374500</v>
+        <v>4162000</v>
       </c>
       <c r="K33" s="3">
         <v>565700</v>
@@ -1709,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5210200</v>
+        <v>4957000</v>
       </c>
       <c r="E35" s="3">
-        <v>2710900</v>
+        <v>2579200</v>
       </c>
       <c r="F35" s="3">
-        <v>5215600</v>
+        <v>4962200</v>
       </c>
       <c r="G35" s="3">
-        <v>5130500</v>
+        <v>4881200</v>
       </c>
       <c r="H35" s="3">
-        <v>5350900</v>
+        <v>5090900</v>
       </c>
       <c r="I35" s="3">
-        <v>5073800</v>
+        <v>4827300</v>
       </c>
       <c r="J35" s="3">
-        <v>4374500</v>
+        <v>4162000</v>
       </c>
       <c r="K35" s="3">
         <v>565700</v>
@@ -1826,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141941000</v>
+        <v>135043000</v>
       </c>
       <c r="E41" s="3">
-        <v>148856000</v>
+        <v>141623000</v>
       </c>
       <c r="F41" s="3">
-        <v>96368800</v>
+        <v>91686000</v>
       </c>
       <c r="G41" s="3">
-        <v>87719000</v>
+        <v>83456500</v>
       </c>
       <c r="H41" s="3">
-        <v>55418200</v>
+        <v>52725300</v>
       </c>
       <c r="I41" s="3">
-        <v>51275000</v>
+        <v>48783400</v>
       </c>
       <c r="J41" s="3">
-        <v>112246000</v>
+        <v>106792000</v>
       </c>
       <c r="K41" s="3">
         <v>111447000</v>
@@ -1865,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112139000</v>
+        <v>106690000</v>
       </c>
       <c r="E42" s="3">
-        <v>113919000</v>
+        <v>108384000</v>
       </c>
       <c r="F42" s="3">
-        <v>104931000</v>
+        <v>99832500</v>
       </c>
       <c r="G42" s="3">
-        <v>131439000</v>
+        <v>125052000</v>
       </c>
       <c r="H42" s="3">
-        <v>134423000</v>
+        <v>127891000</v>
       </c>
       <c r="I42" s="3">
-        <v>133193000</v>
+        <v>126720000</v>
       </c>
       <c r="J42" s="3">
-        <v>150598000</v>
+        <v>143280000</v>
       </c>
       <c r="K42" s="3">
         <v>162702000</v>
@@ -2060,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1731300</v>
+        <v>1647100</v>
       </c>
       <c r="E47" s="3">
-        <v>1609100</v>
+        <v>1530900</v>
       </c>
       <c r="F47" s="3">
-        <v>1952700</v>
+        <v>1857800</v>
       </c>
       <c r="G47" s="3">
-        <v>1312400</v>
+        <v>1248600</v>
       </c>
       <c r="H47" s="3">
-        <v>1186900</v>
+        <v>1129200</v>
       </c>
       <c r="I47" s="3">
-        <v>1244700</v>
+        <v>1184200</v>
       </c>
       <c r="J47" s="3">
-        <v>1049500</v>
+        <v>998500</v>
       </c>
       <c r="K47" s="3">
         <v>1076000</v>
@@ -2099,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2772000</v>
+        <v>2637300</v>
       </c>
       <c r="E48" s="3">
-        <v>3121100</v>
+        <v>2969400</v>
       </c>
       <c r="F48" s="3">
-        <v>3510500</v>
+        <v>3340000</v>
       </c>
       <c r="G48" s="3">
-        <v>1868700</v>
+        <v>1777900</v>
       </c>
       <c r="H48" s="3">
-        <v>2035600</v>
+        <v>1936700</v>
       </c>
       <c r="I48" s="3">
-        <v>2184000</v>
+        <v>2077900</v>
       </c>
       <c r="J48" s="3">
-        <v>4506500</v>
+        <v>4287600</v>
       </c>
       <c r="K48" s="3">
         <v>4832500</v>
@@ -2138,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1261100</v>
+        <v>1199800</v>
       </c>
       <c r="E49" s="3">
-        <v>1520700</v>
+        <v>1446800</v>
       </c>
       <c r="F49" s="3">
-        <v>2090200</v>
+        <v>1988600</v>
       </c>
       <c r="G49" s="3">
-        <v>2006200</v>
+        <v>1908700</v>
       </c>
       <c r="H49" s="3">
-        <v>1602500</v>
+        <v>1524700</v>
       </c>
       <c r="I49" s="3">
-        <v>1618900</v>
+        <v>1540200</v>
       </c>
       <c r="J49" s="3">
-        <v>2800400</v>
+        <v>2664300</v>
       </c>
       <c r="K49" s="3">
         <v>5520200</v>
@@ -2255,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1898200</v>
+        <v>1805900</v>
       </c>
       <c r="E52" s="3">
-        <v>1634200</v>
+        <v>1554800</v>
       </c>
       <c r="F52" s="3">
-        <v>1569800</v>
+        <v>1493500</v>
       </c>
       <c r="G52" s="3">
-        <v>2869100</v>
+        <v>2729700</v>
       </c>
       <c r="H52" s="3">
-        <v>1483600</v>
+        <v>1411500</v>
       </c>
       <c r="I52" s="3">
-        <v>1006900</v>
+        <v>958000</v>
       </c>
       <c r="J52" s="3">
-        <v>3938200</v>
+        <v>3746800</v>
       </c>
       <c r="K52" s="3">
         <v>188860000</v>
@@ -2333,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1037770000</v>
+        <v>987344000</v>
       </c>
       <c r="E54" s="3">
-        <v>1022480000</v>
+        <v>972798000</v>
       </c>
       <c r="F54" s="3">
-        <v>972812000</v>
+        <v>925541000</v>
       </c>
       <c r="G54" s="3">
-        <v>967670000</v>
+        <v>920648000</v>
       </c>
       <c r="H54" s="3">
-        <v>923146000</v>
+        <v>878288000</v>
       </c>
       <c r="I54" s="3">
-        <v>921907000</v>
+        <v>877110000</v>
       </c>
       <c r="J54" s="3">
-        <v>1096620000</v>
+        <v>1043330000</v>
       </c>
       <c r="K54" s="3">
         <v>1330820000</v>
@@ -2406,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2220000</v>
+        <v>2112100</v>
       </c>
       <c r="E57" s="3">
-        <v>2217800</v>
+        <v>2110100</v>
       </c>
       <c r="F57" s="3">
-        <v>2312700</v>
+        <v>2200300</v>
       </c>
       <c r="G57" s="3">
-        <v>2545100</v>
+        <v>2421400</v>
       </c>
       <c r="H57" s="3">
-        <v>6769100</v>
+        <v>6440200</v>
       </c>
       <c r="I57" s="3">
-        <v>4793500</v>
+        <v>4560500</v>
       </c>
       <c r="J57" s="3">
-        <v>5624700</v>
+        <v>5351400</v>
       </c>
       <c r="K57" s="3">
         <v>6483300</v>
@@ -2445,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41634600</v>
+        <v>39611500</v>
       </c>
       <c r="E58" s="3">
-        <v>29715300</v>
+        <v>28271400</v>
       </c>
       <c r="F58" s="3">
-        <v>56519000</v>
+        <v>53772600</v>
       </c>
       <c r="G58" s="3">
-        <v>60337100</v>
+        <v>57405200</v>
       </c>
       <c r="H58" s="3">
-        <v>48422200</v>
+        <v>46069300</v>
       </c>
       <c r="I58" s="3">
-        <v>44166600</v>
+        <v>42020400</v>
       </c>
       <c r="J58" s="3">
-        <v>55866600</v>
+        <v>53151900</v>
       </c>
       <c r="K58" s="3">
         <v>61522400</v>
@@ -2484,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1409500</v>
+        <v>1341000</v>
       </c>
       <c r="E59" s="3">
-        <v>1382200</v>
+        <v>1315000</v>
       </c>
       <c r="F59" s="3">
-        <v>1660400</v>
+        <v>1579700</v>
       </c>
       <c r="G59" s="3">
-        <v>1852400</v>
+        <v>1762400</v>
       </c>
       <c r="H59" s="3">
-        <v>1890500</v>
+        <v>1798700</v>
       </c>
       <c r="I59" s="3">
-        <v>1135600</v>
+        <v>1080500</v>
       </c>
       <c r="J59" s="3">
-        <v>1260000</v>
+        <v>1198800</v>
       </c>
       <c r="K59" s="3">
         <v>1167500</v>
@@ -2562,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78059000</v>
+        <v>74265900</v>
       </c>
       <c r="E61" s="3">
-        <v>78512800</v>
+        <v>74697700</v>
       </c>
       <c r="F61" s="3">
-        <v>92524400</v>
+        <v>88028500</v>
       </c>
       <c r="G61" s="3">
-        <v>85272100</v>
+        <v>81128500</v>
       </c>
       <c r="H61" s="3">
-        <v>73818600</v>
+        <v>70231600</v>
       </c>
       <c r="I61" s="3">
-        <v>87241200</v>
+        <v>83001900</v>
       </c>
       <c r="J61" s="3">
-        <v>94351700</v>
+        <v>89766900</v>
       </c>
       <c r="K61" s="3">
         <v>163166000</v>
@@ -2601,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2069500</v>
+        <v>1968900</v>
       </c>
       <c r="E62" s="3">
-        <v>1863300</v>
+        <v>1772700</v>
       </c>
       <c r="F62" s="3">
-        <v>2127300</v>
+        <v>2023900</v>
       </c>
       <c r="G62" s="3">
-        <v>2343300</v>
+        <v>2229400</v>
       </c>
       <c r="H62" s="3">
-        <v>3303300</v>
+        <v>3142800</v>
       </c>
       <c r="I62" s="3">
-        <v>3783300</v>
+        <v>3599400</v>
       </c>
       <c r="J62" s="3">
-        <v>2296400</v>
+        <v>2184800</v>
       </c>
       <c r="K62" s="3">
         <v>3208900</v>
@@ -2757,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>978952000</v>
+        <v>931382000</v>
       </c>
       <c r="E66" s="3">
-        <v>962879000</v>
+        <v>916090000</v>
       </c>
       <c r="F66" s="3">
-        <v>914155000</v>
+        <v>869734000</v>
       </c>
       <c r="G66" s="3">
-        <v>912108000</v>
+        <v>867786000</v>
       </c>
       <c r="H66" s="3">
-        <v>868157000</v>
+        <v>825971000</v>
       </c>
       <c r="I66" s="3">
-        <v>867588000</v>
+        <v>825429000</v>
       </c>
       <c r="J66" s="3">
-        <v>1044440000</v>
+        <v>993687000</v>
       </c>
       <c r="K66" s="3">
         <v>1272850000</v>
@@ -2969,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44434900</v>
+        <v>42275700</v>
       </c>
       <c r="E72" s="3">
-        <v>41918200</v>
+        <v>39881300</v>
       </c>
       <c r="F72" s="3">
-        <v>39111300</v>
+        <v>37210800</v>
       </c>
       <c r="G72" s="3">
-        <v>36217100</v>
+        <v>34457200</v>
       </c>
       <c r="H72" s="3">
-        <v>34392000</v>
+        <v>32720800</v>
       </c>
       <c r="I72" s="3">
-        <v>31791300</v>
+        <v>30246500</v>
       </c>
       <c r="J72" s="3">
-        <v>29262600</v>
+        <v>27840600</v>
       </c>
       <c r="K72" s="3">
         <v>27824400</v>
@@ -3125,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58819700</v>
+        <v>55961500</v>
       </c>
       <c r="E76" s="3">
-        <v>59604000</v>
+        <v>56707700</v>
       </c>
       <c r="F76" s="3">
-        <v>58657100</v>
+        <v>55806800</v>
       </c>
       <c r="G76" s="3">
-        <v>55562200</v>
+        <v>52862300</v>
       </c>
       <c r="H76" s="3">
-        <v>54988400</v>
+        <v>52316400</v>
       </c>
       <c r="I76" s="3">
-        <v>54319700</v>
+        <v>51680200</v>
       </c>
       <c r="J76" s="3">
-        <v>52180400</v>
+        <v>49644800</v>
       </c>
       <c r="K76" s="3">
         <v>57972500</v>
@@ -3247,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5210200</v>
+        <v>4957000</v>
       </c>
       <c r="E81" s="3">
-        <v>2710900</v>
+        <v>2579200</v>
       </c>
       <c r="F81" s="3">
-        <v>5215600</v>
+        <v>4962200</v>
       </c>
       <c r="G81" s="3">
-        <v>5130500</v>
+        <v>4881200</v>
       </c>
       <c r="H81" s="3">
-        <v>5350900</v>
+        <v>5090900</v>
       </c>
       <c r="I81" s="3">
-        <v>5073800</v>
+        <v>4827300</v>
       </c>
       <c r="J81" s="3">
-        <v>4374500</v>
+        <v>4162000</v>
       </c>
       <c r="K81" s="3">
         <v>565700</v>
@@ -3303,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>909800</v>
+        <v>865600</v>
       </c>
       <c r="E83" s="3">
-        <v>904400</v>
+        <v>860400</v>
       </c>
       <c r="F83" s="3">
-        <v>860700</v>
+        <v>818900</v>
       </c>
       <c r="G83" s="3">
-        <v>567300</v>
+        <v>539700</v>
       </c>
       <c r="H83" s="3">
-        <v>567300</v>
+        <v>539700</v>
       </c>
       <c r="I83" s="3">
-        <v>584700</v>
+        <v>556300</v>
       </c>
       <c r="J83" s="3">
-        <v>691600</v>
+        <v>658000</v>
       </c>
       <c r="K83" s="3">
         <v>781300</v>
@@ -3537,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16301500</v>
+        <v>-15509300</v>
       </c>
       <c r="E89" s="3">
-        <v>110447000</v>
+        <v>105080100</v>
       </c>
       <c r="F89" s="3">
-        <v>14241800</v>
+        <v>13549800</v>
       </c>
       <c r="G89" s="3">
-        <v>7543600</v>
+        <v>7177100</v>
       </c>
       <c r="H89" s="3">
-        <v>-5730600</v>
+        <v>-5452100</v>
       </c>
       <c r="I89" s="3">
-        <v>9330600</v>
+        <v>8877200</v>
       </c>
       <c r="J89" s="3">
-        <v>11538600</v>
+        <v>10977900</v>
       </c>
       <c r="K89" s="3">
         <v>13570700</v>
@@ -3593,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200700</v>
+        <v>-191000</v>
       </c>
       <c r="E91" s="3">
-        <v>-313100</v>
+        <v>-297900</v>
       </c>
       <c r="F91" s="3">
-        <v>-387300</v>
+        <v>-368500</v>
       </c>
       <c r="G91" s="3">
-        <v>-312000</v>
+        <v>-296800</v>
       </c>
       <c r="H91" s="3">
-        <v>-331600</v>
+        <v>-315500</v>
       </c>
       <c r="I91" s="3">
-        <v>-452700</v>
+        <v>-430700</v>
       </c>
       <c r="J91" s="3">
-        <v>-425500</v>
+        <v>-404800</v>
       </c>
       <c r="K91" s="3">
         <v>-461800</v>
@@ -3710,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6785500</v>
+        <v>6455700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9258600</v>
+        <v>-8808700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2721800</v>
+        <v>-2589600</v>
       </c>
       <c r="G94" s="3">
-        <v>5946600</v>
+        <v>5657600</v>
       </c>
       <c r="H94" s="3">
-        <v>12822600</v>
+        <v>12199500</v>
       </c>
       <c r="I94" s="3">
-        <v>6691600</v>
+        <v>6366500</v>
       </c>
       <c r="J94" s="3">
-        <v>4577500</v>
+        <v>4355000</v>
       </c>
       <c r="K94" s="3">
         <v>-8376800</v>
@@ -3766,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2554900</v>
+        <v>-2430800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2890900</v>
+        <v>-2750400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2844000</v>
+        <v>-2705800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2797100</v>
+        <v>-2661200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2750200</v>
+        <v>-2616500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1519600</v>
+        <v>-1445800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3922,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5876700</v>
+        <v>5591200</v>
       </c>
       <c r="E100" s="3">
-        <v>-37959300</v>
+        <v>-36114800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4531600</v>
+        <v>-4311400</v>
       </c>
       <c r="G100" s="3">
-        <v>17436000</v>
+        <v>16588800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4306900</v>
+        <v>-4097600</v>
       </c>
       <c r="I100" s="3">
-        <v>-20789500</v>
+        <v>-19779300</v>
       </c>
       <c r="J100" s="3">
-        <v>-12180000</v>
+        <v>-11588200</v>
       </c>
       <c r="K100" s="3">
         <v>-5265000</v>
@@ -3961,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-616400</v>
+        <v>-586400</v>
       </c>
       <c r="E101" s="3">
-        <v>-463600</v>
+        <v>-441100</v>
       </c>
       <c r="F101" s="3">
-        <v>103600</v>
+        <v>98600</v>
       </c>
       <c r="G101" s="3">
-        <v>222500</v>
+        <v>211700</v>
       </c>
       <c r="H101" s="3">
-        <v>283600</v>
+        <v>269900</v>
       </c>
       <c r="I101" s="3">
-        <v>169100</v>
+        <v>160900</v>
       </c>
       <c r="J101" s="3">
-        <v>-373100</v>
+        <v>-355000</v>
       </c>
       <c r="K101" s="3">
         <v>-4500</v>
@@ -4000,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4255600</v>
+        <v>-4048800</v>
       </c>
       <c r="E102" s="3">
-        <v>62765500</v>
+        <v>59715600</v>
       </c>
       <c r="F102" s="3">
-        <v>7092000</v>
+        <v>6747400</v>
       </c>
       <c r="G102" s="3">
-        <v>31148800</v>
+        <v>29635200</v>
       </c>
       <c r="H102" s="3">
-        <v>3068700</v>
+        <v>2919600</v>
       </c>
       <c r="I102" s="3">
-        <v>-4598200</v>
+        <v>-4374700</v>
       </c>
       <c r="J102" s="3">
-        <v>3562900</v>
+        <v>3389800</v>
       </c>
       <c r="K102" s="3">
         <v>-75600</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21914200</v>
+        <v>21059100</v>
       </c>
       <c r="E8" s="3">
-        <v>23558300</v>
+        <v>22639000</v>
       </c>
       <c r="F8" s="3">
-        <v>29532400</v>
+        <v>28380000</v>
       </c>
       <c r="G8" s="3">
-        <v>29214800</v>
+        <v>28074800</v>
       </c>
       <c r="H8" s="3">
-        <v>45734000</v>
+        <v>43949400</v>
       </c>
       <c r="I8" s="3">
-        <v>45856500</v>
+        <v>44067100</v>
       </c>
       <c r="J8" s="3">
-        <v>48076600</v>
+        <v>46200600</v>
       </c>
       <c r="K8" s="3">
         <v>54387600</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-865600</v>
+        <v>-831800</v>
       </c>
       <c r="E15" s="3">
-        <v>-860400</v>
+        <v>-826800</v>
       </c>
       <c r="F15" s="3">
-        <v>-817900</v>
+        <v>-786000</v>
       </c>
       <c r="G15" s="3">
-        <v>-752500</v>
+        <v>-723100</v>
       </c>
       <c r="H15" s="3">
-        <v>-719300</v>
+        <v>-691200</v>
       </c>
       <c r="I15" s="3">
-        <v>-556300</v>
+        <v>-534600</v>
       </c>
       <c r="J15" s="3">
-        <v>-638300</v>
+        <v>-613400</v>
       </c>
       <c r="K15" s="3">
         <v>-650400</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8318800</v>
+        <v>7994200</v>
       </c>
       <c r="E17" s="3">
-        <v>12215000</v>
+        <v>11738400</v>
       </c>
       <c r="F17" s="3">
-        <v>17143000</v>
+        <v>16474100</v>
       </c>
       <c r="G17" s="3">
-        <v>15452300</v>
+        <v>14849300</v>
       </c>
       <c r="H17" s="3">
-        <v>32201900</v>
+        <v>30945300</v>
       </c>
       <c r="I17" s="3">
-        <v>33124600</v>
+        <v>31832000</v>
       </c>
       <c r="J17" s="3">
-        <v>36437600</v>
+        <v>35015700</v>
       </c>
       <c r="K17" s="3">
         <v>42295000</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13595500</v>
+        <v>13064900</v>
       </c>
       <c r="E18" s="3">
-        <v>11343200</v>
+        <v>10900600</v>
       </c>
       <c r="F18" s="3">
-        <v>12389400</v>
+        <v>11906000</v>
       </c>
       <c r="G18" s="3">
-        <v>13762600</v>
+        <v>13225500</v>
       </c>
       <c r="H18" s="3">
-        <v>13532100</v>
+        <v>13004100</v>
       </c>
       <c r="I18" s="3">
-        <v>12731900</v>
+        <v>12235100</v>
       </c>
       <c r="J18" s="3">
-        <v>11639000</v>
+        <v>11184800</v>
       </c>
       <c r="K18" s="3">
         <v>12092700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6556400</v>
+        <v>-6300600</v>
       </c>
       <c r="E20" s="3">
-        <v>-7389800</v>
+        <v>-7101500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5296400</v>
+        <v>-5089700</v>
       </c>
       <c r="G20" s="3">
-        <v>-6665400</v>
+        <v>-6405300</v>
       </c>
       <c r="H20" s="3">
-        <v>-5988700</v>
+        <v>-5755000</v>
       </c>
       <c r="I20" s="3">
-        <v>-6605200</v>
+        <v>-6347500</v>
       </c>
       <c r="J20" s="3">
-        <v>-5233100</v>
+        <v>-5028900</v>
       </c>
       <c r="K20" s="3">
         <v>-7907100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7915700</v>
+        <v>7595400</v>
       </c>
       <c r="E21" s="3">
-        <v>4824700</v>
+        <v>4625200</v>
       </c>
       <c r="F21" s="3">
-        <v>7922300</v>
+        <v>7602500</v>
       </c>
       <c r="G21" s="3">
-        <v>7643700</v>
+        <v>7338400</v>
       </c>
       <c r="H21" s="3">
-        <v>8090000</v>
+        <v>7767300</v>
       </c>
       <c r="I21" s="3">
-        <v>6690100</v>
+        <v>6421800</v>
       </c>
       <c r="J21" s="3">
-        <v>7072300</v>
+        <v>6787700</v>
       </c>
       <c r="K21" s="3">
         <v>4968700</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7039000</v>
+        <v>6764400</v>
       </c>
       <c r="E23" s="3">
-        <v>3953400</v>
+        <v>3799100</v>
       </c>
       <c r="F23" s="3">
-        <v>7093000</v>
+        <v>6816200</v>
       </c>
       <c r="G23" s="3">
-        <v>7097200</v>
+        <v>6820200</v>
       </c>
       <c r="H23" s="3">
-        <v>7543500</v>
+        <v>7249100</v>
       </c>
       <c r="I23" s="3">
-        <v>6126700</v>
+        <v>5887700</v>
       </c>
       <c r="J23" s="3">
-        <v>6405900</v>
+        <v>6156000</v>
       </c>
       <c r="K23" s="3">
         <v>4185600</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1948100</v>
+        <v>1872100</v>
       </c>
       <c r="E24" s="3">
-        <v>1293200</v>
+        <v>1242800</v>
       </c>
       <c r="F24" s="3">
-        <v>2029100</v>
+        <v>1949900</v>
       </c>
       <c r="G24" s="3">
-        <v>2103800</v>
+        <v>2021700</v>
       </c>
       <c r="H24" s="3">
-        <v>2367400</v>
+        <v>2275100</v>
       </c>
       <c r="I24" s="3">
-        <v>1679300</v>
+        <v>1613800</v>
       </c>
       <c r="J24" s="3">
-        <v>1699000</v>
+        <v>1632700</v>
       </c>
       <c r="K24" s="3">
         <v>1096400</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5090900</v>
+        <v>4892200</v>
       </c>
       <c r="E26" s="3">
-        <v>2660100</v>
+        <v>2556300</v>
       </c>
       <c r="F26" s="3">
-        <v>5063900</v>
+        <v>4866300</v>
       </c>
       <c r="G26" s="3">
-        <v>4993300</v>
+        <v>4798500</v>
       </c>
       <c r="H26" s="3">
-        <v>5176000</v>
+        <v>4974000</v>
       </c>
       <c r="I26" s="3">
-        <v>4447400</v>
+        <v>4273900</v>
       </c>
       <c r="J26" s="3">
-        <v>4706900</v>
+        <v>4523200</v>
       </c>
       <c r="K26" s="3">
         <v>3089200</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4957000</v>
+        <v>4763600</v>
       </c>
       <c r="E27" s="3">
-        <v>2579200</v>
+        <v>2478500</v>
       </c>
       <c r="F27" s="3">
-        <v>4962200</v>
+        <v>4768600</v>
       </c>
       <c r="G27" s="3">
-        <v>4881200</v>
+        <v>4690800</v>
       </c>
       <c r="H27" s="3">
-        <v>5090900</v>
+        <v>4892200</v>
       </c>
       <c r="I27" s="3">
-        <v>4369600</v>
+        <v>4199100</v>
       </c>
       <c r="J27" s="3">
-        <v>4635300</v>
+        <v>4454400</v>
       </c>
       <c r="K27" s="3">
         <v>2153200</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>457700</v>
+        <v>439900</v>
       </c>
       <c r="J29" s="3">
-        <v>-473300</v>
+        <v>-454800</v>
       </c>
       <c r="K29" s="3">
         <v>-1587500</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6556400</v>
+        <v>6300600</v>
       </c>
       <c r="E32" s="3">
-        <v>7389800</v>
+        <v>7101500</v>
       </c>
       <c r="F32" s="3">
-        <v>5296400</v>
+        <v>5089700</v>
       </c>
       <c r="G32" s="3">
-        <v>6665400</v>
+        <v>6405300</v>
       </c>
       <c r="H32" s="3">
-        <v>5988700</v>
+        <v>5755000</v>
       </c>
       <c r="I32" s="3">
-        <v>6605200</v>
+        <v>6347500</v>
       </c>
       <c r="J32" s="3">
-        <v>5233100</v>
+        <v>5028900</v>
       </c>
       <c r="K32" s="3">
         <v>7907100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4957000</v>
+        <v>4763600</v>
       </c>
       <c r="E33" s="3">
-        <v>2579200</v>
+        <v>2478500</v>
       </c>
       <c r="F33" s="3">
-        <v>4962200</v>
+        <v>4768600</v>
       </c>
       <c r="G33" s="3">
-        <v>4881200</v>
+        <v>4690800</v>
       </c>
       <c r="H33" s="3">
-        <v>5090900</v>
+        <v>4892200</v>
       </c>
       <c r="I33" s="3">
-        <v>4827300</v>
+        <v>4638900</v>
       </c>
       <c r="J33" s="3">
-        <v>4162000</v>
+        <v>3999600</v>
       </c>
       <c r="K33" s="3">
         <v>565700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4957000</v>
+        <v>4763600</v>
       </c>
       <c r="E35" s="3">
-        <v>2579200</v>
+        <v>2478500</v>
       </c>
       <c r="F35" s="3">
-        <v>4962200</v>
+        <v>4768600</v>
       </c>
       <c r="G35" s="3">
-        <v>4881200</v>
+        <v>4690800</v>
       </c>
       <c r="H35" s="3">
-        <v>5090900</v>
+        <v>4892200</v>
       </c>
       <c r="I35" s="3">
-        <v>4827300</v>
+        <v>4638900</v>
       </c>
       <c r="J35" s="3">
-        <v>4162000</v>
+        <v>3999600</v>
       </c>
       <c r="K35" s="3">
         <v>565700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>135043000</v>
+        <v>129774000</v>
       </c>
       <c r="E41" s="3">
-        <v>141623000</v>
+        <v>136096000</v>
       </c>
       <c r="F41" s="3">
-        <v>91686000</v>
+        <v>88108300</v>
       </c>
       <c r="G41" s="3">
-        <v>83456500</v>
+        <v>80199900</v>
       </c>
       <c r="H41" s="3">
-        <v>52725300</v>
+        <v>50667900</v>
       </c>
       <c r="I41" s="3">
-        <v>48783400</v>
+        <v>46879800</v>
       </c>
       <c r="J41" s="3">
-        <v>106792000</v>
+        <v>102625000</v>
       </c>
       <c r="K41" s="3">
         <v>111447000</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>106690000</v>
+        <v>102527000</v>
       </c>
       <c r="E42" s="3">
-        <v>108384000</v>
+        <v>104155000</v>
       </c>
       <c r="F42" s="3">
-        <v>99832500</v>
+        <v>95936900</v>
       </c>
       <c r="G42" s="3">
-        <v>125052000</v>
+        <v>120173000</v>
       </c>
       <c r="H42" s="3">
-        <v>127891000</v>
+        <v>122901000</v>
       </c>
       <c r="I42" s="3">
-        <v>126720000</v>
+        <v>121776000</v>
       </c>
       <c r="J42" s="3">
-        <v>143280000</v>
+        <v>137689000</v>
       </c>
       <c r="K42" s="3">
         <v>162702000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1647100</v>
+        <v>1582900</v>
       </c>
       <c r="E47" s="3">
-        <v>1530900</v>
+        <v>1471200</v>
       </c>
       <c r="F47" s="3">
-        <v>1857800</v>
+        <v>1785300</v>
       </c>
       <c r="G47" s="3">
-        <v>1248600</v>
+        <v>1199900</v>
       </c>
       <c r="H47" s="3">
-        <v>1129200</v>
+        <v>1085200</v>
       </c>
       <c r="I47" s="3">
-        <v>1184200</v>
+        <v>1138000</v>
       </c>
       <c r="J47" s="3">
-        <v>998500</v>
+        <v>959500</v>
       </c>
       <c r="K47" s="3">
         <v>1076000</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2637300</v>
+        <v>2534400</v>
       </c>
       <c r="E48" s="3">
-        <v>2969400</v>
+        <v>2853600</v>
       </c>
       <c r="F48" s="3">
-        <v>3340000</v>
+        <v>3209600</v>
       </c>
       <c r="G48" s="3">
-        <v>1777900</v>
+        <v>1708500</v>
       </c>
       <c r="H48" s="3">
-        <v>1936700</v>
+        <v>1861100</v>
       </c>
       <c r="I48" s="3">
-        <v>2077900</v>
+        <v>1996800</v>
       </c>
       <c r="J48" s="3">
-        <v>4287600</v>
+        <v>4120300</v>
       </c>
       <c r="K48" s="3">
         <v>4832500</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1199800</v>
+        <v>1153000</v>
       </c>
       <c r="E49" s="3">
-        <v>1446800</v>
+        <v>1390400</v>
       </c>
       <c r="F49" s="3">
-        <v>1988600</v>
+        <v>1911000</v>
       </c>
       <c r="G49" s="3">
-        <v>1908700</v>
+        <v>1834200</v>
       </c>
       <c r="H49" s="3">
-        <v>1524700</v>
+        <v>1465200</v>
       </c>
       <c r="I49" s="3">
-        <v>1540200</v>
+        <v>1480100</v>
       </c>
       <c r="J49" s="3">
-        <v>2664300</v>
+        <v>2560300</v>
       </c>
       <c r="K49" s="3">
         <v>5520200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1805900</v>
+        <v>1735500</v>
       </c>
       <c r="E52" s="3">
-        <v>1554800</v>
+        <v>1494100</v>
       </c>
       <c r="F52" s="3">
-        <v>1493500</v>
+        <v>1435300</v>
       </c>
       <c r="G52" s="3">
-        <v>2729700</v>
+        <v>2623200</v>
       </c>
       <c r="H52" s="3">
-        <v>1411500</v>
+        <v>1356500</v>
       </c>
       <c r="I52" s="3">
-        <v>958000</v>
+        <v>920600</v>
       </c>
       <c r="J52" s="3">
-        <v>3746800</v>
+        <v>3600600</v>
       </c>
       <c r="K52" s="3">
         <v>188860000</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>987344000</v>
+        <v>948817000</v>
       </c>
       <c r="E54" s="3">
-        <v>972798000</v>
+        <v>934838000</v>
       </c>
       <c r="F54" s="3">
-        <v>925541000</v>
+        <v>889426000</v>
       </c>
       <c r="G54" s="3">
-        <v>920648000</v>
+        <v>884724000</v>
       </c>
       <c r="H54" s="3">
-        <v>878288000</v>
+        <v>844016000</v>
       </c>
       <c r="I54" s="3">
-        <v>877110000</v>
+        <v>842884000</v>
       </c>
       <c r="J54" s="3">
-        <v>1043330000</v>
+        <v>1002620000</v>
       </c>
       <c r="K54" s="3">
         <v>1330820000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2112100</v>
+        <v>2029700</v>
       </c>
       <c r="E57" s="3">
-        <v>2110100</v>
+        <v>2027700</v>
       </c>
       <c r="F57" s="3">
-        <v>2200300</v>
+        <v>2114500</v>
       </c>
       <c r="G57" s="3">
-        <v>2421400</v>
+        <v>2326900</v>
       </c>
       <c r="H57" s="3">
-        <v>6440200</v>
+        <v>6188900</v>
       </c>
       <c r="I57" s="3">
-        <v>4560500</v>
+        <v>4382600</v>
       </c>
       <c r="J57" s="3">
-        <v>5351400</v>
+        <v>5142600</v>
       </c>
       <c r="K57" s="3">
         <v>6483300</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39611500</v>
+        <v>38065800</v>
       </c>
       <c r="E58" s="3">
-        <v>28271400</v>
+        <v>27168200</v>
       </c>
       <c r="F58" s="3">
-        <v>53772600</v>
+        <v>51674300</v>
       </c>
       <c r="G58" s="3">
-        <v>57405200</v>
+        <v>55165200</v>
       </c>
       <c r="H58" s="3">
-        <v>46069300</v>
+        <v>44271600</v>
       </c>
       <c r="I58" s="3">
-        <v>42020400</v>
+        <v>40380700</v>
       </c>
       <c r="J58" s="3">
-        <v>53151900</v>
+        <v>51077900</v>
       </c>
       <c r="K58" s="3">
         <v>61522400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1341000</v>
+        <v>1288600</v>
       </c>
       <c r="E59" s="3">
-        <v>1315000</v>
+        <v>1263700</v>
       </c>
       <c r="F59" s="3">
-        <v>1579700</v>
+        <v>1518000</v>
       </c>
       <c r="G59" s="3">
-        <v>1762400</v>
+        <v>1693600</v>
       </c>
       <c r="H59" s="3">
-        <v>1798700</v>
+        <v>1728500</v>
       </c>
       <c r="I59" s="3">
-        <v>1080500</v>
+        <v>1038300</v>
       </c>
       <c r="J59" s="3">
-        <v>1198800</v>
+        <v>1152000</v>
       </c>
       <c r="K59" s="3">
         <v>1167500</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74265900</v>
+        <v>71368000</v>
       </c>
       <c r="E61" s="3">
-        <v>74697700</v>
+        <v>71782900</v>
       </c>
       <c r="F61" s="3">
-        <v>88028500</v>
+        <v>84593500</v>
       </c>
       <c r="G61" s="3">
-        <v>81128500</v>
+        <v>77962800</v>
       </c>
       <c r="H61" s="3">
-        <v>70231600</v>
+        <v>67491100</v>
       </c>
       <c r="I61" s="3">
-        <v>83001900</v>
+        <v>79763100</v>
       </c>
       <c r="J61" s="3">
-        <v>89766900</v>
+        <v>86264100</v>
       </c>
       <c r="K61" s="3">
         <v>163166000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1968900</v>
+        <v>1892100</v>
       </c>
       <c r="E62" s="3">
-        <v>1772700</v>
+        <v>1703600</v>
       </c>
       <c r="F62" s="3">
-        <v>2023900</v>
+        <v>1944900</v>
       </c>
       <c r="G62" s="3">
-        <v>2229400</v>
+        <v>2142400</v>
       </c>
       <c r="H62" s="3">
-        <v>3142800</v>
+        <v>3020100</v>
       </c>
       <c r="I62" s="3">
-        <v>3599400</v>
+        <v>3459000</v>
       </c>
       <c r="J62" s="3">
-        <v>2184800</v>
+        <v>2099500</v>
       </c>
       <c r="K62" s="3">
         <v>3208900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>931382000</v>
+        <v>895039000</v>
       </c>
       <c r="E66" s="3">
-        <v>916090000</v>
+        <v>880343000</v>
       </c>
       <c r="F66" s="3">
-        <v>869734000</v>
+        <v>835796000</v>
       </c>
       <c r="G66" s="3">
-        <v>867786000</v>
+        <v>833924000</v>
       </c>
       <c r="H66" s="3">
-        <v>825971000</v>
+        <v>793741000</v>
       </c>
       <c r="I66" s="3">
-        <v>825429000</v>
+        <v>793220000</v>
       </c>
       <c r="J66" s="3">
-        <v>993687000</v>
+        <v>954912000</v>
       </c>
       <c r="K66" s="3">
         <v>1272850000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42275700</v>
+        <v>40626100</v>
       </c>
       <c r="E72" s="3">
-        <v>39881300</v>
+        <v>38325100</v>
       </c>
       <c r="F72" s="3">
-        <v>37210800</v>
+        <v>35758800</v>
       </c>
       <c r="G72" s="3">
-        <v>34457200</v>
+        <v>33112700</v>
       </c>
       <c r="H72" s="3">
-        <v>32720800</v>
+        <v>31444000</v>
       </c>
       <c r="I72" s="3">
-        <v>30246500</v>
+        <v>29066200</v>
       </c>
       <c r="J72" s="3">
-        <v>27840600</v>
+        <v>26754300</v>
       </c>
       <c r="K72" s="3">
         <v>27824400</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55961500</v>
+        <v>53777800</v>
       </c>
       <c r="E76" s="3">
-        <v>56707700</v>
+        <v>54494900</v>
       </c>
       <c r="F76" s="3">
-        <v>55806800</v>
+        <v>53629200</v>
       </c>
       <c r="G76" s="3">
-        <v>52862300</v>
+        <v>50799600</v>
       </c>
       <c r="H76" s="3">
-        <v>52316400</v>
+        <v>50274900</v>
       </c>
       <c r="I76" s="3">
-        <v>51680200</v>
+        <v>49663500</v>
       </c>
       <c r="J76" s="3">
-        <v>49644800</v>
+        <v>47707600</v>
       </c>
       <c r="K76" s="3">
         <v>57972500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4957000</v>
+        <v>4763600</v>
       </c>
       <c r="E81" s="3">
-        <v>2579200</v>
+        <v>2478500</v>
       </c>
       <c r="F81" s="3">
-        <v>4962200</v>
+        <v>4768600</v>
       </c>
       <c r="G81" s="3">
-        <v>4881200</v>
+        <v>4690800</v>
       </c>
       <c r="H81" s="3">
-        <v>5090900</v>
+        <v>4892200</v>
       </c>
       <c r="I81" s="3">
-        <v>4827300</v>
+        <v>4638900</v>
       </c>
       <c r="J81" s="3">
-        <v>4162000</v>
+        <v>3999600</v>
       </c>
       <c r="K81" s="3">
         <v>565700</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>865600</v>
+        <v>831800</v>
       </c>
       <c r="E83" s="3">
-        <v>860400</v>
+        <v>826800</v>
       </c>
       <c r="F83" s="3">
-        <v>818900</v>
+        <v>786900</v>
       </c>
       <c r="G83" s="3">
-        <v>539700</v>
+        <v>518600</v>
       </c>
       <c r="H83" s="3">
-        <v>539700</v>
+        <v>518600</v>
       </c>
       <c r="I83" s="3">
-        <v>556300</v>
+        <v>534600</v>
       </c>
       <c r="J83" s="3">
-        <v>658000</v>
+        <v>632400</v>
       </c>
       <c r="K83" s="3">
         <v>781300</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-15509300</v>
+        <v>-14904100</v>
       </c>
       <c r="E89" s="3">
-        <v>105080100</v>
+        <v>100979800</v>
       </c>
       <c r="F89" s="3">
-        <v>13549800</v>
+        <v>13021100</v>
       </c>
       <c r="G89" s="3">
-        <v>7177100</v>
+        <v>6897000</v>
       </c>
       <c r="H89" s="3">
-        <v>-5452100</v>
+        <v>-5239300</v>
       </c>
       <c r="I89" s="3">
-        <v>8877200</v>
+        <v>8530800</v>
       </c>
       <c r="J89" s="3">
-        <v>10977900</v>
+        <v>10549500</v>
       </c>
       <c r="K89" s="3">
         <v>13570700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-191000</v>
+        <v>-183500</v>
       </c>
       <c r="E91" s="3">
-        <v>-297900</v>
+        <v>-286300</v>
       </c>
       <c r="F91" s="3">
-        <v>-368500</v>
+        <v>-354100</v>
       </c>
       <c r="G91" s="3">
-        <v>-296800</v>
+        <v>-285300</v>
       </c>
       <c r="H91" s="3">
-        <v>-315500</v>
+        <v>-303200</v>
       </c>
       <c r="I91" s="3">
-        <v>-430700</v>
+        <v>-413900</v>
       </c>
       <c r="J91" s="3">
-        <v>-404800</v>
+        <v>-389000</v>
       </c>
       <c r="K91" s="3">
         <v>-461800</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6455700</v>
+        <v>6203800</v>
       </c>
       <c r="E94" s="3">
-        <v>-8808700</v>
+        <v>-8464900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2589600</v>
+        <v>-2488500</v>
       </c>
       <c r="G94" s="3">
-        <v>5657600</v>
+        <v>5436800</v>
       </c>
       <c r="H94" s="3">
-        <v>12199500</v>
+        <v>11723400</v>
       </c>
       <c r="I94" s="3">
-        <v>6366500</v>
+        <v>6118100</v>
       </c>
       <c r="J94" s="3">
-        <v>4355000</v>
+        <v>4185100</v>
       </c>
       <c r="K94" s="3">
         <v>-8376800</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2430800</v>
+        <v>-2335900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2750400</v>
+        <v>-2643100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2705800</v>
+        <v>-2600200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2661200</v>
+        <v>-2557300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2616500</v>
+        <v>-2514400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1445800</v>
+        <v>-1389400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5591200</v>
+        <v>5373000</v>
       </c>
       <c r="E100" s="3">
-        <v>-36114800</v>
+        <v>-34705500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4311400</v>
+        <v>-4143200</v>
       </c>
       <c r="G100" s="3">
-        <v>16588800</v>
+        <v>15941400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4097600</v>
+        <v>-3937700</v>
       </c>
       <c r="I100" s="3">
-        <v>-19779300</v>
+        <v>-19007500</v>
       </c>
       <c r="J100" s="3">
-        <v>-11588200</v>
+        <v>-11136000</v>
       </c>
       <c r="K100" s="3">
         <v>-5265000</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-586400</v>
+        <v>-563500</v>
       </c>
       <c r="E101" s="3">
-        <v>-441100</v>
+        <v>-423900</v>
       </c>
       <c r="F101" s="3">
-        <v>98600</v>
+        <v>94800</v>
       </c>
       <c r="G101" s="3">
-        <v>211700</v>
+        <v>203500</v>
       </c>
       <c r="H101" s="3">
-        <v>269900</v>
+        <v>259300</v>
       </c>
       <c r="I101" s="3">
-        <v>160900</v>
+        <v>154600</v>
       </c>
       <c r="J101" s="3">
-        <v>-355000</v>
+        <v>-341100</v>
       </c>
       <c r="K101" s="3">
         <v>-4500</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4048800</v>
+        <v>-3890900</v>
       </c>
       <c r="E102" s="3">
-        <v>59715600</v>
+        <v>57385400</v>
       </c>
       <c r="F102" s="3">
-        <v>6747400</v>
+        <v>6484100</v>
       </c>
       <c r="G102" s="3">
-        <v>29635200</v>
+        <v>28478800</v>
       </c>
       <c r="H102" s="3">
-        <v>2919600</v>
+        <v>2805700</v>
       </c>
       <c r="I102" s="3">
-        <v>-4374700</v>
+        <v>-4204000</v>
       </c>
       <c r="J102" s="3">
-        <v>3389800</v>
+        <v>3257500</v>
       </c>
       <c r="K102" s="3">
         <v>-75600</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21059100</v>
+        <v>21553200</v>
       </c>
       <c r="E8" s="3">
-        <v>22639000</v>
+        <v>23170100</v>
       </c>
       <c r="F8" s="3">
-        <v>28380000</v>
+        <v>29045800</v>
       </c>
       <c r="G8" s="3">
-        <v>28074800</v>
+        <v>28733500</v>
       </c>
       <c r="H8" s="3">
-        <v>43949400</v>
+        <v>44980500</v>
       </c>
       <c r="I8" s="3">
-        <v>44067100</v>
+        <v>45101000</v>
       </c>
       <c r="J8" s="3">
-        <v>46200600</v>
+        <v>47284500</v>
       </c>
       <c r="K8" s="3">
         <v>54387600</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-831800</v>
+        <v>-851300</v>
       </c>
       <c r="E15" s="3">
-        <v>-826800</v>
+        <v>-846200</v>
       </c>
       <c r="F15" s="3">
-        <v>-786000</v>
+        <v>-804400</v>
       </c>
       <c r="G15" s="3">
-        <v>-723100</v>
+        <v>-740100</v>
       </c>
       <c r="H15" s="3">
-        <v>-691200</v>
+        <v>-707400</v>
       </c>
       <c r="I15" s="3">
-        <v>-534600</v>
+        <v>-547100</v>
       </c>
       <c r="J15" s="3">
-        <v>-613400</v>
+        <v>-627800</v>
       </c>
       <c r="K15" s="3">
         <v>-650400</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7994200</v>
+        <v>8181700</v>
       </c>
       <c r="E17" s="3">
-        <v>11738400</v>
+        <v>12013800</v>
       </c>
       <c r="F17" s="3">
-        <v>16474100</v>
+        <v>16860600</v>
       </c>
       <c r="G17" s="3">
-        <v>14849300</v>
+        <v>15197700</v>
       </c>
       <c r="H17" s="3">
-        <v>30945300</v>
+        <v>31671300</v>
       </c>
       <c r="I17" s="3">
-        <v>31832000</v>
+        <v>32578800</v>
       </c>
       <c r="J17" s="3">
-        <v>35015700</v>
+        <v>35837200</v>
       </c>
       <c r="K17" s="3">
         <v>42295000</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13064900</v>
+        <v>13371500</v>
       </c>
       <c r="E18" s="3">
-        <v>10900600</v>
+        <v>11156300</v>
       </c>
       <c r="F18" s="3">
-        <v>11906000</v>
+        <v>12185300</v>
       </c>
       <c r="G18" s="3">
-        <v>13225500</v>
+        <v>13535800</v>
       </c>
       <c r="H18" s="3">
-        <v>13004100</v>
+        <v>13309200</v>
       </c>
       <c r="I18" s="3">
-        <v>12235100</v>
+        <v>12522200</v>
       </c>
       <c r="J18" s="3">
-        <v>11184800</v>
+        <v>11447300</v>
       </c>
       <c r="K18" s="3">
         <v>12092700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6300600</v>
+        <v>-6448400</v>
       </c>
       <c r="E20" s="3">
-        <v>-7101500</v>
+        <v>-7268100</v>
       </c>
       <c r="F20" s="3">
-        <v>-5089700</v>
+        <v>-5209100</v>
       </c>
       <c r="G20" s="3">
-        <v>-6405300</v>
+        <v>-6555600</v>
       </c>
       <c r="H20" s="3">
-        <v>-5755000</v>
+        <v>-5890000</v>
       </c>
       <c r="I20" s="3">
-        <v>-6347500</v>
+        <v>-6496400</v>
       </c>
       <c r="J20" s="3">
-        <v>-5028900</v>
+        <v>-5146900</v>
       </c>
       <c r="K20" s="3">
         <v>-7907100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7595400</v>
+        <v>7758000</v>
       </c>
       <c r="E21" s="3">
-        <v>4625200</v>
+        <v>4718100</v>
       </c>
       <c r="F21" s="3">
-        <v>7602500</v>
+        <v>7766000</v>
       </c>
       <c r="G21" s="3">
-        <v>7338400</v>
+        <v>7500800</v>
       </c>
       <c r="H21" s="3">
-        <v>7767300</v>
+        <v>7939700</v>
       </c>
       <c r="I21" s="3">
-        <v>6421800</v>
+        <v>6562400</v>
       </c>
       <c r="J21" s="3">
-        <v>6787700</v>
+        <v>6935100</v>
       </c>
       <c r="K21" s="3">
         <v>4968700</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6764400</v>
+        <v>6923100</v>
       </c>
       <c r="E23" s="3">
-        <v>3799100</v>
+        <v>3888200</v>
       </c>
       <c r="F23" s="3">
-        <v>6816200</v>
+        <v>6976100</v>
       </c>
       <c r="G23" s="3">
-        <v>6820200</v>
+        <v>6980200</v>
       </c>
       <c r="H23" s="3">
-        <v>7249100</v>
+        <v>7419200</v>
       </c>
       <c r="I23" s="3">
-        <v>5887700</v>
+        <v>6025800</v>
       </c>
       <c r="J23" s="3">
-        <v>6156000</v>
+        <v>6300400</v>
       </c>
       <c r="K23" s="3">
         <v>4185600</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1872100</v>
+        <v>1916000</v>
       </c>
       <c r="E24" s="3">
-        <v>1242800</v>
+        <v>1271900</v>
       </c>
       <c r="F24" s="3">
-        <v>1949900</v>
+        <v>1995700</v>
       </c>
       <c r="G24" s="3">
-        <v>2021700</v>
+        <v>2069200</v>
       </c>
       <c r="H24" s="3">
-        <v>2275100</v>
+        <v>2328400</v>
       </c>
       <c r="I24" s="3">
-        <v>1613800</v>
+        <v>1651700</v>
       </c>
       <c r="J24" s="3">
-        <v>1632700</v>
+        <v>1671000</v>
       </c>
       <c r="K24" s="3">
         <v>1096400</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4892200</v>
+        <v>5007000</v>
       </c>
       <c r="E26" s="3">
-        <v>2556300</v>
+        <v>2616300</v>
       </c>
       <c r="F26" s="3">
-        <v>4866300</v>
+        <v>4980500</v>
       </c>
       <c r="G26" s="3">
-        <v>4798500</v>
+        <v>4911100</v>
       </c>
       <c r="H26" s="3">
-        <v>4974000</v>
+        <v>5090700</v>
       </c>
       <c r="I26" s="3">
-        <v>4273900</v>
+        <v>4374100</v>
       </c>
       <c r="J26" s="3">
-        <v>4523200</v>
+        <v>4629300</v>
       </c>
       <c r="K26" s="3">
         <v>3089200</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4763600</v>
+        <v>4875300</v>
       </c>
       <c r="E27" s="3">
-        <v>2478500</v>
+        <v>2536700</v>
       </c>
       <c r="F27" s="3">
-        <v>4768600</v>
+        <v>4880400</v>
       </c>
       <c r="G27" s="3">
-        <v>4690800</v>
+        <v>4800800</v>
       </c>
       <c r="H27" s="3">
-        <v>4892200</v>
+        <v>5007000</v>
       </c>
       <c r="I27" s="3">
-        <v>4199100</v>
+        <v>4297600</v>
       </c>
       <c r="J27" s="3">
-        <v>4454400</v>
+        <v>4558900</v>
       </c>
       <c r="K27" s="3">
         <v>2153200</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>439900</v>
+        <v>450200</v>
       </c>
       <c r="J29" s="3">
-        <v>-454800</v>
+        <v>-465500</v>
       </c>
       <c r="K29" s="3">
         <v>-1587500</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6300600</v>
+        <v>6448400</v>
       </c>
       <c r="E32" s="3">
-        <v>7101500</v>
+        <v>7268100</v>
       </c>
       <c r="F32" s="3">
-        <v>5089700</v>
+        <v>5209100</v>
       </c>
       <c r="G32" s="3">
-        <v>6405300</v>
+        <v>6555600</v>
       </c>
       <c r="H32" s="3">
-        <v>5755000</v>
+        <v>5890000</v>
       </c>
       <c r="I32" s="3">
-        <v>6347500</v>
+        <v>6496400</v>
       </c>
       <c r="J32" s="3">
-        <v>5028900</v>
+        <v>5146900</v>
       </c>
       <c r="K32" s="3">
         <v>7907100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4763600</v>
+        <v>4875300</v>
       </c>
       <c r="E33" s="3">
-        <v>2478500</v>
+        <v>2536700</v>
       </c>
       <c r="F33" s="3">
-        <v>4768600</v>
+        <v>4880400</v>
       </c>
       <c r="G33" s="3">
-        <v>4690800</v>
+        <v>4800800</v>
       </c>
       <c r="H33" s="3">
-        <v>4892200</v>
+        <v>5007000</v>
       </c>
       <c r="I33" s="3">
-        <v>4638900</v>
+        <v>4747700</v>
       </c>
       <c r="J33" s="3">
-        <v>3999600</v>
+        <v>4093400</v>
       </c>
       <c r="K33" s="3">
         <v>565700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4763600</v>
+        <v>4875300</v>
       </c>
       <c r="E35" s="3">
-        <v>2478500</v>
+        <v>2536700</v>
       </c>
       <c r="F35" s="3">
-        <v>4768600</v>
+        <v>4880400</v>
       </c>
       <c r="G35" s="3">
-        <v>4690800</v>
+        <v>4800800</v>
       </c>
       <c r="H35" s="3">
-        <v>4892200</v>
+        <v>5007000</v>
       </c>
       <c r="I35" s="3">
-        <v>4638900</v>
+        <v>4747700</v>
       </c>
       <c r="J35" s="3">
-        <v>3999600</v>
+        <v>4093400</v>
       </c>
       <c r="K35" s="3">
         <v>565700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129774000</v>
+        <v>132818000</v>
       </c>
       <c r="E41" s="3">
-        <v>136096000</v>
+        <v>139289000</v>
       </c>
       <c r="F41" s="3">
-        <v>88108300</v>
+        <v>90175400</v>
       </c>
       <c r="G41" s="3">
-        <v>80199900</v>
+        <v>82081500</v>
       </c>
       <c r="H41" s="3">
-        <v>50667900</v>
+        <v>51856600</v>
       </c>
       <c r="I41" s="3">
-        <v>46879800</v>
+        <v>47979600</v>
       </c>
       <c r="J41" s="3">
-        <v>102625000</v>
+        <v>105032000</v>
       </c>
       <c r="K41" s="3">
         <v>111447000</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>102527000</v>
+        <v>104932000</v>
       </c>
       <c r="E42" s="3">
-        <v>104155000</v>
+        <v>106598000</v>
       </c>
       <c r="F42" s="3">
-        <v>95936900</v>
+        <v>98187700</v>
       </c>
       <c r="G42" s="3">
-        <v>120173000</v>
+        <v>122992000</v>
       </c>
       <c r="H42" s="3">
-        <v>122901000</v>
+        <v>125784000</v>
       </c>
       <c r="I42" s="3">
-        <v>121776000</v>
+        <v>124633000</v>
       </c>
       <c r="J42" s="3">
-        <v>137689000</v>
+        <v>140919000</v>
       </c>
       <c r="K42" s="3">
         <v>162702000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1582900</v>
+        <v>1620000</v>
       </c>
       <c r="E47" s="3">
-        <v>1471200</v>
+        <v>1505700</v>
       </c>
       <c r="F47" s="3">
-        <v>1785300</v>
+        <v>1827200</v>
       </c>
       <c r="G47" s="3">
-        <v>1199900</v>
+        <v>1228000</v>
       </c>
       <c r="H47" s="3">
-        <v>1085200</v>
+        <v>1110600</v>
       </c>
       <c r="I47" s="3">
-        <v>1138000</v>
+        <v>1164700</v>
       </c>
       <c r="J47" s="3">
-        <v>959500</v>
+        <v>982000</v>
       </c>
       <c r="K47" s="3">
         <v>1076000</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2534400</v>
+        <v>2593900</v>
       </c>
       <c r="E48" s="3">
-        <v>2853600</v>
+        <v>2920500</v>
       </c>
       <c r="F48" s="3">
-        <v>3209600</v>
+        <v>3284900</v>
       </c>
       <c r="G48" s="3">
-        <v>1708500</v>
+        <v>1748600</v>
       </c>
       <c r="H48" s="3">
-        <v>1861100</v>
+        <v>1904800</v>
       </c>
       <c r="I48" s="3">
-        <v>1996800</v>
+        <v>2043600</v>
       </c>
       <c r="J48" s="3">
-        <v>4120300</v>
+        <v>4216900</v>
       </c>
       <c r="K48" s="3">
         <v>4832500</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1153000</v>
+        <v>1180000</v>
       </c>
       <c r="E49" s="3">
-        <v>1390400</v>
+        <v>1423000</v>
       </c>
       <c r="F49" s="3">
-        <v>1911000</v>
+        <v>1955900</v>
       </c>
       <c r="G49" s="3">
-        <v>1834200</v>
+        <v>1877300</v>
       </c>
       <c r="H49" s="3">
-        <v>1465200</v>
+        <v>1499600</v>
       </c>
       <c r="I49" s="3">
-        <v>1480100</v>
+        <v>1514900</v>
       </c>
       <c r="J49" s="3">
-        <v>2560300</v>
+        <v>2620400</v>
       </c>
       <c r="K49" s="3">
         <v>5520200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1735500</v>
+        <v>1776200</v>
       </c>
       <c r="E52" s="3">
-        <v>1494100</v>
+        <v>1529200</v>
       </c>
       <c r="F52" s="3">
-        <v>1435300</v>
+        <v>1468900</v>
       </c>
       <c r="G52" s="3">
-        <v>2623200</v>
+        <v>2684700</v>
       </c>
       <c r="H52" s="3">
-        <v>1356500</v>
+        <v>1388300</v>
       </c>
       <c r="I52" s="3">
-        <v>920600</v>
+        <v>942200</v>
       </c>
       <c r="J52" s="3">
-        <v>3600600</v>
+        <v>3685100</v>
       </c>
       <c r="K52" s="3">
         <v>188860000</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>948817000</v>
+        <v>971077000</v>
       </c>
       <c r="E54" s="3">
-        <v>934838000</v>
+        <v>956770000</v>
       </c>
       <c r="F54" s="3">
-        <v>889426000</v>
+        <v>910292000</v>
       </c>
       <c r="G54" s="3">
-        <v>884724000</v>
+        <v>905480000</v>
       </c>
       <c r="H54" s="3">
-        <v>844016000</v>
+        <v>863817000</v>
       </c>
       <c r="I54" s="3">
-        <v>842884000</v>
+        <v>862659000</v>
       </c>
       <c r="J54" s="3">
-        <v>1002620000</v>
+        <v>1026140000</v>
       </c>
       <c r="K54" s="3">
         <v>1330820000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2029700</v>
+        <v>2077300</v>
       </c>
       <c r="E57" s="3">
-        <v>2027700</v>
+        <v>2075300</v>
       </c>
       <c r="F57" s="3">
-        <v>2114500</v>
+        <v>2164100</v>
       </c>
       <c r="G57" s="3">
-        <v>2326900</v>
+        <v>2381500</v>
       </c>
       <c r="H57" s="3">
-        <v>6188900</v>
+        <v>6334100</v>
       </c>
       <c r="I57" s="3">
-        <v>4382600</v>
+        <v>4485400</v>
       </c>
       <c r="J57" s="3">
-        <v>5142600</v>
+        <v>5263200</v>
       </c>
       <c r="K57" s="3">
         <v>6483300</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38065800</v>
+        <v>38958800</v>
       </c>
       <c r="E58" s="3">
-        <v>27168200</v>
+        <v>27805600</v>
       </c>
       <c r="F58" s="3">
-        <v>51674300</v>
+        <v>52886600</v>
       </c>
       <c r="G58" s="3">
-        <v>55165200</v>
+        <v>56459400</v>
       </c>
       <c r="H58" s="3">
-        <v>44271600</v>
+        <v>45310200</v>
       </c>
       <c r="I58" s="3">
-        <v>40380700</v>
+        <v>41328100</v>
       </c>
       <c r="J58" s="3">
-        <v>51077900</v>
+        <v>52276200</v>
       </c>
       <c r="K58" s="3">
         <v>61522400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1288600</v>
+        <v>1318900</v>
       </c>
       <c r="E59" s="3">
-        <v>1263700</v>
+        <v>1293400</v>
       </c>
       <c r="F59" s="3">
-        <v>1518000</v>
+        <v>1553700</v>
       </c>
       <c r="G59" s="3">
-        <v>1693600</v>
+        <v>1733300</v>
       </c>
       <c r="H59" s="3">
-        <v>1728500</v>
+        <v>1769000</v>
       </c>
       <c r="I59" s="3">
-        <v>1038300</v>
+        <v>1062700</v>
       </c>
       <c r="J59" s="3">
-        <v>1152000</v>
+        <v>1179000</v>
       </c>
       <c r="K59" s="3">
         <v>1167500</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71368000</v>
+        <v>73042300</v>
       </c>
       <c r="E61" s="3">
-        <v>71782900</v>
+        <v>73467000</v>
       </c>
       <c r="F61" s="3">
-        <v>84593500</v>
+        <v>86578100</v>
       </c>
       <c r="G61" s="3">
-        <v>77962800</v>
+        <v>79791900</v>
       </c>
       <c r="H61" s="3">
-        <v>67491100</v>
+        <v>69074500</v>
       </c>
       <c r="I61" s="3">
-        <v>79763100</v>
+        <v>81634400</v>
       </c>
       <c r="J61" s="3">
-        <v>86264100</v>
+        <v>88288000</v>
       </c>
       <c r="K61" s="3">
         <v>163166000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1892100</v>
+        <v>1936500</v>
       </c>
       <c r="E62" s="3">
-        <v>1703600</v>
+        <v>1743500</v>
       </c>
       <c r="F62" s="3">
-        <v>1944900</v>
+        <v>1990600</v>
       </c>
       <c r="G62" s="3">
-        <v>2142400</v>
+        <v>2192700</v>
       </c>
       <c r="H62" s="3">
-        <v>3020100</v>
+        <v>3091000</v>
       </c>
       <c r="I62" s="3">
-        <v>3459000</v>
+        <v>3540100</v>
       </c>
       <c r="J62" s="3">
-        <v>2099500</v>
+        <v>2148800</v>
       </c>
       <c r="K62" s="3">
         <v>3208900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>895039000</v>
+        <v>916037000</v>
       </c>
       <c r="E66" s="3">
-        <v>880343000</v>
+        <v>900997000</v>
       </c>
       <c r="F66" s="3">
-        <v>835796000</v>
+        <v>855405000</v>
       </c>
       <c r="G66" s="3">
-        <v>833924000</v>
+        <v>853489000</v>
       </c>
       <c r="H66" s="3">
-        <v>793741000</v>
+        <v>812363000</v>
       </c>
       <c r="I66" s="3">
-        <v>793220000</v>
+        <v>811830000</v>
       </c>
       <c r="J66" s="3">
-        <v>954912000</v>
+        <v>977315000</v>
       </c>
       <c r="K66" s="3">
         <v>1272850000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40626100</v>
+        <v>41579200</v>
       </c>
       <c r="E72" s="3">
-        <v>38325100</v>
+        <v>39224200</v>
       </c>
       <c r="F72" s="3">
-        <v>35758800</v>
+        <v>36597700</v>
       </c>
       <c r="G72" s="3">
-        <v>33112700</v>
+        <v>33889500</v>
       </c>
       <c r="H72" s="3">
-        <v>31444000</v>
+        <v>32181700</v>
       </c>
       <c r="I72" s="3">
-        <v>29066200</v>
+        <v>29748200</v>
       </c>
       <c r="J72" s="3">
-        <v>26754300</v>
+        <v>27381900</v>
       </c>
       <c r="K72" s="3">
         <v>27824400</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>53777800</v>
+        <v>55039500</v>
       </c>
       <c r="E76" s="3">
-        <v>54494900</v>
+        <v>55773400</v>
       </c>
       <c r="F76" s="3">
-        <v>53629200</v>
+        <v>54887400</v>
       </c>
       <c r="G76" s="3">
-        <v>50799600</v>
+        <v>51991400</v>
       </c>
       <c r="H76" s="3">
-        <v>50274900</v>
+        <v>51454400</v>
       </c>
       <c r="I76" s="3">
-        <v>49663500</v>
+        <v>50828700</v>
       </c>
       <c r="J76" s="3">
-        <v>47707600</v>
+        <v>48826900</v>
       </c>
       <c r="K76" s="3">
         <v>57972500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4763600</v>
+        <v>4875300</v>
       </c>
       <c r="E81" s="3">
-        <v>2478500</v>
+        <v>2536700</v>
       </c>
       <c r="F81" s="3">
-        <v>4768600</v>
+        <v>4880400</v>
       </c>
       <c r="G81" s="3">
-        <v>4690800</v>
+        <v>4800800</v>
       </c>
       <c r="H81" s="3">
-        <v>4892200</v>
+        <v>5007000</v>
       </c>
       <c r="I81" s="3">
-        <v>4638900</v>
+        <v>4747700</v>
       </c>
       <c r="J81" s="3">
-        <v>3999600</v>
+        <v>4093400</v>
       </c>
       <c r="K81" s="3">
         <v>565700</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>831800</v>
+        <v>851300</v>
       </c>
       <c r="E83" s="3">
-        <v>826800</v>
+        <v>846200</v>
       </c>
       <c r="F83" s="3">
-        <v>786900</v>
+        <v>805400</v>
       </c>
       <c r="G83" s="3">
-        <v>518600</v>
+        <v>530800</v>
       </c>
       <c r="H83" s="3">
-        <v>518600</v>
+        <v>530800</v>
       </c>
       <c r="I83" s="3">
-        <v>534600</v>
+        <v>547100</v>
       </c>
       <c r="J83" s="3">
-        <v>632400</v>
+        <v>647200</v>
       </c>
       <c r="K83" s="3">
         <v>781300</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14904100</v>
+        <v>-15253800</v>
       </c>
       <c r="E89" s="3">
-        <v>100979800</v>
+        <v>103348900</v>
       </c>
       <c r="F89" s="3">
-        <v>13021100</v>
+        <v>13326500</v>
       </c>
       <c r="G89" s="3">
-        <v>6897000</v>
+        <v>7058800</v>
       </c>
       <c r="H89" s="3">
-        <v>-5239300</v>
+        <v>-5362300</v>
       </c>
       <c r="I89" s="3">
-        <v>8530800</v>
+        <v>8730900</v>
       </c>
       <c r="J89" s="3">
-        <v>10549500</v>
+        <v>10797000</v>
       </c>
       <c r="K89" s="3">
         <v>13570700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-183500</v>
+        <v>-187800</v>
       </c>
       <c r="E91" s="3">
-        <v>-286300</v>
+        <v>-293000</v>
       </c>
       <c r="F91" s="3">
-        <v>-354100</v>
+        <v>-362400</v>
       </c>
       <c r="G91" s="3">
-        <v>-285300</v>
+        <v>-291900</v>
       </c>
       <c r="H91" s="3">
-        <v>-303200</v>
+        <v>-310300</v>
       </c>
       <c r="I91" s="3">
-        <v>-413900</v>
+        <v>-423600</v>
       </c>
       <c r="J91" s="3">
-        <v>-389000</v>
+        <v>-398100</v>
       </c>
       <c r="K91" s="3">
         <v>-461800</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6203800</v>
+        <v>6349400</v>
       </c>
       <c r="E94" s="3">
-        <v>-8464900</v>
+        <v>-8663500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2488500</v>
+        <v>-2546900</v>
       </c>
       <c r="G94" s="3">
-        <v>5436800</v>
+        <v>5564400</v>
       </c>
       <c r="H94" s="3">
-        <v>11723400</v>
+        <v>11998500</v>
       </c>
       <c r="I94" s="3">
-        <v>6118100</v>
+        <v>6261600</v>
       </c>
       <c r="J94" s="3">
-        <v>4185100</v>
+        <v>4283300</v>
       </c>
       <c r="K94" s="3">
         <v>-8376800</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2335900</v>
+        <v>-2390700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2643100</v>
+        <v>-2705100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2600200</v>
+        <v>-2661200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2557300</v>
+        <v>-2617300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2514400</v>
+        <v>-2573400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1389400</v>
+        <v>-1422000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5373000</v>
+        <v>5499000</v>
       </c>
       <c r="E100" s="3">
-        <v>-34705500</v>
+        <v>-35519800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4143200</v>
+        <v>-4240400</v>
       </c>
       <c r="G100" s="3">
-        <v>15941400</v>
+        <v>16315400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3937700</v>
+        <v>-4030100</v>
       </c>
       <c r="I100" s="3">
-        <v>-19007500</v>
+        <v>-19453400</v>
       </c>
       <c r="J100" s="3">
-        <v>-11136000</v>
+        <v>-11397200</v>
       </c>
       <c r="K100" s="3">
         <v>-5265000</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-563500</v>
+        <v>-576800</v>
       </c>
       <c r="E101" s="3">
-        <v>-423900</v>
+        <v>-433800</v>
       </c>
       <c r="F101" s="3">
-        <v>94800</v>
+        <v>97000</v>
       </c>
       <c r="G101" s="3">
-        <v>203500</v>
+        <v>208200</v>
       </c>
       <c r="H101" s="3">
-        <v>259300</v>
+        <v>265400</v>
       </c>
       <c r="I101" s="3">
-        <v>154600</v>
+        <v>158200</v>
       </c>
       <c r="J101" s="3">
-        <v>-341100</v>
+        <v>-349100</v>
       </c>
       <c r="K101" s="3">
         <v>-4500</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3890900</v>
+        <v>-3982100</v>
       </c>
       <c r="E102" s="3">
-        <v>57385400</v>
+        <v>58731700</v>
       </c>
       <c r="F102" s="3">
-        <v>6484100</v>
+        <v>6636200</v>
       </c>
       <c r="G102" s="3">
-        <v>28478800</v>
+        <v>29146900</v>
       </c>
       <c r="H102" s="3">
-        <v>2805700</v>
+        <v>2871500</v>
       </c>
       <c r="I102" s="3">
-        <v>-4204000</v>
+        <v>-4302700</v>
       </c>
       <c r="J102" s="3">
-        <v>3257500</v>
+        <v>3333900</v>
       </c>
       <c r="K102" s="3">
         <v>-75600</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21553200</v>
+        <v>30121300</v>
       </c>
       <c r="E8" s="3">
-        <v>23170100</v>
+        <v>22338600</v>
       </c>
       <c r="F8" s="3">
-        <v>29045800</v>
+        <v>24014500</v>
       </c>
       <c r="G8" s="3">
-        <v>28733500</v>
+        <v>30104300</v>
       </c>
       <c r="H8" s="3">
-        <v>44980500</v>
+        <v>29780600</v>
       </c>
       <c r="I8" s="3">
-        <v>45101000</v>
+        <v>46619700</v>
       </c>
       <c r="J8" s="3">
+        <v>46744600</v>
+      </c>
+      <c r="K8" s="3">
         <v>47284500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54387600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61505000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65900900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79429400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,9 +802,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +844,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +946,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,48 +988,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-851300</v>
+        <v>-752200</v>
       </c>
       <c r="E15" s="3">
-        <v>-846200</v>
+        <v>-882400</v>
       </c>
       <c r="F15" s="3">
-        <v>-804400</v>
+        <v>-877100</v>
       </c>
       <c r="G15" s="3">
-        <v>-740100</v>
+        <v>-833700</v>
       </c>
       <c r="H15" s="3">
-        <v>-707400</v>
+        <v>-767100</v>
       </c>
       <c r="I15" s="3">
-        <v>-547100</v>
+        <v>-733200</v>
       </c>
       <c r="J15" s="3">
+        <v>-567100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-627800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-650400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-724900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-715900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1015300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8181700</v>
+        <v>17536400</v>
       </c>
       <c r="E17" s="3">
-        <v>12013800</v>
+        <v>8479900</v>
       </c>
       <c r="F17" s="3">
-        <v>16860600</v>
+        <v>12451600</v>
       </c>
       <c r="G17" s="3">
-        <v>15197700</v>
+        <v>16394800</v>
       </c>
       <c r="H17" s="3">
-        <v>31671300</v>
+        <v>15751500</v>
       </c>
       <c r="I17" s="3">
-        <v>32578800</v>
+        <v>32825500</v>
       </c>
       <c r="J17" s="3">
+        <v>33766100</v>
+      </c>
+      <c r="K17" s="3">
         <v>35837200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42295000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50218900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55167900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62059300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13371500</v>
+        <v>12584900</v>
       </c>
       <c r="E18" s="3">
-        <v>11156300</v>
+        <v>13858700</v>
       </c>
       <c r="F18" s="3">
-        <v>12185300</v>
+        <v>11562900</v>
       </c>
       <c r="G18" s="3">
-        <v>13535800</v>
+        <v>13709600</v>
       </c>
       <c r="H18" s="3">
-        <v>13309200</v>
+        <v>14029100</v>
       </c>
       <c r="I18" s="3">
-        <v>12522200</v>
+        <v>13794200</v>
       </c>
       <c r="J18" s="3">
+        <v>12978500</v>
+      </c>
+      <c r="K18" s="3">
         <v>11447300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12092700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11286100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10733000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17370000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,86 +1150,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6448400</v>
+        <v>-6763800</v>
       </c>
       <c r="E20" s="3">
-        <v>-7268100</v>
+        <v>-6683400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5209100</v>
+        <v>-7533000</v>
       </c>
       <c r="G20" s="3">
-        <v>-6555600</v>
+        <v>-6479200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5890000</v>
+        <v>-6794500</v>
       </c>
       <c r="I20" s="3">
-        <v>-6496400</v>
+        <v>-6104700</v>
       </c>
       <c r="J20" s="3">
+        <v>-6733100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5146900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7907100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4141200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7016200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11411800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7758000</v>
+        <v>6695200</v>
       </c>
       <c r="E21" s="3">
-        <v>4718100</v>
+        <v>8007300</v>
       </c>
       <c r="F21" s="3">
-        <v>7766000</v>
+        <v>4578200</v>
       </c>
       <c r="G21" s="3">
-        <v>7500800</v>
+        <v>7778700</v>
       </c>
       <c r="H21" s="3">
-        <v>7939700</v>
+        <v>7799800</v>
       </c>
       <c r="I21" s="3">
-        <v>6562400</v>
-      </c>
-      <c r="J21" s="3">
+        <v>8358000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>6935100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4968700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8056200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>7736600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,87 +1273,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6923100</v>
+        <v>5821100</v>
       </c>
       <c r="E23" s="3">
-        <v>3888200</v>
+        <v>7175400</v>
       </c>
       <c r="F23" s="3">
-        <v>6976100</v>
+        <v>4029900</v>
       </c>
       <c r="G23" s="3">
-        <v>6980200</v>
+        <v>7230400</v>
       </c>
       <c r="H23" s="3">
-        <v>7419200</v>
+        <v>7234600</v>
       </c>
       <c r="I23" s="3">
-        <v>6025800</v>
+        <v>7689500</v>
       </c>
       <c r="J23" s="3">
+        <v>6245400</v>
+      </c>
+      <c r="K23" s="3">
         <v>6300400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4185600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7144900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3716700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5958300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1916000</v>
+        <v>1825100</v>
       </c>
       <c r="E24" s="3">
-        <v>1271900</v>
+        <v>1985900</v>
       </c>
       <c r="F24" s="3">
-        <v>1995700</v>
+        <v>1318300</v>
       </c>
       <c r="G24" s="3">
-        <v>2069200</v>
+        <v>2068400</v>
       </c>
       <c r="H24" s="3">
-        <v>2328400</v>
+        <v>2144600</v>
       </c>
       <c r="I24" s="3">
-        <v>1651700</v>
+        <v>2413300</v>
       </c>
       <c r="J24" s="3">
+        <v>1711800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1671000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1096400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1791900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>939900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1232500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5007000</v>
+        <v>3996100</v>
       </c>
       <c r="E26" s="3">
-        <v>2616300</v>
+        <v>5189500</v>
       </c>
       <c r="F26" s="3">
-        <v>4980500</v>
+        <v>2711700</v>
       </c>
       <c r="G26" s="3">
-        <v>4911100</v>
+        <v>5162000</v>
       </c>
       <c r="H26" s="3">
-        <v>5090700</v>
+        <v>5090000</v>
       </c>
       <c r="I26" s="3">
-        <v>4374100</v>
+        <v>5276200</v>
       </c>
       <c r="J26" s="3">
+        <v>4533500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4629300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3089200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5353000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2776800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4725800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4875300</v>
+        <v>3886000</v>
       </c>
       <c r="E27" s="3">
-        <v>2536700</v>
+        <v>5053000</v>
       </c>
       <c r="F27" s="3">
-        <v>4880400</v>
+        <v>2629100</v>
       </c>
       <c r="G27" s="3">
-        <v>4800800</v>
+        <v>5058300</v>
       </c>
       <c r="H27" s="3">
-        <v>5007000</v>
+        <v>4975800</v>
       </c>
       <c r="I27" s="3">
-        <v>4297600</v>
+        <v>5189500</v>
       </c>
       <c r="J27" s="3">
+        <v>4454200</v>
+      </c>
+      <c r="K27" s="3">
         <v>4558900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2153200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4628100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1860000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2750200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,33 +1543,36 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>450200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>466600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-465500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1587500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>592100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1405400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1753700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6448400</v>
+        <v>6763800</v>
       </c>
       <c r="E32" s="3">
-        <v>7268100</v>
+        <v>6683400</v>
       </c>
       <c r="F32" s="3">
-        <v>5209100</v>
+        <v>7533000</v>
       </c>
       <c r="G32" s="3">
-        <v>6555600</v>
+        <v>6479200</v>
       </c>
       <c r="H32" s="3">
-        <v>5890000</v>
+        <v>6794500</v>
       </c>
       <c r="I32" s="3">
-        <v>6496400</v>
+        <v>6104700</v>
       </c>
       <c r="J32" s="3">
+        <v>6733100</v>
+      </c>
+      <c r="K32" s="3">
         <v>5146900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7907100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4141200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7016200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11411800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4875300</v>
+        <v>3886000</v>
       </c>
       <c r="E33" s="3">
-        <v>2536700</v>
+        <v>5053000</v>
       </c>
       <c r="F33" s="3">
-        <v>4880400</v>
+        <v>2629100</v>
       </c>
       <c r="G33" s="3">
-        <v>4800800</v>
+        <v>5058300</v>
       </c>
       <c r="H33" s="3">
-        <v>5007000</v>
+        <v>4975800</v>
       </c>
       <c r="I33" s="3">
-        <v>4747700</v>
+        <v>5189500</v>
       </c>
       <c r="J33" s="3">
+        <v>4920800</v>
+      </c>
+      <c r="K33" s="3">
         <v>4093400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>565700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5220200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3265500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4503900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4875300</v>
+        <v>3886000</v>
       </c>
       <c r="E35" s="3">
-        <v>2536700</v>
+        <v>5053000</v>
       </c>
       <c r="F35" s="3">
-        <v>4880400</v>
+        <v>2629100</v>
       </c>
       <c r="G35" s="3">
-        <v>4800800</v>
+        <v>5058300</v>
       </c>
       <c r="H35" s="3">
-        <v>5007000</v>
+        <v>4975800</v>
       </c>
       <c r="I35" s="3">
-        <v>4747700</v>
+        <v>5189500</v>
       </c>
       <c r="J35" s="3">
+        <v>4920800</v>
+      </c>
+      <c r="K35" s="3">
         <v>4093400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>565700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5220200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3265500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4503900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,86 +1905,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132818000</v>
+        <v>129836000</v>
       </c>
       <c r="E41" s="3">
-        <v>139289000</v>
+        <v>137659000</v>
       </c>
       <c r="F41" s="3">
-        <v>90175400</v>
+        <v>144365000</v>
       </c>
       <c r="G41" s="3">
-        <v>82081500</v>
+        <v>93461600</v>
       </c>
       <c r="H41" s="3">
-        <v>51856600</v>
+        <v>85072700</v>
       </c>
       <c r="I41" s="3">
-        <v>47979600</v>
+        <v>53746400</v>
       </c>
       <c r="J41" s="3">
+        <v>49728100</v>
+      </c>
+      <c r="K41" s="3">
         <v>105032000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111447000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134721000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143923000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126432000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104932000</v>
+        <v>121045000</v>
       </c>
       <c r="E42" s="3">
-        <v>106598000</v>
+        <v>108756000</v>
       </c>
       <c r="F42" s="3">
-        <v>98187700</v>
+        <v>110483000</v>
       </c>
       <c r="G42" s="3">
-        <v>122992000</v>
+        <v>101766000</v>
       </c>
       <c r="H42" s="3">
-        <v>125784000</v>
+        <v>127474000</v>
       </c>
       <c r="I42" s="3">
-        <v>124633000</v>
+        <v>130368000</v>
       </c>
       <c r="J42" s="3">
+        <v>129174000</v>
+      </c>
+      <c r="K42" s="3">
         <v>140919000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>162702000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>395158000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>256626000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>308386000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1935,9 +2028,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2070,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2013,9 +2112,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2052,126 +2154,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1620000</v>
+        <v>1587000</v>
       </c>
       <c r="E47" s="3">
-        <v>1505700</v>
+        <v>1679000</v>
       </c>
       <c r="F47" s="3">
-        <v>1827200</v>
+        <v>1560600</v>
       </c>
       <c r="G47" s="3">
-        <v>1228000</v>
+        <v>1893800</v>
       </c>
       <c r="H47" s="3">
-        <v>1110600</v>
+        <v>1272800</v>
       </c>
       <c r="I47" s="3">
-        <v>1164700</v>
+        <v>1151100</v>
       </c>
       <c r="J47" s="3">
+        <v>1207200</v>
+      </c>
+      <c r="K47" s="3">
         <v>982000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1076000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2418700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7928700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9163900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2593900</v>
+        <v>2606900</v>
       </c>
       <c r="E48" s="3">
-        <v>2920500</v>
+        <v>2688400</v>
       </c>
       <c r="F48" s="3">
-        <v>3284900</v>
+        <v>3026900</v>
       </c>
       <c r="G48" s="3">
-        <v>1748600</v>
+        <v>3404600</v>
       </c>
       <c r="H48" s="3">
-        <v>1904800</v>
+        <v>1812400</v>
       </c>
       <c r="I48" s="3">
-        <v>2043600</v>
+        <v>1974200</v>
       </c>
       <c r="J48" s="3">
+        <v>2118100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4216900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4832500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7103000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11519100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10695800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1180000</v>
+        <v>1165900</v>
       </c>
       <c r="E49" s="3">
-        <v>1423000</v>
+        <v>1223000</v>
       </c>
       <c r="F49" s="3">
-        <v>1955900</v>
+        <v>1474900</v>
       </c>
       <c r="G49" s="3">
-        <v>1877300</v>
+        <v>2027100</v>
       </c>
       <c r="H49" s="3">
-        <v>1499600</v>
+        <v>1945700</v>
       </c>
       <c r="I49" s="3">
-        <v>1514900</v>
+        <v>1554200</v>
       </c>
       <c r="J49" s="3">
+        <v>1570100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2620400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5520200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2418700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8692900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8352800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1776200</v>
+        <v>2553000</v>
       </c>
       <c r="E52" s="3">
-        <v>1529200</v>
+        <v>1840900</v>
       </c>
       <c r="F52" s="3">
-        <v>1468900</v>
+        <v>1584900</v>
       </c>
       <c r="G52" s="3">
-        <v>2684700</v>
+        <v>1522500</v>
       </c>
       <c r="H52" s="3">
-        <v>1388300</v>
+        <v>2782500</v>
       </c>
       <c r="I52" s="3">
-        <v>942200</v>
+        <v>1438900</v>
       </c>
       <c r="J52" s="3">
+        <v>976500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3685100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>188860000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>190519000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84463700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91383500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>971077000</v>
+        <v>1023950000</v>
       </c>
       <c r="E54" s="3">
-        <v>956770000</v>
+        <v>1006460000</v>
       </c>
       <c r="F54" s="3">
-        <v>910292000</v>
+        <v>991637000</v>
       </c>
       <c r="G54" s="3">
-        <v>905480000</v>
+        <v>943465000</v>
       </c>
       <c r="H54" s="3">
-        <v>863817000</v>
+        <v>938478000</v>
       </c>
       <c r="I54" s="3">
-        <v>862659000</v>
+        <v>895297000</v>
       </c>
       <c r="J54" s="3">
+        <v>894096000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1026140000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1330820000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1287850000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1271540000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1495710000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,125 +2529,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2077300</v>
+        <v>2164700</v>
       </c>
       <c r="E57" s="3">
-        <v>2075300</v>
+        <v>2153000</v>
       </c>
       <c r="F57" s="3">
-        <v>2164100</v>
+        <v>2150900</v>
       </c>
       <c r="G57" s="3">
-        <v>2381500</v>
+        <v>2243000</v>
       </c>
       <c r="H57" s="3">
-        <v>6334100</v>
+        <v>2468300</v>
       </c>
       <c r="I57" s="3">
-        <v>4485400</v>
+        <v>6564900</v>
       </c>
       <c r="J57" s="3">
+        <v>4648900</v>
+      </c>
+      <c r="K57" s="3">
         <v>5263200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6483300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9421300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11604800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13731200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38958800</v>
+        <v>39574500</v>
       </c>
       <c r="E58" s="3">
-        <v>27805600</v>
+        <v>40378600</v>
       </c>
       <c r="F58" s="3">
-        <v>52886600</v>
+        <v>28818900</v>
       </c>
       <c r="G58" s="3">
-        <v>56459400</v>
+        <v>54813900</v>
       </c>
       <c r="H58" s="3">
-        <v>45310200</v>
+        <v>58516900</v>
       </c>
       <c r="I58" s="3">
-        <v>41328100</v>
+        <v>46961400</v>
       </c>
       <c r="J58" s="3">
+        <v>42834200</v>
+      </c>
+      <c r="K58" s="3">
         <v>52276200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>61522400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63118700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>113681000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1318900</v>
+        <v>1399700</v>
       </c>
       <c r="E59" s="3">
-        <v>1293400</v>
+        <v>1366900</v>
       </c>
       <c r="F59" s="3">
-        <v>1553700</v>
+        <v>1340500</v>
       </c>
       <c r="G59" s="3">
-        <v>1733300</v>
+        <v>1610300</v>
       </c>
       <c r="H59" s="3">
-        <v>1769000</v>
+        <v>1796500</v>
       </c>
       <c r="I59" s="3">
-        <v>1062700</v>
+        <v>1833500</v>
       </c>
       <c r="J59" s="3">
+        <v>1101400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1179000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1167500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1522800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14712100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16799600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,87 +2694,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73042300</v>
+        <v>79850400</v>
       </c>
       <c r="E61" s="3">
-        <v>73467000</v>
+        <v>75704100</v>
       </c>
       <c r="F61" s="3">
-        <v>86578100</v>
+        <v>76144300</v>
       </c>
       <c r="G61" s="3">
-        <v>79791900</v>
+        <v>89733200</v>
       </c>
       <c r="H61" s="3">
-        <v>69074500</v>
+        <v>82699600</v>
       </c>
       <c r="I61" s="3">
-        <v>81634400</v>
+        <v>71591700</v>
       </c>
       <c r="J61" s="3">
+        <v>84609300</v>
+      </c>
+      <c r="K61" s="3">
         <v>88288000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>163166000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>114304000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>185502000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>197673000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1936500</v>
+        <v>1562700</v>
       </c>
       <c r="E62" s="3">
-        <v>1743500</v>
+        <v>2007000</v>
       </c>
       <c r="F62" s="3">
-        <v>1990600</v>
+        <v>1807100</v>
       </c>
       <c r="G62" s="3">
-        <v>2192700</v>
+        <v>2063100</v>
       </c>
       <c r="H62" s="3">
-        <v>3091000</v>
+        <v>2272600</v>
       </c>
       <c r="I62" s="3">
-        <v>3540100</v>
+        <v>3203600</v>
       </c>
       <c r="J62" s="3">
+        <v>3669100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2148800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3208900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>624400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5090300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7349200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>916037000</v>
+        <v>971147000</v>
       </c>
       <c r="E66" s="3">
-        <v>900997000</v>
+        <v>949420000</v>
       </c>
       <c r="F66" s="3">
-        <v>855405000</v>
+        <v>933831000</v>
       </c>
       <c r="G66" s="3">
-        <v>853489000</v>
+        <v>886578000</v>
       </c>
       <c r="H66" s="3">
-        <v>812363000</v>
+        <v>884592000</v>
       </c>
       <c r="I66" s="3">
-        <v>811830000</v>
+        <v>841967000</v>
       </c>
       <c r="J66" s="3">
+        <v>841415000</v>
+      </c>
+      <c r="K66" s="3">
         <v>977315000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1272850000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1235490000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1218060000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1441920000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41579200</v>
+        <v>40783800</v>
       </c>
       <c r="E72" s="3">
-        <v>39224200</v>
+        <v>43094500</v>
       </c>
       <c r="F72" s="3">
-        <v>36597700</v>
+        <v>40653700</v>
       </c>
       <c r="G72" s="3">
-        <v>33889500</v>
+        <v>37931400</v>
       </c>
       <c r="H72" s="3">
-        <v>32181700</v>
+        <v>35124500</v>
       </c>
       <c r="I72" s="3">
-        <v>29748200</v>
+        <v>33354500</v>
       </c>
       <c r="J72" s="3">
+        <v>30832200</v>
+      </c>
+      <c r="K72" s="3">
         <v>27381900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27824400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24640500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43774000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46677700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55039500</v>
+        <v>52803700</v>
       </c>
       <c r="E76" s="3">
-        <v>55773400</v>
+        <v>57045200</v>
       </c>
       <c r="F76" s="3">
-        <v>54887400</v>
+        <v>57805900</v>
       </c>
       <c r="G76" s="3">
-        <v>51991400</v>
+        <v>56887600</v>
       </c>
       <c r="H76" s="3">
-        <v>51454400</v>
+        <v>53886100</v>
       </c>
       <c r="I76" s="3">
-        <v>50828700</v>
+        <v>53329500</v>
       </c>
       <c r="J76" s="3">
+        <v>52681000</v>
+      </c>
+      <c r="K76" s="3">
         <v>48826900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57972500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52363700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53480300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53792200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4875300</v>
+        <v>3886000</v>
       </c>
       <c r="E81" s="3">
-        <v>2536700</v>
+        <v>5053000</v>
       </c>
       <c r="F81" s="3">
-        <v>4880400</v>
+        <v>2629100</v>
       </c>
       <c r="G81" s="3">
-        <v>4800800</v>
+        <v>5058300</v>
       </c>
       <c r="H81" s="3">
-        <v>5007000</v>
+        <v>4975800</v>
       </c>
       <c r="I81" s="3">
-        <v>4747700</v>
+        <v>5189500</v>
       </c>
       <c r="J81" s="3">
+        <v>4920800</v>
+      </c>
+      <c r="K81" s="3">
         <v>4093400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>565700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5220200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3265500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4503900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>851300</v>
+        <v>752200</v>
       </c>
       <c r="E83" s="3">
-        <v>846200</v>
+        <v>882400</v>
       </c>
       <c r="F83" s="3">
-        <v>805400</v>
+        <v>877100</v>
       </c>
       <c r="G83" s="3">
-        <v>530800</v>
+        <v>834800</v>
       </c>
       <c r="H83" s="3">
-        <v>530800</v>
+        <v>550200</v>
       </c>
       <c r="I83" s="3">
-        <v>547100</v>
+        <v>550200</v>
       </c>
       <c r="J83" s="3">
+        <v>567100</v>
+      </c>
+      <c r="K83" s="3">
         <v>647200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>781300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>915100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1777100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-15253800</v>
+        <v>-11756500</v>
       </c>
       <c r="E89" s="3">
-        <v>103348900</v>
+        <v>-15809700</v>
       </c>
       <c r="F89" s="3">
-        <v>13326500</v>
+        <v>107115100</v>
       </c>
       <c r="G89" s="3">
-        <v>7058800</v>
+        <v>13812200</v>
       </c>
       <c r="H89" s="3">
-        <v>-5362300</v>
+        <v>7316100</v>
       </c>
       <c r="I89" s="3">
-        <v>8730900</v>
+        <v>-5557700</v>
       </c>
       <c r="J89" s="3">
+        <v>9049100</v>
+      </c>
+      <c r="K89" s="3">
         <v>10797000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13570700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10069600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10167500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16596500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187800</v>
+        <v>-244400</v>
       </c>
       <c r="E91" s="3">
-        <v>-293000</v>
+        <v>-194700</v>
       </c>
       <c r="F91" s="3">
-        <v>-362400</v>
+        <v>-303600</v>
       </c>
       <c r="G91" s="3">
-        <v>-291900</v>
+        <v>-375600</v>
       </c>
       <c r="H91" s="3">
-        <v>-310300</v>
+        <v>-302600</v>
       </c>
       <c r="I91" s="3">
-        <v>-423600</v>
+        <v>-321600</v>
       </c>
       <c r="J91" s="3">
+        <v>-439100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-398100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-461800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-562200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-464500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1980200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6349400</v>
+        <v>-5614800</v>
       </c>
       <c r="E94" s="3">
-        <v>-8663500</v>
+        <v>6580800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2546900</v>
+        <v>-8979200</v>
       </c>
       <c r="G94" s="3">
-        <v>5564400</v>
+        <v>-2639700</v>
       </c>
       <c r="H94" s="3">
-        <v>11998500</v>
+        <v>5767200</v>
       </c>
       <c r="I94" s="3">
-        <v>6261600</v>
+        <v>12435700</v>
       </c>
       <c r="J94" s="3">
+        <v>6489800</v>
+      </c>
+      <c r="K94" s="3">
         <v>4283300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8376800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11087600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>7634500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,35 +3992,36 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2390700</v>
+        <v>-3229000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2477800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2705100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2661200</v>
+        <v>-2803700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2617300</v>
+        <v>-2758200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2573400</v>
+        <v>-2712700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2667200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1422000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3797,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5499000</v>
+        <v>4918600</v>
       </c>
       <c r="E100" s="3">
-        <v>-35519800</v>
+        <v>5699400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4240400</v>
+        <v>-36814200</v>
       </c>
       <c r="G100" s="3">
-        <v>16315400</v>
+        <v>-4394900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4030100</v>
+        <v>16910000</v>
       </c>
       <c r="I100" s="3">
-        <v>-19453400</v>
+        <v>-4177000</v>
       </c>
       <c r="J100" s="3">
+        <v>-20162300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11397200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5265000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10410500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-8135700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-576800</v>
+        <v>-533200</v>
       </c>
       <c r="E101" s="3">
-        <v>-433800</v>
+        <v>-597800</v>
       </c>
       <c r="F101" s="3">
-        <v>97000</v>
+        <v>-449700</v>
       </c>
       <c r="G101" s="3">
-        <v>208200</v>
+        <v>100500</v>
       </c>
       <c r="H101" s="3">
-        <v>265400</v>
+        <v>215800</v>
       </c>
       <c r="I101" s="3">
-        <v>158200</v>
+        <v>275100</v>
       </c>
       <c r="J101" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-349100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1055000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-234800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3982100</v>
+        <v>-12985900</v>
       </c>
       <c r="E102" s="3">
-        <v>58731700</v>
+        <v>-4127300</v>
       </c>
       <c r="F102" s="3">
-        <v>6636200</v>
+        <v>60872000</v>
       </c>
       <c r="G102" s="3">
-        <v>29146900</v>
+        <v>6878100</v>
       </c>
       <c r="H102" s="3">
-        <v>2871500</v>
+        <v>30209100</v>
       </c>
       <c r="I102" s="3">
-        <v>-4302700</v>
+        <v>2976200</v>
       </c>
       <c r="J102" s="3">
+        <v>-4459500</v>
+      </c>
+      <c r="K102" s="3">
         <v>3333900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-75600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8337500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11122700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15860500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30121300</v>
+        <v>30659300</v>
       </c>
       <c r="E8" s="3">
-        <v>22338600</v>
+        <v>22737700</v>
       </c>
       <c r="F8" s="3">
-        <v>24014500</v>
+        <v>24443500</v>
       </c>
       <c r="G8" s="3">
-        <v>30104300</v>
+        <v>30642100</v>
       </c>
       <c r="H8" s="3">
-        <v>29780600</v>
+        <v>30312600</v>
       </c>
       <c r="I8" s="3">
-        <v>46619700</v>
+        <v>47452500</v>
       </c>
       <c r="J8" s="3">
-        <v>46744600</v>
+        <v>47579600</v>
       </c>
       <c r="K8" s="3">
         <v>47284500</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-752200</v>
+        <v>-765700</v>
       </c>
       <c r="E15" s="3">
-        <v>-882400</v>
+        <v>-898100</v>
       </c>
       <c r="F15" s="3">
-        <v>-877100</v>
+        <v>-892800</v>
       </c>
       <c r="G15" s="3">
-        <v>-833700</v>
+        <v>-848600</v>
       </c>
       <c r="H15" s="3">
-        <v>-767100</v>
+        <v>-780800</v>
       </c>
       <c r="I15" s="3">
-        <v>-733200</v>
+        <v>-746300</v>
       </c>
       <c r="J15" s="3">
-        <v>-567100</v>
+        <v>-577200</v>
       </c>
       <c r="K15" s="3">
         <v>-627800</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17536400</v>
+        <v>17849600</v>
       </c>
       <c r="E17" s="3">
-        <v>8479900</v>
+        <v>8631400</v>
       </c>
       <c r="F17" s="3">
-        <v>12451600</v>
+        <v>12674000</v>
       </c>
       <c r="G17" s="3">
-        <v>16394800</v>
+        <v>16687600</v>
       </c>
       <c r="H17" s="3">
-        <v>15751500</v>
+        <v>16032900</v>
       </c>
       <c r="I17" s="3">
-        <v>32825500</v>
+        <v>33411900</v>
       </c>
       <c r="J17" s="3">
-        <v>33766100</v>
+        <v>34369300</v>
       </c>
       <c r="K17" s="3">
         <v>35837200</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12584900</v>
+        <v>12809700</v>
       </c>
       <c r="E18" s="3">
-        <v>13858700</v>
+        <v>14106300</v>
       </c>
       <c r="F18" s="3">
-        <v>11562900</v>
+        <v>11769400</v>
       </c>
       <c r="G18" s="3">
-        <v>13709600</v>
+        <v>13954500</v>
       </c>
       <c r="H18" s="3">
-        <v>14029100</v>
+        <v>14279700</v>
       </c>
       <c r="I18" s="3">
-        <v>13794200</v>
+        <v>14040600</v>
       </c>
       <c r="J18" s="3">
-        <v>12978500</v>
+        <v>13210300</v>
       </c>
       <c r="K18" s="3">
         <v>11447300</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6763800</v>
+        <v>-6884600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6683400</v>
+        <v>-6802800</v>
       </c>
       <c r="F20" s="3">
-        <v>-7533000</v>
+        <v>-7667500</v>
       </c>
       <c r="G20" s="3">
-        <v>-6479200</v>
+        <v>-6594900</v>
       </c>
       <c r="H20" s="3">
-        <v>-6794500</v>
+        <v>-6915900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6104700</v>
+        <v>-6213700</v>
       </c>
       <c r="J20" s="3">
-        <v>-6733100</v>
+        <v>-6853400</v>
       </c>
       <c r="K20" s="3">
         <v>-5146900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6695200</v>
+        <v>6695800</v>
       </c>
       <c r="E21" s="3">
-        <v>8007300</v>
+        <v>8207500</v>
       </c>
       <c r="F21" s="3">
-        <v>4578200</v>
+        <v>5000500</v>
       </c>
       <c r="G21" s="3">
-        <v>7778700</v>
+        <v>8214700</v>
       </c>
       <c r="H21" s="3">
-        <v>7799800</v>
+        <v>7927500</v>
       </c>
       <c r="I21" s="3">
-        <v>8358000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>8390500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6937900</v>
       </c>
       <c r="K21" s="3">
         <v>6935100</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5821100</v>
+        <v>5925100</v>
       </c>
       <c r="E23" s="3">
-        <v>7175400</v>
+        <v>7303500</v>
       </c>
       <c r="F23" s="3">
-        <v>4029900</v>
+        <v>4101900</v>
       </c>
       <c r="G23" s="3">
-        <v>7230400</v>
+        <v>7359500</v>
       </c>
       <c r="H23" s="3">
-        <v>7234600</v>
+        <v>7363800</v>
       </c>
       <c r="I23" s="3">
-        <v>7689500</v>
+        <v>7826900</v>
       </c>
       <c r="J23" s="3">
-        <v>6245400</v>
+        <v>6356900</v>
       </c>
       <c r="K23" s="3">
         <v>6300400</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1825100</v>
+        <v>1857700</v>
       </c>
       <c r="E24" s="3">
-        <v>1985900</v>
+        <v>2021300</v>
       </c>
       <c r="F24" s="3">
-        <v>1318300</v>
+        <v>1341800</v>
       </c>
       <c r="G24" s="3">
-        <v>2068400</v>
+        <v>2105300</v>
       </c>
       <c r="H24" s="3">
-        <v>2144600</v>
+        <v>2182900</v>
       </c>
       <c r="I24" s="3">
-        <v>2413300</v>
+        <v>2456400</v>
       </c>
       <c r="J24" s="3">
-        <v>1711800</v>
+        <v>1742400</v>
       </c>
       <c r="K24" s="3">
         <v>1671000</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3996100</v>
+        <v>4067500</v>
       </c>
       <c r="E26" s="3">
-        <v>5189500</v>
+        <v>5282200</v>
       </c>
       <c r="F26" s="3">
-        <v>2711700</v>
+        <v>2760100</v>
       </c>
       <c r="G26" s="3">
-        <v>5162000</v>
+        <v>5254200</v>
       </c>
       <c r="H26" s="3">
-        <v>5090000</v>
+        <v>5181000</v>
       </c>
       <c r="I26" s="3">
-        <v>5276200</v>
+        <v>5370500</v>
       </c>
       <c r="J26" s="3">
-        <v>4533500</v>
+        <v>4614500</v>
       </c>
       <c r="K26" s="3">
         <v>4629300</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3886000</v>
+        <v>3955500</v>
       </c>
       <c r="E27" s="3">
-        <v>5053000</v>
+        <v>5143300</v>
       </c>
       <c r="F27" s="3">
-        <v>2629100</v>
+        <v>2676100</v>
       </c>
       <c r="G27" s="3">
-        <v>5058300</v>
+        <v>5148700</v>
       </c>
       <c r="H27" s="3">
-        <v>4975800</v>
+        <v>5064700</v>
       </c>
       <c r="I27" s="3">
-        <v>5189500</v>
+        <v>5282200</v>
       </c>
       <c r="J27" s="3">
-        <v>4454200</v>
+        <v>4533700</v>
       </c>
       <c r="K27" s="3">
         <v>4558900</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>466600</v>
+        <v>474900</v>
       </c>
       <c r="K29" s="3">
         <v>-465500</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6763800</v>
+        <v>6884600</v>
       </c>
       <c r="E32" s="3">
-        <v>6683400</v>
+        <v>6802800</v>
       </c>
       <c r="F32" s="3">
-        <v>7533000</v>
+        <v>7667500</v>
       </c>
       <c r="G32" s="3">
-        <v>6479200</v>
+        <v>6594900</v>
       </c>
       <c r="H32" s="3">
-        <v>6794500</v>
+        <v>6915900</v>
       </c>
       <c r="I32" s="3">
-        <v>6104700</v>
+        <v>6213700</v>
       </c>
       <c r="J32" s="3">
-        <v>6733100</v>
+        <v>6853400</v>
       </c>
       <c r="K32" s="3">
         <v>5146900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3886000</v>
+        <v>3955500</v>
       </c>
       <c r="E33" s="3">
-        <v>5053000</v>
+        <v>5143300</v>
       </c>
       <c r="F33" s="3">
-        <v>2629100</v>
+        <v>2676100</v>
       </c>
       <c r="G33" s="3">
-        <v>5058300</v>
+        <v>5148700</v>
       </c>
       <c r="H33" s="3">
-        <v>4975800</v>
+        <v>5064700</v>
       </c>
       <c r="I33" s="3">
-        <v>5189500</v>
+        <v>5282200</v>
       </c>
       <c r="J33" s="3">
-        <v>4920800</v>
+        <v>5008700</v>
       </c>
       <c r="K33" s="3">
         <v>4093400</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3886000</v>
+        <v>3955500</v>
       </c>
       <c r="E35" s="3">
-        <v>5053000</v>
+        <v>5143300</v>
       </c>
       <c r="F35" s="3">
-        <v>2629100</v>
+        <v>2676100</v>
       </c>
       <c r="G35" s="3">
-        <v>5058300</v>
+        <v>5148700</v>
       </c>
       <c r="H35" s="3">
-        <v>4975800</v>
+        <v>5064700</v>
       </c>
       <c r="I35" s="3">
-        <v>5189500</v>
+        <v>5282200</v>
       </c>
       <c r="J35" s="3">
-        <v>4920800</v>
+        <v>5008700</v>
       </c>
       <c r="K35" s="3">
         <v>4093400</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129836000</v>
+        <v>132155000</v>
       </c>
       <c r="E41" s="3">
-        <v>137659000</v>
+        <v>140118000</v>
       </c>
       <c r="F41" s="3">
-        <v>144365000</v>
+        <v>146944000</v>
       </c>
       <c r="G41" s="3">
-        <v>93461600</v>
+        <v>95131200</v>
       </c>
       <c r="H41" s="3">
-        <v>85072700</v>
+        <v>86592500</v>
       </c>
       <c r="I41" s="3">
-        <v>53746400</v>
+        <v>54706500</v>
       </c>
       <c r="J41" s="3">
-        <v>49728100</v>
+        <v>50616500</v>
       </c>
       <c r="K41" s="3">
         <v>105032000</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>121045000</v>
+        <v>123207000</v>
       </c>
       <c r="E42" s="3">
-        <v>108756000</v>
+        <v>110699000</v>
       </c>
       <c r="F42" s="3">
-        <v>110483000</v>
+        <v>112456000</v>
       </c>
       <c r="G42" s="3">
-        <v>101766000</v>
+        <v>103584000</v>
       </c>
       <c r="H42" s="3">
-        <v>127474000</v>
+        <v>129751000</v>
       </c>
       <c r="I42" s="3">
-        <v>130368000</v>
+        <v>132697000</v>
       </c>
       <c r="J42" s="3">
-        <v>129174000</v>
+        <v>131482000</v>
       </c>
       <c r="K42" s="3">
         <v>140919000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1587000</v>
+        <v>1615300</v>
       </c>
       <c r="E47" s="3">
-        <v>1679000</v>
+        <v>1709000</v>
       </c>
       <c r="F47" s="3">
-        <v>1560600</v>
+        <v>1588400</v>
       </c>
       <c r="G47" s="3">
-        <v>1893800</v>
+        <v>1927700</v>
       </c>
       <c r="H47" s="3">
-        <v>1272800</v>
+        <v>1295500</v>
       </c>
       <c r="I47" s="3">
-        <v>1151100</v>
+        <v>1171700</v>
       </c>
       <c r="J47" s="3">
-        <v>1207200</v>
+        <v>1228700</v>
       </c>
       <c r="K47" s="3">
         <v>982000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2606900</v>
+        <v>2653500</v>
       </c>
       <c r="E48" s="3">
-        <v>2688400</v>
+        <v>2736400</v>
       </c>
       <c r="F48" s="3">
-        <v>3026900</v>
+        <v>3081000</v>
       </c>
       <c r="G48" s="3">
-        <v>3404600</v>
+        <v>3465500</v>
       </c>
       <c r="H48" s="3">
-        <v>1812400</v>
+        <v>1844700</v>
       </c>
       <c r="I48" s="3">
-        <v>1974200</v>
+        <v>2009500</v>
       </c>
       <c r="J48" s="3">
-        <v>2118100</v>
+        <v>2156000</v>
       </c>
       <c r="K48" s="3">
         <v>4216900</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1165900</v>
+        <v>1186700</v>
       </c>
       <c r="E49" s="3">
-        <v>1223000</v>
+        <v>1244900</v>
       </c>
       <c r="F49" s="3">
-        <v>1474900</v>
+        <v>1501200</v>
       </c>
       <c r="G49" s="3">
-        <v>2027100</v>
+        <v>2063300</v>
       </c>
       <c r="H49" s="3">
-        <v>1945700</v>
+        <v>1980400</v>
       </c>
       <c r="I49" s="3">
-        <v>1554200</v>
+        <v>1582000</v>
       </c>
       <c r="J49" s="3">
-        <v>1570100</v>
+        <v>1598100</v>
       </c>
       <c r="K49" s="3">
         <v>2620400</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2553000</v>
+        <v>2598600</v>
       </c>
       <c r="E52" s="3">
-        <v>1840900</v>
+        <v>1873800</v>
       </c>
       <c r="F52" s="3">
-        <v>1584900</v>
+        <v>1613200</v>
       </c>
       <c r="G52" s="3">
-        <v>1522500</v>
+        <v>1549700</v>
       </c>
       <c r="H52" s="3">
-        <v>2782500</v>
+        <v>2832200</v>
       </c>
       <c r="I52" s="3">
-        <v>1438900</v>
+        <v>1464600</v>
       </c>
       <c r="J52" s="3">
-        <v>976500</v>
+        <v>994000</v>
       </c>
       <c r="K52" s="3">
         <v>3685100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1023950000</v>
+        <v>1042240000</v>
       </c>
       <c r="E54" s="3">
-        <v>1006460000</v>
+        <v>1024440000</v>
       </c>
       <c r="F54" s="3">
-        <v>991637000</v>
+        <v>1009350000</v>
       </c>
       <c r="G54" s="3">
-        <v>943465000</v>
+        <v>960319000</v>
       </c>
       <c r="H54" s="3">
-        <v>938478000</v>
+        <v>955243000</v>
       </c>
       <c r="I54" s="3">
-        <v>895297000</v>
+        <v>911290000</v>
       </c>
       <c r="J54" s="3">
-        <v>894096000</v>
+        <v>910068000</v>
       </c>
       <c r="K54" s="3">
         <v>1026140000</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2164700</v>
+        <v>2203300</v>
       </c>
       <c r="E57" s="3">
-        <v>2153000</v>
+        <v>2191500</v>
       </c>
       <c r="F57" s="3">
-        <v>2150900</v>
+        <v>2189300</v>
       </c>
       <c r="G57" s="3">
-        <v>2243000</v>
+        <v>2283000</v>
       </c>
       <c r="H57" s="3">
-        <v>2468300</v>
+        <v>2512400</v>
       </c>
       <c r="I57" s="3">
-        <v>6564900</v>
+        <v>6682200</v>
       </c>
       <c r="J57" s="3">
-        <v>4648900</v>
+        <v>4731900</v>
       </c>
       <c r="K57" s="3">
         <v>5263200</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39574500</v>
+        <v>40335300</v>
       </c>
       <c r="E58" s="3">
-        <v>40378600</v>
+        <v>41099900</v>
       </c>
       <c r="F58" s="3">
-        <v>28818900</v>
+        <v>29333700</v>
       </c>
       <c r="G58" s="3">
-        <v>54813900</v>
+        <v>55793100</v>
       </c>
       <c r="H58" s="3">
-        <v>58516900</v>
+        <v>59562300</v>
       </c>
       <c r="I58" s="3">
-        <v>46961400</v>
+        <v>47800400</v>
       </c>
       <c r="J58" s="3">
-        <v>42834200</v>
+        <v>43599400</v>
       </c>
       <c r="K58" s="3">
         <v>52276200</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1399700</v>
+        <v>1424700</v>
       </c>
       <c r="E59" s="3">
-        <v>1366900</v>
+        <v>1391400</v>
       </c>
       <c r="F59" s="3">
-        <v>1340500</v>
+        <v>1364400</v>
       </c>
       <c r="G59" s="3">
-        <v>1610300</v>
+        <v>1639000</v>
       </c>
       <c r="H59" s="3">
-        <v>1796500</v>
+        <v>1828600</v>
       </c>
       <c r="I59" s="3">
-        <v>1833500</v>
+        <v>1866300</v>
       </c>
       <c r="J59" s="3">
-        <v>1101400</v>
+        <v>1121100</v>
       </c>
       <c r="K59" s="3">
         <v>1179000</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>79850400</v>
+        <v>81223000</v>
       </c>
       <c r="E61" s="3">
-        <v>75704100</v>
+        <v>77056500</v>
       </c>
       <c r="F61" s="3">
-        <v>76144300</v>
+        <v>77504500</v>
       </c>
       <c r="G61" s="3">
-        <v>89733200</v>
+        <v>91336200</v>
       </c>
       <c r="H61" s="3">
-        <v>82699600</v>
+        <v>84177000</v>
       </c>
       <c r="I61" s="3">
-        <v>71591700</v>
+        <v>72870600</v>
       </c>
       <c r="J61" s="3">
-        <v>84609300</v>
+        <v>86120800</v>
       </c>
       <c r="K61" s="3">
         <v>88288000</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1562700</v>
+        <v>1590600</v>
       </c>
       <c r="E62" s="3">
-        <v>2007000</v>
+        <v>2042900</v>
       </c>
       <c r="F62" s="3">
-        <v>1807100</v>
+        <v>1839300</v>
       </c>
       <c r="G62" s="3">
-        <v>2063100</v>
+        <v>2100000</v>
       </c>
       <c r="H62" s="3">
-        <v>2272600</v>
+        <v>2313200</v>
       </c>
       <c r="I62" s="3">
-        <v>3203600</v>
+        <v>3260900</v>
       </c>
       <c r="J62" s="3">
-        <v>3669100</v>
+        <v>3734700</v>
       </c>
       <c r="K62" s="3">
         <v>2148800</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>971147000</v>
+        <v>988495000</v>
       </c>
       <c r="E66" s="3">
-        <v>949420000</v>
+        <v>966380000</v>
       </c>
       <c r="F66" s="3">
-        <v>933831000</v>
+        <v>950513000</v>
       </c>
       <c r="G66" s="3">
-        <v>886578000</v>
+        <v>902415000</v>
       </c>
       <c r="H66" s="3">
-        <v>884592000</v>
+        <v>900394000</v>
       </c>
       <c r="I66" s="3">
-        <v>841967000</v>
+        <v>857008000</v>
       </c>
       <c r="J66" s="3">
-        <v>841415000</v>
+        <v>856446000</v>
       </c>
       <c r="K66" s="3">
         <v>977315000</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40783800</v>
+        <v>41512300</v>
       </c>
       <c r="E72" s="3">
-        <v>43094500</v>
+        <v>43864300</v>
       </c>
       <c r="F72" s="3">
-        <v>40653700</v>
+        <v>41379900</v>
       </c>
       <c r="G72" s="3">
-        <v>37931400</v>
+        <v>38609000</v>
       </c>
       <c r="H72" s="3">
-        <v>35124500</v>
+        <v>35752000</v>
       </c>
       <c r="I72" s="3">
-        <v>33354500</v>
+        <v>33950300</v>
       </c>
       <c r="J72" s="3">
-        <v>30832200</v>
+        <v>31383000</v>
       </c>
       <c r="K72" s="3">
         <v>27381900</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52803700</v>
+        <v>53747000</v>
       </c>
       <c r="E76" s="3">
-        <v>57045200</v>
+        <v>58064300</v>
       </c>
       <c r="F76" s="3">
-        <v>57805900</v>
+        <v>58838600</v>
       </c>
       <c r="G76" s="3">
-        <v>56887600</v>
+        <v>57903800</v>
       </c>
       <c r="H76" s="3">
-        <v>53886100</v>
+        <v>54848700</v>
       </c>
       <c r="I76" s="3">
-        <v>53329500</v>
+        <v>54282200</v>
       </c>
       <c r="J76" s="3">
-        <v>52681000</v>
+        <v>53622100</v>
       </c>
       <c r="K76" s="3">
         <v>48826900</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3886000</v>
+        <v>3955500</v>
       </c>
       <c r="E81" s="3">
-        <v>5053000</v>
+        <v>5143300</v>
       </c>
       <c r="F81" s="3">
-        <v>2629100</v>
+        <v>2676100</v>
       </c>
       <c r="G81" s="3">
-        <v>5058300</v>
+        <v>5148700</v>
       </c>
       <c r="H81" s="3">
-        <v>4975800</v>
+        <v>5064700</v>
       </c>
       <c r="I81" s="3">
-        <v>5189500</v>
+        <v>5282200</v>
       </c>
       <c r="J81" s="3">
-        <v>4920800</v>
+        <v>5008700</v>
       </c>
       <c r="K81" s="3">
         <v>4093400</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>752200</v>
+        <v>765700</v>
       </c>
       <c r="E83" s="3">
-        <v>882400</v>
+        <v>898100</v>
       </c>
       <c r="F83" s="3">
-        <v>877100</v>
+        <v>892800</v>
       </c>
       <c r="G83" s="3">
-        <v>834800</v>
+        <v>849700</v>
       </c>
       <c r="H83" s="3">
-        <v>550200</v>
+        <v>560000</v>
       </c>
       <c r="I83" s="3">
-        <v>550200</v>
+        <v>560000</v>
       </c>
       <c r="J83" s="3">
-        <v>567100</v>
+        <v>577200</v>
       </c>
       <c r="K83" s="3">
         <v>647200</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11756500</v>
+        <v>-11966500</v>
       </c>
       <c r="E89" s="3">
-        <v>-15809700</v>
+        <v>-16092100</v>
       </c>
       <c r="F89" s="3">
-        <v>107115100</v>
+        <v>109028600</v>
       </c>
       <c r="G89" s="3">
-        <v>13812200</v>
+        <v>14058900</v>
       </c>
       <c r="H89" s="3">
-        <v>7316100</v>
+        <v>7446800</v>
       </c>
       <c r="I89" s="3">
-        <v>-5557700</v>
+        <v>-5657000</v>
       </c>
       <c r="J89" s="3">
-        <v>9049100</v>
+        <v>9210700</v>
       </c>
       <c r="K89" s="3">
         <v>10797000</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-244400</v>
+        <v>-248800</v>
       </c>
       <c r="E91" s="3">
-        <v>-194700</v>
+        <v>-198100</v>
       </c>
       <c r="F91" s="3">
-        <v>-303600</v>
+        <v>-309100</v>
       </c>
       <c r="G91" s="3">
-        <v>-375600</v>
+        <v>-382300</v>
       </c>
       <c r="H91" s="3">
-        <v>-302600</v>
+        <v>-308000</v>
       </c>
       <c r="I91" s="3">
-        <v>-321600</v>
+        <v>-327400</v>
       </c>
       <c r="J91" s="3">
-        <v>-439100</v>
+        <v>-446900</v>
       </c>
       <c r="K91" s="3">
         <v>-398100</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5614800</v>
+        <v>-5715100</v>
       </c>
       <c r="E94" s="3">
-        <v>6580800</v>
+        <v>6698300</v>
       </c>
       <c r="F94" s="3">
-        <v>-8979200</v>
+        <v>-9139700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2639700</v>
+        <v>-2686900</v>
       </c>
       <c r="H94" s="3">
-        <v>5767200</v>
+        <v>5870200</v>
       </c>
       <c r="I94" s="3">
-        <v>12435700</v>
+        <v>12657900</v>
       </c>
       <c r="J94" s="3">
-        <v>6489800</v>
+        <v>6605700</v>
       </c>
       <c r="K94" s="3">
         <v>4283300</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3229000</v>
+        <v>-3286700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2477800</v>
+        <v>-2522100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2803700</v>
+        <v>-2853800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2758200</v>
+        <v>-2807500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2712700</v>
+        <v>-2761200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2667200</v>
+        <v>-2714900</v>
       </c>
       <c r="K96" s="3">
         <v>-1422000</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4918600</v>
+        <v>5006500</v>
       </c>
       <c r="E100" s="3">
-        <v>5699400</v>
+        <v>5801300</v>
       </c>
       <c r="F100" s="3">
-        <v>-36814200</v>
+        <v>-37471800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4394900</v>
+        <v>-4473400</v>
       </c>
       <c r="H100" s="3">
-        <v>16910000</v>
+        <v>17212100</v>
       </c>
       <c r="I100" s="3">
-        <v>-4177000</v>
+        <v>-4251600</v>
       </c>
       <c r="J100" s="3">
-        <v>-20162300</v>
+        <v>-20522500</v>
       </c>
       <c r="K100" s="3">
         <v>-11397200</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-533200</v>
+        <v>-542800</v>
       </c>
       <c r="E101" s="3">
-        <v>-597800</v>
+        <v>-608400</v>
       </c>
       <c r="F101" s="3">
-        <v>-449700</v>
+        <v>-457700</v>
       </c>
       <c r="G101" s="3">
-        <v>100500</v>
+        <v>102300</v>
       </c>
       <c r="H101" s="3">
-        <v>215800</v>
+        <v>219700</v>
       </c>
       <c r="I101" s="3">
-        <v>275100</v>
+        <v>280000</v>
       </c>
       <c r="J101" s="3">
-        <v>164000</v>
+        <v>166900</v>
       </c>
       <c r="K101" s="3">
         <v>-349100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12985900</v>
+        <v>-13217900</v>
       </c>
       <c r="E102" s="3">
-        <v>-4127300</v>
+        <v>-4201000</v>
       </c>
       <c r="F102" s="3">
-        <v>60872000</v>
+        <v>61959400</v>
       </c>
       <c r="G102" s="3">
-        <v>6878100</v>
+        <v>7000900</v>
       </c>
       <c r="H102" s="3">
-        <v>30209100</v>
+        <v>30748700</v>
       </c>
       <c r="I102" s="3">
-        <v>2976200</v>
+        <v>3029300</v>
       </c>
       <c r="J102" s="3">
-        <v>-4459500</v>
+        <v>-4539100</v>
       </c>
       <c r="K102" s="3">
         <v>3333900</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30659300</v>
+        <v>30864300</v>
       </c>
       <c r="E8" s="3">
-        <v>22737700</v>
+        <v>22889700</v>
       </c>
       <c r="F8" s="3">
-        <v>24443500</v>
+        <v>24606900</v>
       </c>
       <c r="G8" s="3">
-        <v>30642100</v>
+        <v>30847000</v>
       </c>
       <c r="H8" s="3">
-        <v>30312600</v>
+        <v>30515200</v>
       </c>
       <c r="I8" s="3">
-        <v>47452500</v>
+        <v>47769800</v>
       </c>
       <c r="J8" s="3">
-        <v>47579600</v>
+        <v>47897700</v>
       </c>
       <c r="K8" s="3">
         <v>47284500</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-765700</v>
+        <v>-770800</v>
       </c>
       <c r="E15" s="3">
-        <v>-898100</v>
+        <v>-904100</v>
       </c>
       <c r="F15" s="3">
-        <v>-892800</v>
+        <v>-898700</v>
       </c>
       <c r="G15" s="3">
-        <v>-848600</v>
+        <v>-854300</v>
       </c>
       <c r="H15" s="3">
-        <v>-780800</v>
+        <v>-786000</v>
       </c>
       <c r="I15" s="3">
-        <v>-746300</v>
+        <v>-751300</v>
       </c>
       <c r="J15" s="3">
-        <v>-577200</v>
+        <v>-581100</v>
       </c>
       <c r="K15" s="3">
         <v>-627800</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17849600</v>
+        <v>17969000</v>
       </c>
       <c r="E17" s="3">
-        <v>8631400</v>
+        <v>8689100</v>
       </c>
       <c r="F17" s="3">
-        <v>12674000</v>
+        <v>12758800</v>
       </c>
       <c r="G17" s="3">
-        <v>16687600</v>
+        <v>16799200</v>
       </c>
       <c r="H17" s="3">
-        <v>16032900</v>
+        <v>16140100</v>
       </c>
       <c r="I17" s="3">
-        <v>33411900</v>
+        <v>33635300</v>
       </c>
       <c r="J17" s="3">
-        <v>34369300</v>
+        <v>34599100</v>
       </c>
       <c r="K17" s="3">
         <v>35837200</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12809700</v>
+        <v>12895400</v>
       </c>
       <c r="E18" s="3">
-        <v>14106300</v>
+        <v>14200600</v>
       </c>
       <c r="F18" s="3">
-        <v>11769400</v>
+        <v>11848100</v>
       </c>
       <c r="G18" s="3">
-        <v>13954500</v>
+        <v>14047800</v>
       </c>
       <c r="H18" s="3">
-        <v>14279700</v>
+        <v>14375200</v>
       </c>
       <c r="I18" s="3">
-        <v>14040600</v>
+        <v>14134500</v>
       </c>
       <c r="J18" s="3">
-        <v>13210300</v>
+        <v>13298700</v>
       </c>
       <c r="K18" s="3">
         <v>11447300</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6884600</v>
+        <v>-6930700</v>
       </c>
       <c r="E20" s="3">
-        <v>-6802800</v>
+        <v>-6848300</v>
       </c>
       <c r="F20" s="3">
-        <v>-7667500</v>
+        <v>-7718800</v>
       </c>
       <c r="G20" s="3">
-        <v>-6594900</v>
+        <v>-6639000</v>
       </c>
       <c r="H20" s="3">
-        <v>-6915900</v>
+        <v>-6962100</v>
       </c>
       <c r="I20" s="3">
-        <v>-6213700</v>
+        <v>-6255300</v>
       </c>
       <c r="J20" s="3">
-        <v>-6853400</v>
+        <v>-6899200</v>
       </c>
       <c r="K20" s="3">
         <v>-5146900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6695800</v>
+        <v>6735500</v>
       </c>
       <c r="E21" s="3">
-        <v>8207500</v>
+        <v>8256500</v>
       </c>
       <c r="F21" s="3">
-        <v>5000500</v>
+        <v>5028100</v>
       </c>
       <c r="G21" s="3">
-        <v>8214700</v>
+        <v>8264100</v>
       </c>
       <c r="H21" s="3">
-        <v>7927500</v>
+        <v>7976800</v>
       </c>
       <c r="I21" s="3">
-        <v>8390500</v>
+        <v>8443000</v>
       </c>
       <c r="J21" s="3">
-        <v>6937900</v>
+        <v>6980500</v>
       </c>
       <c r="K21" s="3">
         <v>6935100</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5925100</v>
+        <v>5964700</v>
       </c>
       <c r="E23" s="3">
-        <v>7303500</v>
+        <v>7352400</v>
       </c>
       <c r="F23" s="3">
-        <v>4101900</v>
+        <v>4129300</v>
       </c>
       <c r="G23" s="3">
-        <v>7359500</v>
+        <v>7408700</v>
       </c>
       <c r="H23" s="3">
-        <v>7363800</v>
+        <v>7413100</v>
       </c>
       <c r="I23" s="3">
-        <v>7826900</v>
+        <v>7879200</v>
       </c>
       <c r="J23" s="3">
-        <v>6356900</v>
+        <v>6399400</v>
       </c>
       <c r="K23" s="3">
         <v>6300400</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1857700</v>
+        <v>1870100</v>
       </c>
       <c r="E24" s="3">
-        <v>2021300</v>
+        <v>2034900</v>
       </c>
       <c r="F24" s="3">
-        <v>1341800</v>
+        <v>1350800</v>
       </c>
       <c r="G24" s="3">
-        <v>2105300</v>
+        <v>2119400</v>
       </c>
       <c r="H24" s="3">
-        <v>2182900</v>
+        <v>2197500</v>
       </c>
       <c r="I24" s="3">
-        <v>2456400</v>
+        <v>2472800</v>
       </c>
       <c r="J24" s="3">
-        <v>1742400</v>
+        <v>1754100</v>
       </c>
       <c r="K24" s="3">
         <v>1671000</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4067500</v>
+        <v>4094600</v>
       </c>
       <c r="E26" s="3">
-        <v>5282200</v>
+        <v>5317500</v>
       </c>
       <c r="F26" s="3">
-        <v>2760100</v>
+        <v>2778500</v>
       </c>
       <c r="G26" s="3">
-        <v>5254200</v>
+        <v>5289300</v>
       </c>
       <c r="H26" s="3">
-        <v>5181000</v>
+        <v>5215600</v>
       </c>
       <c r="I26" s="3">
-        <v>5370500</v>
+        <v>5406400</v>
       </c>
       <c r="J26" s="3">
-        <v>4614500</v>
+        <v>4645400</v>
       </c>
       <c r="K26" s="3">
         <v>4629300</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3955500</v>
+        <v>3981900</v>
       </c>
       <c r="E27" s="3">
-        <v>5143300</v>
+        <v>5177700</v>
       </c>
       <c r="F27" s="3">
-        <v>2676100</v>
+        <v>2694000</v>
       </c>
       <c r="G27" s="3">
-        <v>5148700</v>
+        <v>5183100</v>
       </c>
       <c r="H27" s="3">
-        <v>5064700</v>
+        <v>5098500</v>
       </c>
       <c r="I27" s="3">
-        <v>5282200</v>
+        <v>5317500</v>
       </c>
       <c r="J27" s="3">
-        <v>4533700</v>
+        <v>4564100</v>
       </c>
       <c r="K27" s="3">
         <v>4558900</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>474900</v>
+        <v>478100</v>
       </c>
       <c r="K29" s="3">
         <v>-465500</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6884600</v>
+        <v>6930700</v>
       </c>
       <c r="E32" s="3">
-        <v>6802800</v>
+        <v>6848300</v>
       </c>
       <c r="F32" s="3">
-        <v>7667500</v>
+        <v>7718800</v>
       </c>
       <c r="G32" s="3">
-        <v>6594900</v>
+        <v>6639000</v>
       </c>
       <c r="H32" s="3">
-        <v>6915900</v>
+        <v>6962100</v>
       </c>
       <c r="I32" s="3">
-        <v>6213700</v>
+        <v>6255300</v>
       </c>
       <c r="J32" s="3">
-        <v>6853400</v>
+        <v>6899200</v>
       </c>
       <c r="K32" s="3">
         <v>5146900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3955500</v>
+        <v>3981900</v>
       </c>
       <c r="E33" s="3">
-        <v>5143300</v>
+        <v>5177700</v>
       </c>
       <c r="F33" s="3">
-        <v>2676100</v>
+        <v>2694000</v>
       </c>
       <c r="G33" s="3">
-        <v>5148700</v>
+        <v>5183100</v>
       </c>
       <c r="H33" s="3">
-        <v>5064700</v>
+        <v>5098500</v>
       </c>
       <c r="I33" s="3">
-        <v>5282200</v>
+        <v>5317500</v>
       </c>
       <c r="J33" s="3">
-        <v>5008700</v>
+        <v>5042100</v>
       </c>
       <c r="K33" s="3">
         <v>4093400</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3955500</v>
+        <v>3981900</v>
       </c>
       <c r="E35" s="3">
-        <v>5143300</v>
+        <v>5177700</v>
       </c>
       <c r="F35" s="3">
-        <v>2676100</v>
+        <v>2694000</v>
       </c>
       <c r="G35" s="3">
-        <v>5148700</v>
+        <v>5183100</v>
       </c>
       <c r="H35" s="3">
-        <v>5064700</v>
+        <v>5098500</v>
       </c>
       <c r="I35" s="3">
-        <v>5282200</v>
+        <v>5317500</v>
       </c>
       <c r="J35" s="3">
-        <v>5008700</v>
+        <v>5042100</v>
       </c>
       <c r="K35" s="3">
         <v>4093400</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132155000</v>
+        <v>133039000</v>
       </c>
       <c r="E41" s="3">
-        <v>140118000</v>
+        <v>141054000</v>
       </c>
       <c r="F41" s="3">
-        <v>146944000</v>
+        <v>147927000</v>
       </c>
       <c r="G41" s="3">
-        <v>95131200</v>
+        <v>95767200</v>
       </c>
       <c r="H41" s="3">
-        <v>86592500</v>
+        <v>87171400</v>
       </c>
       <c r="I41" s="3">
-        <v>54706500</v>
+        <v>55072300</v>
       </c>
       <c r="J41" s="3">
-        <v>50616500</v>
+        <v>50954900</v>
       </c>
       <c r="K41" s="3">
         <v>105032000</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>123207000</v>
+        <v>124031000</v>
       </c>
       <c r="E42" s="3">
-        <v>110699000</v>
+        <v>111439000</v>
       </c>
       <c r="F42" s="3">
-        <v>112456000</v>
+        <v>113208000</v>
       </c>
       <c r="G42" s="3">
-        <v>103584000</v>
+        <v>104276000</v>
       </c>
       <c r="H42" s="3">
-        <v>129751000</v>
+        <v>130619000</v>
       </c>
       <c r="I42" s="3">
-        <v>132697000</v>
+        <v>133584000</v>
       </c>
       <c r="J42" s="3">
-        <v>131482000</v>
+        <v>132361000</v>
       </c>
       <c r="K42" s="3">
         <v>140919000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1615300</v>
+        <v>1626200</v>
       </c>
       <c r="E47" s="3">
-        <v>1709000</v>
+        <v>1720500</v>
       </c>
       <c r="F47" s="3">
-        <v>1588400</v>
+        <v>1599000</v>
       </c>
       <c r="G47" s="3">
-        <v>1927700</v>
+        <v>1940500</v>
       </c>
       <c r="H47" s="3">
-        <v>1295500</v>
+        <v>1304200</v>
       </c>
       <c r="I47" s="3">
-        <v>1171700</v>
+        <v>1179500</v>
       </c>
       <c r="J47" s="3">
-        <v>1228700</v>
+        <v>1237000</v>
       </c>
       <c r="K47" s="3">
         <v>982000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2653500</v>
+        <v>2671200</v>
       </c>
       <c r="E48" s="3">
-        <v>2736400</v>
+        <v>2754700</v>
       </c>
       <c r="F48" s="3">
-        <v>3081000</v>
+        <v>3101600</v>
       </c>
       <c r="G48" s="3">
-        <v>3465500</v>
+        <v>3488600</v>
       </c>
       <c r="H48" s="3">
-        <v>1844700</v>
+        <v>1857100</v>
       </c>
       <c r="I48" s="3">
-        <v>2009500</v>
+        <v>2022900</v>
       </c>
       <c r="J48" s="3">
-        <v>2156000</v>
+        <v>2170400</v>
       </c>
       <c r="K48" s="3">
         <v>4216900</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1186700</v>
+        <v>1194700</v>
       </c>
       <c r="E49" s="3">
-        <v>1244900</v>
+        <v>1253200</v>
       </c>
       <c r="F49" s="3">
-        <v>1501200</v>
+        <v>1511200</v>
       </c>
       <c r="G49" s="3">
-        <v>2063300</v>
+        <v>2077100</v>
       </c>
       <c r="H49" s="3">
-        <v>1980400</v>
+        <v>1993700</v>
       </c>
       <c r="I49" s="3">
-        <v>1582000</v>
+        <v>1592500</v>
       </c>
       <c r="J49" s="3">
-        <v>1598100</v>
+        <v>1608800</v>
       </c>
       <c r="K49" s="3">
         <v>2620400</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2598600</v>
+        <v>2615900</v>
       </c>
       <c r="E52" s="3">
-        <v>1873800</v>
+        <v>1886300</v>
       </c>
       <c r="F52" s="3">
-        <v>1613200</v>
+        <v>1624000</v>
       </c>
       <c r="G52" s="3">
-        <v>1549700</v>
+        <v>1560000</v>
       </c>
       <c r="H52" s="3">
-        <v>2832200</v>
+        <v>2851200</v>
       </c>
       <c r="I52" s="3">
-        <v>1464600</v>
+        <v>1474400</v>
       </c>
       <c r="J52" s="3">
-        <v>994000</v>
+        <v>1000600</v>
       </c>
       <c r="K52" s="3">
         <v>3685100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1042240000</v>
+        <v>1049210000</v>
       </c>
       <c r="E54" s="3">
-        <v>1024440000</v>
+        <v>1031290000</v>
       </c>
       <c r="F54" s="3">
-        <v>1009350000</v>
+        <v>1016100000</v>
       </c>
       <c r="G54" s="3">
-        <v>960319000</v>
+        <v>966740000</v>
       </c>
       <c r="H54" s="3">
-        <v>955243000</v>
+        <v>961629000</v>
       </c>
       <c r="I54" s="3">
-        <v>911290000</v>
+        <v>917383000</v>
       </c>
       <c r="J54" s="3">
-        <v>910068000</v>
+        <v>916152000</v>
       </c>
       <c r="K54" s="3">
         <v>1026140000</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2203300</v>
+        <v>2218100</v>
       </c>
       <c r="E57" s="3">
-        <v>2191500</v>
+        <v>2206100</v>
       </c>
       <c r="F57" s="3">
-        <v>2189300</v>
+        <v>2204000</v>
       </c>
       <c r="G57" s="3">
-        <v>2283000</v>
+        <v>2298300</v>
       </c>
       <c r="H57" s="3">
-        <v>2512400</v>
+        <v>2529200</v>
       </c>
       <c r="I57" s="3">
-        <v>6682200</v>
+        <v>6726800</v>
       </c>
       <c r="J57" s="3">
-        <v>4731900</v>
+        <v>4763500</v>
       </c>
       <c r="K57" s="3">
         <v>5263200</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40335300</v>
+        <v>40605000</v>
       </c>
       <c r="E58" s="3">
-        <v>41099900</v>
+        <v>41374700</v>
       </c>
       <c r="F58" s="3">
-        <v>29333700</v>
+        <v>29529800</v>
       </c>
       <c r="G58" s="3">
-        <v>55793100</v>
+        <v>56166100</v>
       </c>
       <c r="H58" s="3">
-        <v>59562300</v>
+        <v>59960500</v>
       </c>
       <c r="I58" s="3">
-        <v>47800400</v>
+        <v>48119900</v>
       </c>
       <c r="J58" s="3">
-        <v>43599400</v>
+        <v>43890900</v>
       </c>
       <c r="K58" s="3">
         <v>52276200</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1424700</v>
+        <v>1434300</v>
       </c>
       <c r="E59" s="3">
-        <v>1391400</v>
+        <v>1400700</v>
       </c>
       <c r="F59" s="3">
-        <v>1364400</v>
+        <v>1373600</v>
       </c>
       <c r="G59" s="3">
-        <v>1639000</v>
+        <v>1650000</v>
       </c>
       <c r="H59" s="3">
-        <v>1828600</v>
+        <v>1840800</v>
       </c>
       <c r="I59" s="3">
-        <v>1866300</v>
+        <v>1878700</v>
       </c>
       <c r="J59" s="3">
-        <v>1121100</v>
+        <v>1128500</v>
       </c>
       <c r="K59" s="3">
         <v>1179000</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81223000</v>
+        <v>81766100</v>
       </c>
       <c r="E61" s="3">
-        <v>77056500</v>
+        <v>77571700</v>
       </c>
       <c r="F61" s="3">
-        <v>77504500</v>
+        <v>78022700</v>
       </c>
       <c r="G61" s="3">
-        <v>91336200</v>
+        <v>91946900</v>
       </c>
       <c r="H61" s="3">
-        <v>84177000</v>
+        <v>84739800</v>
       </c>
       <c r="I61" s="3">
-        <v>72870600</v>
+        <v>73357800</v>
       </c>
       <c r="J61" s="3">
-        <v>86120800</v>
+        <v>86696600</v>
       </c>
       <c r="K61" s="3">
         <v>88288000</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1590600</v>
+        <v>1601200</v>
       </c>
       <c r="E62" s="3">
-        <v>2042900</v>
+        <v>2056500</v>
       </c>
       <c r="F62" s="3">
-        <v>1839300</v>
+        <v>1851600</v>
       </c>
       <c r="G62" s="3">
-        <v>2100000</v>
+        <v>2114000</v>
       </c>
       <c r="H62" s="3">
-        <v>2313200</v>
+        <v>2328600</v>
       </c>
       <c r="I62" s="3">
-        <v>3260900</v>
+        <v>3282700</v>
       </c>
       <c r="J62" s="3">
-        <v>3734700</v>
+        <v>3759700</v>
       </c>
       <c r="K62" s="3">
         <v>2148800</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>988495000</v>
+        <v>995104000</v>
       </c>
       <c r="E66" s="3">
-        <v>966380000</v>
+        <v>972841000</v>
       </c>
       <c r="F66" s="3">
-        <v>950513000</v>
+        <v>956868000</v>
       </c>
       <c r="G66" s="3">
-        <v>902415000</v>
+        <v>908449000</v>
       </c>
       <c r="H66" s="3">
-        <v>900394000</v>
+        <v>906414000</v>
       </c>
       <c r="I66" s="3">
-        <v>857008000</v>
+        <v>862738000</v>
       </c>
       <c r="J66" s="3">
-        <v>856446000</v>
+        <v>862172000</v>
       </c>
       <c r="K66" s="3">
         <v>977315000</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41512300</v>
+        <v>41789900</v>
       </c>
       <c r="E72" s="3">
-        <v>43864300</v>
+        <v>44157600</v>
       </c>
       <c r="F72" s="3">
-        <v>41379900</v>
+        <v>41656500</v>
       </c>
       <c r="G72" s="3">
-        <v>38609000</v>
+        <v>38867200</v>
       </c>
       <c r="H72" s="3">
-        <v>35752000</v>
+        <v>35991000</v>
       </c>
       <c r="I72" s="3">
-        <v>33950300</v>
+        <v>34177300</v>
       </c>
       <c r="J72" s="3">
-        <v>31383000</v>
+        <v>31592800</v>
       </c>
       <c r="K72" s="3">
         <v>27381900</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>53747000</v>
+        <v>54106300</v>
       </c>
       <c r="E76" s="3">
-        <v>58064300</v>
+        <v>58452500</v>
       </c>
       <c r="F76" s="3">
-        <v>58838600</v>
+        <v>59232000</v>
       </c>
       <c r="G76" s="3">
-        <v>57903800</v>
+        <v>58291000</v>
       </c>
       <c r="H76" s="3">
-        <v>54848700</v>
+        <v>55215400</v>
       </c>
       <c r="I76" s="3">
-        <v>54282200</v>
+        <v>54645100</v>
       </c>
       <c r="J76" s="3">
-        <v>53622100</v>
+        <v>53980600</v>
       </c>
       <c r="K76" s="3">
         <v>48826900</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3955500</v>
+        <v>3981900</v>
       </c>
       <c r="E81" s="3">
-        <v>5143300</v>
+        <v>5177700</v>
       </c>
       <c r="F81" s="3">
-        <v>2676100</v>
+        <v>2694000</v>
       </c>
       <c r="G81" s="3">
-        <v>5148700</v>
+        <v>5183100</v>
       </c>
       <c r="H81" s="3">
-        <v>5064700</v>
+        <v>5098500</v>
       </c>
       <c r="I81" s="3">
-        <v>5282200</v>
+        <v>5317500</v>
       </c>
       <c r="J81" s="3">
-        <v>5008700</v>
+        <v>5042100</v>
       </c>
       <c r="K81" s="3">
         <v>4093400</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>765700</v>
+        <v>770800</v>
       </c>
       <c r="E83" s="3">
-        <v>898100</v>
+        <v>904100</v>
       </c>
       <c r="F83" s="3">
-        <v>892800</v>
+        <v>898700</v>
       </c>
       <c r="G83" s="3">
-        <v>849700</v>
+        <v>855400</v>
       </c>
       <c r="H83" s="3">
-        <v>560000</v>
+        <v>563700</v>
       </c>
       <c r="I83" s="3">
-        <v>560000</v>
+        <v>563700</v>
       </c>
       <c r="J83" s="3">
-        <v>577200</v>
+        <v>581100</v>
       </c>
       <c r="K83" s="3">
         <v>647200</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11966500</v>
+        <v>-12046500</v>
       </c>
       <c r="E89" s="3">
-        <v>-16092100</v>
+        <v>-16199700</v>
       </c>
       <c r="F89" s="3">
-        <v>109028600</v>
+        <v>109757500</v>
       </c>
       <c r="G89" s="3">
-        <v>14058900</v>
+        <v>14152900</v>
       </c>
       <c r="H89" s="3">
-        <v>7446800</v>
+        <v>7496600</v>
       </c>
       <c r="I89" s="3">
-        <v>-5657000</v>
+        <v>-5694800</v>
       </c>
       <c r="J89" s="3">
-        <v>9210700</v>
+        <v>9272300</v>
       </c>
       <c r="K89" s="3">
         <v>10797000</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-248800</v>
+        <v>-250400</v>
       </c>
       <c r="E91" s="3">
-        <v>-198100</v>
+        <v>-199500</v>
       </c>
       <c r="F91" s="3">
-        <v>-309100</v>
+        <v>-311100</v>
       </c>
       <c r="G91" s="3">
-        <v>-382300</v>
+        <v>-384900</v>
       </c>
       <c r="H91" s="3">
-        <v>-308000</v>
+        <v>-310100</v>
       </c>
       <c r="I91" s="3">
-        <v>-327400</v>
+        <v>-329600</v>
       </c>
       <c r="J91" s="3">
-        <v>-446900</v>
+        <v>-449900</v>
       </c>
       <c r="K91" s="3">
         <v>-398100</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5715100</v>
+        <v>-5753300</v>
       </c>
       <c r="E94" s="3">
-        <v>6698300</v>
+        <v>6743100</v>
       </c>
       <c r="F94" s="3">
-        <v>-9139700</v>
+        <v>-9200800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2686900</v>
+        <v>-2704800</v>
       </c>
       <c r="H94" s="3">
-        <v>5870200</v>
+        <v>5909400</v>
       </c>
       <c r="I94" s="3">
-        <v>12657900</v>
+        <v>12742500</v>
       </c>
       <c r="J94" s="3">
-        <v>6605700</v>
+        <v>6649900</v>
       </c>
       <c r="K94" s="3">
         <v>4283300</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3286700</v>
+        <v>-3308700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2522100</v>
+        <v>-2539000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2853800</v>
+        <v>-2872900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2807500</v>
+        <v>-2826200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2761200</v>
+        <v>-2779600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2714900</v>
+        <v>-2733000</v>
       </c>
       <c r="K96" s="3">
         <v>-1422000</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5006500</v>
+        <v>5040000</v>
       </c>
       <c r="E100" s="3">
-        <v>5801300</v>
+        <v>5840000</v>
       </c>
       <c r="F100" s="3">
-        <v>-37471800</v>
+        <v>-37722300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4473400</v>
+        <v>-4503400</v>
       </c>
       <c r="H100" s="3">
-        <v>17212100</v>
+        <v>17327200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4251600</v>
+        <v>-4280000</v>
       </c>
       <c r="J100" s="3">
-        <v>-20522500</v>
+        <v>-20659700</v>
       </c>
       <c r="K100" s="3">
         <v>-11397200</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-542800</v>
+        <v>-546400</v>
       </c>
       <c r="E101" s="3">
-        <v>-608400</v>
+        <v>-612500</v>
       </c>
       <c r="F101" s="3">
-        <v>-457700</v>
+        <v>-460700</v>
       </c>
       <c r="G101" s="3">
-        <v>102300</v>
+        <v>103000</v>
       </c>
       <c r="H101" s="3">
-        <v>219700</v>
+        <v>221200</v>
       </c>
       <c r="I101" s="3">
-        <v>280000</v>
+        <v>281900</v>
       </c>
       <c r="J101" s="3">
-        <v>166900</v>
+        <v>168000</v>
       </c>
       <c r="K101" s="3">
         <v>-349100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13217900</v>
+        <v>-13306200</v>
       </c>
       <c r="E102" s="3">
-        <v>-4201000</v>
+        <v>-4229100</v>
       </c>
       <c r="F102" s="3">
-        <v>61959400</v>
+        <v>62373700</v>
       </c>
       <c r="G102" s="3">
-        <v>7000900</v>
+        <v>7047700</v>
       </c>
       <c r="H102" s="3">
-        <v>30748700</v>
+        <v>30954300</v>
       </c>
       <c r="I102" s="3">
-        <v>3029300</v>
+        <v>3049600</v>
       </c>
       <c r="J102" s="3">
-        <v>-4539100</v>
+        <v>-4569500</v>
       </c>
       <c r="K102" s="3">
         <v>3333900</v>

--- a/AAII_Financials/Yearly/ING_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ING_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30864300</v>
+        <v>30890000</v>
       </c>
       <c r="E8" s="3">
-        <v>22889700</v>
+        <v>22908700</v>
       </c>
       <c r="F8" s="3">
-        <v>24606900</v>
+        <v>24627300</v>
       </c>
       <c r="G8" s="3">
-        <v>30847000</v>
+        <v>30872600</v>
       </c>
       <c r="H8" s="3">
-        <v>30515200</v>
+        <v>30540600</v>
       </c>
       <c r="I8" s="3">
-        <v>47769800</v>
+        <v>47809400</v>
       </c>
       <c r="J8" s="3">
-        <v>47897700</v>
+        <v>47937500</v>
       </c>
       <c r="K8" s="3">
         <v>47284500</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-770800</v>
+        <v>-771400</v>
       </c>
       <c r="E15" s="3">
-        <v>-904100</v>
+        <v>-904900</v>
       </c>
       <c r="F15" s="3">
-        <v>-898700</v>
+        <v>-899500</v>
       </c>
       <c r="G15" s="3">
-        <v>-854300</v>
+        <v>-855000</v>
       </c>
       <c r="H15" s="3">
-        <v>-786000</v>
+        <v>-786600</v>
       </c>
       <c r="I15" s="3">
-        <v>-751300</v>
+        <v>-751900</v>
       </c>
       <c r="J15" s="3">
-        <v>-581100</v>
+        <v>-581600</v>
       </c>
       <c r="K15" s="3">
         <v>-627800</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17969000</v>
+        <v>17983900</v>
       </c>
       <c r="E17" s="3">
-        <v>8689100</v>
+        <v>8696300</v>
       </c>
       <c r="F17" s="3">
-        <v>12758800</v>
+        <v>12769400</v>
       </c>
       <c r="G17" s="3">
-        <v>16799200</v>
+        <v>16813200</v>
       </c>
       <c r="H17" s="3">
-        <v>16140100</v>
+        <v>16153500</v>
       </c>
       <c r="I17" s="3">
-        <v>33635300</v>
+        <v>33663200</v>
       </c>
       <c r="J17" s="3">
-        <v>34599100</v>
+        <v>34627800</v>
       </c>
       <c r="K17" s="3">
         <v>35837200</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12895400</v>
+        <v>12906100</v>
       </c>
       <c r="E18" s="3">
-        <v>14200600</v>
+        <v>14212400</v>
       </c>
       <c r="F18" s="3">
-        <v>11848100</v>
+        <v>11858000</v>
       </c>
       <c r="G18" s="3">
-        <v>14047800</v>
+        <v>14059400</v>
       </c>
       <c r="H18" s="3">
-        <v>14375200</v>
+        <v>14387100</v>
       </c>
       <c r="I18" s="3">
-        <v>14134500</v>
+        <v>14146200</v>
       </c>
       <c r="J18" s="3">
-        <v>13298700</v>
+        <v>13309700</v>
       </c>
       <c r="K18" s="3">
         <v>11447300</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6930700</v>
+        <v>-6936400</v>
       </c>
       <c r="E20" s="3">
-        <v>-6848300</v>
+        <v>-6853900</v>
       </c>
       <c r="F20" s="3">
-        <v>-7718800</v>
+        <v>-7725200</v>
       </c>
       <c r="G20" s="3">
-        <v>-6639000</v>
+        <v>-6644500</v>
       </c>
       <c r="H20" s="3">
-        <v>-6962100</v>
+        <v>-6967900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6255300</v>
+        <v>-6260500</v>
       </c>
       <c r="J20" s="3">
-        <v>-6899200</v>
+        <v>-6904900</v>
       </c>
       <c r="K20" s="3">
         <v>-5146900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6735500</v>
+        <v>6740800</v>
       </c>
       <c r="E21" s="3">
-        <v>8256500</v>
+        <v>8263000</v>
       </c>
       <c r="F21" s="3">
-        <v>5028100</v>
+        <v>5031900</v>
       </c>
       <c r="G21" s="3">
-        <v>8264100</v>
+        <v>8270600</v>
       </c>
       <c r="H21" s="3">
-        <v>7976800</v>
+        <v>7983200</v>
       </c>
       <c r="I21" s="3">
-        <v>8443000</v>
+        <v>8449800</v>
       </c>
       <c r="J21" s="3">
-        <v>6980500</v>
+        <v>6986100</v>
       </c>
       <c r="K21" s="3">
         <v>6935100</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5964700</v>
+        <v>5969700</v>
       </c>
       <c r="E23" s="3">
-        <v>7352400</v>
+        <v>7358500</v>
       </c>
       <c r="F23" s="3">
-        <v>4129300</v>
+        <v>4132800</v>
       </c>
       <c r="G23" s="3">
-        <v>7408700</v>
+        <v>7414900</v>
       </c>
       <c r="H23" s="3">
-        <v>7413100</v>
+        <v>7419200</v>
       </c>
       <c r="I23" s="3">
-        <v>7879200</v>
+        <v>7885800</v>
       </c>
       <c r="J23" s="3">
-        <v>6399400</v>
+        <v>6404800</v>
       </c>
       <c r="K23" s="3">
         <v>6300400</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1870100</v>
+        <v>1871600</v>
       </c>
       <c r="E24" s="3">
-        <v>2034900</v>
+        <v>2036500</v>
       </c>
       <c r="F24" s="3">
-        <v>1350800</v>
+        <v>1351900</v>
       </c>
       <c r="G24" s="3">
-        <v>2119400</v>
+        <v>2121200</v>
       </c>
       <c r="H24" s="3">
-        <v>2197500</v>
+        <v>2199300</v>
       </c>
       <c r="I24" s="3">
-        <v>2472800</v>
+        <v>2474900</v>
       </c>
       <c r="J24" s="3">
-        <v>1754100</v>
+        <v>1755500</v>
       </c>
       <c r="K24" s="3">
         <v>1671000</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4094600</v>
+        <v>4098000</v>
       </c>
       <c r="E26" s="3">
-        <v>5317500</v>
+        <v>5321900</v>
       </c>
       <c r="F26" s="3">
-        <v>2778500</v>
+        <v>2780900</v>
       </c>
       <c r="G26" s="3">
-        <v>5289300</v>
+        <v>5293700</v>
       </c>
       <c r="H26" s="3">
-        <v>5215600</v>
+        <v>5219900</v>
       </c>
       <c r="I26" s="3">
-        <v>5406400</v>
+        <v>5410900</v>
       </c>
       <c r="J26" s="3">
-        <v>4645400</v>
+        <v>4649200</v>
       </c>
       <c r="K26" s="3">
         <v>4629300</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3981900</v>
+        <v>3985200</v>
       </c>
       <c r="E27" s="3">
-        <v>5177700</v>
+        <v>5182000</v>
       </c>
       <c r="F27" s="3">
-        <v>2694000</v>
+        <v>2696200</v>
       </c>
       <c r="G27" s="3">
-        <v>5183100</v>
+        <v>5187400</v>
       </c>
       <c r="H27" s="3">
-        <v>5098500</v>
+        <v>5102800</v>
       </c>
       <c r="I27" s="3">
-        <v>5317500</v>
+        <v>5321900</v>
       </c>
       <c r="J27" s="3">
-        <v>4564100</v>
+        <v>4567900</v>
       </c>
       <c r="K27" s="3">
         <v>4558900</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>478100</v>
+        <v>478500</v>
       </c>
       <c r="K29" s="3">
         <v>-465500</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6930700</v>
+        <v>6936400</v>
       </c>
       <c r="E32" s="3">
-        <v>6848300</v>
+        <v>6853900</v>
       </c>
       <c r="F32" s="3">
-        <v>7718800</v>
+        <v>7725200</v>
       </c>
       <c r="G32" s="3">
-        <v>6639000</v>
+        <v>6644500</v>
       </c>
       <c r="H32" s="3">
-        <v>6962100</v>
+        <v>6967900</v>
       </c>
       <c r="I32" s="3">
-        <v>6255300</v>
+        <v>6260500</v>
       </c>
       <c r="J32" s="3">
-        <v>6899200</v>
+        <v>6904900</v>
       </c>
       <c r="K32" s="3">
         <v>5146900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3981900</v>
+        <v>3985200</v>
       </c>
       <c r="E33" s="3">
-        <v>5177700</v>
+        <v>5182000</v>
       </c>
       <c r="F33" s="3">
-        <v>2694000</v>
+        <v>2696200</v>
       </c>
       <c r="G33" s="3">
-        <v>5183100</v>
+        <v>5187400</v>
       </c>
       <c r="H33" s="3">
-        <v>5098500</v>
+        <v>5102800</v>
       </c>
       <c r="I33" s="3">
-        <v>5317500</v>
+        <v>5321900</v>
       </c>
       <c r="J33" s="3">
-        <v>5042100</v>
+        <v>5046300</v>
       </c>
       <c r="K33" s="3">
         <v>4093400</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3981900</v>
+        <v>3985200</v>
       </c>
       <c r="E35" s="3">
-        <v>5177700</v>
+        <v>5182000</v>
       </c>
       <c r="F35" s="3">
-        <v>2694000</v>
+        <v>2696200</v>
       </c>
       <c r="G35" s="3">
-        <v>5183100</v>
+        <v>5187400</v>
       </c>
       <c r="H35" s="3">
-        <v>5098500</v>
+        <v>5102800</v>
       </c>
       <c r="I35" s="3">
-        <v>5317500</v>
+        <v>5321900</v>
       </c>
       <c r="J35" s="3">
-        <v>5042100</v>
+        <v>5046300</v>
       </c>
       <c r="K35" s="3">
         <v>4093400</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133039000</v>
+        <v>133149000</v>
       </c>
       <c r="E41" s="3">
-        <v>141054000</v>
+        <v>141172000</v>
       </c>
       <c r="F41" s="3">
-        <v>147927000</v>
+        <v>148049000</v>
       </c>
       <c r="G41" s="3">
-        <v>95767200</v>
+        <v>95846700</v>
       </c>
       <c r="H41" s="3">
-        <v>87171400</v>
+        <v>87243800</v>
       </c>
       <c r="I41" s="3">
-        <v>55072300</v>
+        <v>55118000</v>
       </c>
       <c r="J41" s="3">
-        <v>50954900</v>
+        <v>50997200</v>
       </c>
       <c r="K41" s="3">
         <v>105032000</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>124031000</v>
+        <v>124134000</v>
       </c>
       <c r="E42" s="3">
-        <v>111439000</v>
+        <v>111532000</v>
       </c>
       <c r="F42" s="3">
-        <v>113208000</v>
+        <v>113302000</v>
       </c>
       <c r="G42" s="3">
-        <v>104276000</v>
+        <v>104363000</v>
       </c>
       <c r="H42" s="3">
-        <v>130619000</v>
+        <v>130727000</v>
       </c>
       <c r="I42" s="3">
-        <v>133584000</v>
+        <v>133695000</v>
       </c>
       <c r="J42" s="3">
-        <v>132361000</v>
+        <v>132471000</v>
       </c>
       <c r="K42" s="3">
         <v>140919000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1626200</v>
+        <v>1627500</v>
       </c>
       <c r="E47" s="3">
-        <v>1720500</v>
+        <v>1721900</v>
       </c>
       <c r="F47" s="3">
-        <v>1599000</v>
+        <v>1600400</v>
       </c>
       <c r="G47" s="3">
-        <v>1940500</v>
+        <v>1942100</v>
       </c>
       <c r="H47" s="3">
-        <v>1304200</v>
+        <v>1305300</v>
       </c>
       <c r="I47" s="3">
-        <v>1179500</v>
+        <v>1180500</v>
       </c>
       <c r="J47" s="3">
-        <v>1237000</v>
+        <v>1238000</v>
       </c>
       <c r="K47" s="3">
         <v>982000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2671200</v>
+        <v>2673400</v>
       </c>
       <c r="E48" s="3">
-        <v>2754700</v>
+        <v>2757000</v>
       </c>
       <c r="F48" s="3">
-        <v>3101600</v>
+        <v>3104200</v>
       </c>
       <c r="G48" s="3">
-        <v>3488600</v>
+        <v>3491500</v>
       </c>
       <c r="H48" s="3">
-        <v>1857100</v>
+        <v>1858600</v>
       </c>
       <c r="I48" s="3">
-        <v>2022900</v>
+        <v>2024600</v>
       </c>
       <c r="J48" s="3">
-        <v>2170400</v>
+        <v>2172200</v>
       </c>
       <c r="K48" s="3">
         <v>4216900</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1194700</v>
+        <v>1195700</v>
       </c>
       <c r="E49" s="3">
-        <v>1253200</v>
+        <v>1254300</v>
       </c>
       <c r="F49" s="3">
-        <v>1511200</v>
+        <v>1512500</v>
       </c>
       <c r="G49" s="3">
-        <v>2077100</v>
+        <v>2078900</v>
       </c>
       <c r="H49" s="3">
-        <v>1993700</v>
+        <v>1995300</v>
       </c>
       <c r="I49" s="3">
-        <v>1592500</v>
+        <v>1593900</v>
       </c>
       <c r="J49" s="3">
-        <v>1608800</v>
+        <v>1610100</v>
       </c>
       <c r="K49" s="3">
         <v>2620400</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2615900</v>
+        <v>2618100</v>
       </c>
       <c r="E52" s="3">
-        <v>1886300</v>
+        <v>1887900</v>
       </c>
       <c r="F52" s="3">
-        <v>1624000</v>
+        <v>1625300</v>
       </c>
       <c r="G52" s="3">
-        <v>1560000</v>
+        <v>1561300</v>
       </c>
       <c r="H52" s="3">
-        <v>2851200</v>
+        <v>2853500</v>
       </c>
       <c r="I52" s="3">
-        <v>1474400</v>
+        <v>1475600</v>
       </c>
       <c r="J52" s="3">
-        <v>1000600</v>
+        <v>1001500</v>
       </c>
       <c r="K52" s="3">
         <v>3685100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1049210000</v>
+        <v>1050080000</v>
       </c>
       <c r="E54" s="3">
-        <v>1031290000</v>
+        <v>1032150000</v>
       </c>
       <c r="F54" s="3">
-        <v>1016100000</v>
+        <v>1016940000</v>
       </c>
       <c r="G54" s="3">
-        <v>966740000</v>
+        <v>967542000</v>
       </c>
       <c r="H54" s="3">
-        <v>961629000</v>
+        <v>962428000</v>
       </c>
       <c r="I54" s="3">
-        <v>917383000</v>
+        <v>918144000</v>
       </c>
       <c r="J54" s="3">
-        <v>916152000</v>
+        <v>916913000</v>
       </c>
       <c r="K54" s="3">
         <v>1026140000</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2218100</v>
+        <v>2219900</v>
       </c>
       <c r="E57" s="3">
-        <v>2206100</v>
+        <v>2208000</v>
       </c>
       <c r="F57" s="3">
-        <v>2204000</v>
+        <v>2205800</v>
       </c>
       <c r="G57" s="3">
-        <v>2298300</v>
+        <v>2300200</v>
       </c>
       <c r="H57" s="3">
-        <v>2529200</v>
+        <v>2531300</v>
       </c>
       <c r="I57" s="3">
-        <v>6726800</v>
+        <v>6732400</v>
       </c>
       <c r="J57" s="3">
-        <v>4763500</v>
+        <v>4767500</v>
       </c>
       <c r="K57" s="3">
         <v>5263200</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40605000</v>
+        <v>40638700</v>
       </c>
       <c r="E58" s="3">
-        <v>41374700</v>
+        <v>41409000</v>
       </c>
       <c r="F58" s="3">
-        <v>29529800</v>
+        <v>29554300</v>
       </c>
       <c r="G58" s="3">
-        <v>56166100</v>
+        <v>56212800</v>
       </c>
       <c r="H58" s="3">
-        <v>59960500</v>
+        <v>60010300</v>
       </c>
       <c r="I58" s="3">
-        <v>48119900</v>
+        <v>48159900</v>
       </c>
       <c r="J58" s="3">
-        <v>43890900</v>
+        <v>43927300</v>
       </c>
       <c r="K58" s="3">
         <v>52276200</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1434300</v>
+        <v>1435500</v>
       </c>
       <c r="E59" s="3">
-        <v>1400700</v>
+        <v>1401800</v>
       </c>
       <c r="F59" s="3">
-        <v>1373600</v>
+        <v>1374700</v>
       </c>
       <c r="G59" s="3">
-        <v>1650000</v>
+        <v>1651400</v>
       </c>
       <c r="H59" s="3">
-        <v>1840800</v>
+        <v>1842300</v>
       </c>
       <c r="I59" s="3">
-        <v>1878700</v>
+        <v>1880300</v>
       </c>
       <c r="J59" s="3">
-        <v>1128500</v>
+        <v>1129500</v>
       </c>
       <c r="K59" s="3">
         <v>1179000</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81766100</v>
+        <v>81834000</v>
       </c>
       <c r="E61" s="3">
-        <v>77571700</v>
+        <v>77636100</v>
       </c>
       <c r="F61" s="3">
-        <v>78022700</v>
+        <v>78087400</v>
       </c>
       <c r="G61" s="3">
-        <v>91946900</v>
+        <v>92023200</v>
       </c>
       <c r="H61" s="3">
-        <v>84739800</v>
+        <v>84810100</v>
       </c>
       <c r="I61" s="3">
-        <v>73357800</v>
+        <v>73418700</v>
       </c>
       <c r="J61" s="3">
-        <v>86696600</v>
+        <v>86768500</v>
       </c>
       <c r="K61" s="3">
         <v>88288000</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1601200</v>
+        <v>1602500</v>
       </c>
       <c r="E62" s="3">
-        <v>2056500</v>
+        <v>2058200</v>
       </c>
       <c r="F62" s="3">
-        <v>1851600</v>
+        <v>1853200</v>
       </c>
       <c r="G62" s="3">
-        <v>2114000</v>
+        <v>2115800</v>
       </c>
       <c r="H62" s="3">
-        <v>2328600</v>
+        <v>2330600</v>
       </c>
       <c r="I62" s="3">
-        <v>3282700</v>
+        <v>3285400</v>
       </c>
       <c r="J62" s="3">
-        <v>3759700</v>
+        <v>3762800</v>
       </c>
       <c r="K62" s="3">
         <v>2148800</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>995104000</v>
+        <v>995930000</v>
       </c>
       <c r="E66" s="3">
-        <v>972841000</v>
+        <v>973649000</v>
       </c>
       <c r="F66" s="3">
-        <v>956868000</v>
+        <v>957662000</v>
       </c>
       <c r="G66" s="3">
-        <v>908449000</v>
+        <v>909203000</v>
       </c>
       <c r="H66" s="3">
-        <v>906414000</v>
+        <v>907166000</v>
       </c>
       <c r="I66" s="3">
-        <v>862738000</v>
+        <v>863454000</v>
       </c>
       <c r="J66" s="3">
-        <v>862172000</v>
+        <v>862888000</v>
       </c>
       <c r="K66" s="3">
         <v>977315000</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41789900</v>
+        <v>41824600</v>
       </c>
       <c r="E72" s="3">
-        <v>44157600</v>
+        <v>44194200</v>
       </c>
       <c r="F72" s="3">
-        <v>41656500</v>
+        <v>41691100</v>
       </c>
       <c r="G72" s="3">
-        <v>38867200</v>
+        <v>38899400</v>
       </c>
       <c r="H72" s="3">
-        <v>35991000</v>
+        <v>36020900</v>
       </c>
       <c r="I72" s="3">
-        <v>34177300</v>
+        <v>34205700</v>
       </c>
       <c r="J72" s="3">
-        <v>31592800</v>
+        <v>31619100</v>
       </c>
       <c r="K72" s="3">
         <v>27381900</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54106300</v>
+        <v>54151300</v>
       </c>
       <c r="E76" s="3">
-        <v>58452500</v>
+        <v>58501000</v>
       </c>
       <c r="F76" s="3">
-        <v>59232000</v>
+        <v>59281100</v>
       </c>
       <c r="G76" s="3">
-        <v>58291000</v>
+        <v>58339400</v>
       </c>
       <c r="H76" s="3">
-        <v>55215400</v>
+        <v>55261200</v>
       </c>
       <c r="I76" s="3">
-        <v>54645100</v>
+        <v>54690500</v>
       </c>
       <c r="J76" s="3">
-        <v>53980600</v>
+        <v>54025400</v>
       </c>
       <c r="K76" s="3">
         <v>48826900</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3981900</v>
+        <v>3985200</v>
       </c>
       <c r="E81" s="3">
-        <v>5177700</v>
+        <v>5182000</v>
       </c>
       <c r="F81" s="3">
-        <v>2694000</v>
+        <v>2696200</v>
       </c>
       <c r="G81" s="3">
-        <v>5183100</v>
+        <v>5187400</v>
       </c>
       <c r="H81" s="3">
-        <v>5098500</v>
+        <v>5102800</v>
       </c>
       <c r="I81" s="3">
-        <v>5317500</v>
+        <v>5321900</v>
       </c>
       <c r="J81" s="3">
-        <v>5042100</v>
+        <v>5046300</v>
       </c>
       <c r="K81" s="3">
         <v>4093400</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>770800</v>
+        <v>771400</v>
       </c>
       <c r="E83" s="3">
-        <v>904100</v>
+        <v>904900</v>
       </c>
       <c r="F83" s="3">
-        <v>898700</v>
+        <v>899500</v>
       </c>
       <c r="G83" s="3">
-        <v>855400</v>
+        <v>856100</v>
       </c>
       <c r="H83" s="3">
-        <v>563700</v>
+        <v>564200</v>
       </c>
       <c r="I83" s="3">
-        <v>563700</v>
+        <v>564200</v>
       </c>
       <c r="J83" s="3">
-        <v>581100</v>
+        <v>581600</v>
       </c>
       <c r="K83" s="3">
         <v>647200</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12046500</v>
+        <v>-12056500</v>
       </c>
       <c r="E89" s="3">
-        <v>-16199700</v>
+        <v>-16213200</v>
       </c>
       <c r="F89" s="3">
-        <v>109757500</v>
+        <v>109848700</v>
       </c>
       <c r="G89" s="3">
-        <v>14152900</v>
+        <v>14164700</v>
       </c>
       <c r="H89" s="3">
-        <v>7496600</v>
+        <v>7502800</v>
       </c>
       <c r="I89" s="3">
-        <v>-5694800</v>
+        <v>-5699500</v>
       </c>
       <c r="J89" s="3">
-        <v>9272300</v>
+        <v>9280000</v>
       </c>
       <c r="K89" s="3">
         <v>10797000</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-250400</v>
+        <v>-250600</v>
       </c>
       <c r="E91" s="3">
-        <v>-199500</v>
+        <v>-199600</v>
       </c>
       <c r="F91" s="3">
-        <v>-311100</v>
+        <v>-311400</v>
       </c>
       <c r="G91" s="3">
-        <v>-384900</v>
+        <v>-385200</v>
       </c>
       <c r="H91" s="3">
-        <v>-310100</v>
+        <v>-310300</v>
       </c>
       <c r="I91" s="3">
-        <v>-329600</v>
+        <v>-329800</v>
       </c>
       <c r="J91" s="3">
-        <v>-449900</v>
+        <v>-450300</v>
       </c>
       <c r="K91" s="3">
         <v>-398100</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5753300</v>
+        <v>-5758100</v>
       </c>
       <c r="E94" s="3">
-        <v>6743100</v>
+        <v>6748700</v>
       </c>
       <c r="F94" s="3">
-        <v>-9200800</v>
+        <v>-9208400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2704800</v>
+        <v>-2707100</v>
       </c>
       <c r="H94" s="3">
-        <v>5909400</v>
+        <v>5914300</v>
       </c>
       <c r="I94" s="3">
-        <v>12742500</v>
+        <v>12753100</v>
       </c>
       <c r="J94" s="3">
-        <v>6649900</v>
+        <v>6655400</v>
       </c>
       <c r="K94" s="3">
         <v>4283300</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3308700</v>
+        <v>-3311400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2539000</v>
+        <v>-2541100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2872900</v>
+        <v>-2875300</v>
       </c>
       <c r="H96" s="3">
-        <v>-2826200</v>
+        <v>-2828600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2779600</v>
+        <v>-2781900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2733000</v>
+        <v>-2735300</v>
       </c>
       <c r="K96" s="3">
         <v>-1422000</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5040000</v>
+        <v>5044200</v>
       </c>
       <c r="E100" s="3">
-        <v>5840000</v>
+        <v>5844900</v>
       </c>
       <c r="F100" s="3">
-        <v>-37722300</v>
+        <v>-37753700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4503400</v>
+        <v>-4507100</v>
       </c>
       <c r="H100" s="3">
-        <v>17327200</v>
+        <v>17341600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4280000</v>
+        <v>-4283600</v>
       </c>
       <c r="J100" s="3">
-        <v>-20659700</v>
+        <v>-20676800</v>
       </c>
       <c r="K100" s="3">
         <v>-11397200</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-546400</v>
+        <v>-546800</v>
       </c>
       <c r="E101" s="3">
-        <v>-612500</v>
+        <v>-613000</v>
       </c>
       <c r="F101" s="3">
-        <v>-460700</v>
+        <v>-461100</v>
       </c>
       <c r="G101" s="3">
-        <v>103000</v>
+        <v>103100</v>
       </c>
       <c r="H101" s="3">
-        <v>221200</v>
+        <v>221300</v>
       </c>
       <c r="I101" s="3">
-        <v>281900</v>
+        <v>282100</v>
       </c>
       <c r="J101" s="3">
-        <v>168000</v>
+        <v>168200</v>
       </c>
       <c r="K101" s="3">
         <v>-349100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13306200</v>
+        <v>-13317300</v>
       </c>
       <c r="E102" s="3">
-        <v>-4229100</v>
+        <v>-4232600</v>
       </c>
       <c r="F102" s="3">
-        <v>62373700</v>
+        <v>62425500</v>
       </c>
       <c r="G102" s="3">
-        <v>7047700</v>
+        <v>7053600</v>
       </c>
       <c r="H102" s="3">
-        <v>30954300</v>
+        <v>30980000</v>
       </c>
       <c r="I102" s="3">
-        <v>3049600</v>
+        <v>3052100</v>
       </c>
       <c r="J102" s="3">
-        <v>-4569500</v>
+        <v>-4573300</v>
       </c>
       <c r="K102" s="3">
         <v>3333900</v>
